--- a/NetAgent/src/main/resources/NA_STG.xlsx
+++ b/NetAgent/src/main/resources/NA_STG.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="428">
   <si>
     <t>PUId</t>
   </si>
@@ -1323,6 +1323,99 @@
   </si>
   <si>
     <t>135805804</t>
+  </si>
+  <si>
+    <t>23:09</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>10177090</t>
+  </si>
+  <si>
+    <t>00:34</t>
+  </si>
+  <si>
+    <t>10177120</t>
+  </si>
+  <si>
+    <t>01:08</t>
+  </si>
+  <si>
+    <t>779</t>
+  </si>
+  <si>
+    <t>10177189</t>
+  </si>
+  <si>
+    <t>01:31</t>
+  </si>
+  <si>
+    <t>10177231</t>
+  </si>
+  <si>
+    <t>23:05</t>
+  </si>
+  <si>
+    <t>10177266</t>
+  </si>
+  <si>
+    <t>02:39</t>
+  </si>
+  <si>
+    <t>2620</t>
+  </si>
+  <si>
+    <t>10177309</t>
+  </si>
+  <si>
+    <t>03:05</t>
+  </si>
+  <si>
+    <t>10177350</t>
+  </si>
+  <si>
+    <t>03:29</t>
+  </si>
+  <si>
+    <t>10177361</t>
+  </si>
+  <si>
+    <t>04:34</t>
+  </si>
+  <si>
+    <t>10177401</t>
+  </si>
+  <si>
+    <t>01:56</t>
+  </si>
+  <si>
+    <t>10177433</t>
+  </si>
+  <si>
+    <t>1031</t>
+  </si>
+  <si>
+    <t>10177520</t>
+  </si>
+  <si>
+    <t>10177539</t>
+  </si>
+  <si>
+    <t>10177555</t>
+  </si>
+  <si>
+    <t>10177565</t>
+  </si>
+  <si>
+    <t>10177619</t>
+  </si>
+  <si>
+    <t>10178021</t>
+  </si>
+  <si>
+    <t>10178099</t>
   </si>
 </sst>
 </file>
@@ -3492,7 +3585,7 @@
         <v>154</v>
       </c>
       <c r="AB2" t="s">
-        <v>184</v>
+        <v>398</v>
       </c>
       <c r="AC2" s="32" t="s">
         <v>155</v>
@@ -3507,17 +3600,17 @@
         <v>158</v>
       </c>
       <c r="AG2" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="AH2" s="36"/>
       <c r="AI2" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="AJ2" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="AK2" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="AL2" s="37"/>
       <c r="AM2" s="46" t="s">
@@ -3617,17 +3710,17 @@
         <v>158</v>
       </c>
       <c r="AG3" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="AH3" s="36"/>
       <c r="AI3" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="AJ3" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="AK3" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="AL3" s="37"/>
       <c r="AM3" s="46" t="s">
@@ -3716,24 +3809,24 @@
         <v>183</v>
       </c>
       <c r="AD4" t="s">
-        <v>184</v>
+        <v>403</v>
       </c>
       <c r="AE4" s="32"/>
       <c r="AF4" t="s">
         <v>158</v>
       </c>
       <c r="AG4" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="AH4" s="36"/>
       <c r="AI4" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="AJ4" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="AK4" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="AL4" s="37"/>
       <c r="AM4" s="46" t="s">
@@ -3833,17 +3926,17 @@
         <v>158</v>
       </c>
       <c r="AG5" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="AH5" s="36"/>
       <c r="AI5" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="AJ5" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="AK5" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="AL5" s="37"/>
       <c r="AM5" s="46" t="s">
@@ -3941,19 +4034,19 @@
       <c r="AE6" s="32"/>
       <c r="AF6" s="38"/>
       <c r="AG6" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="AH6" s="36" t="s">
         <v>203</v>
       </c>
       <c r="AI6" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="AJ6" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="AK6" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="AL6" s="37"/>
       <c r="AM6" s="46" t="s">
@@ -4044,24 +4137,24 @@
         <v>209</v>
       </c>
       <c r="AD7" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="AE7" s="32"/>
       <c r="AF7" s="38"/>
       <c r="AG7" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="AH7" s="36" t="s">
         <v>210</v>
       </c>
       <c r="AI7" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="AJ7" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="AK7" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="AL7" s="37"/>
       <c r="AM7" s="46" t="s">
@@ -4161,17 +4254,17 @@
         <v>158</v>
       </c>
       <c r="AG8" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="AH8" s="36"/>
       <c r="AI8" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="AJ8" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="AK8" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="AL8" s="37"/>
       <c r="AM8" s="46" t="s">
@@ -4269,17 +4362,17 @@
       <c r="AE9" s="34"/>
       <c r="AF9" s="38"/>
       <c r="AG9" t="s">
-        <v>388</v>
+        <v>417</v>
       </c>
       <c r="AH9" s="36"/>
       <c r="AI9" t="s">
-        <v>387</v>
+        <v>416</v>
       </c>
       <c r="AJ9" t="s">
-        <v>387</v>
+        <v>416</v>
       </c>
       <c r="AK9" t="s">
-        <v>387</v>
+        <v>416</v>
       </c>
       <c r="AL9" s="37"/>
       <c r="AM9" s="46" t="s">
@@ -4370,22 +4463,22 @@
         <v>156</v>
       </c>
       <c r="AD10" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="AE10" s="32"/>
       <c r="AF10" s="39"/>
       <c r="AG10" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="AH10" s="39"/>
       <c r="AI10" t="s">
-        <v>389</v>
+        <v>418</v>
       </c>
       <c r="AJ10" t="s">
-        <v>389</v>
+        <v>418</v>
       </c>
       <c r="AK10" t="s">
-        <v>389</v>
+        <v>418</v>
       </c>
       <c r="AL10" s="40"/>
       <c r="AM10" s="46" t="s">
@@ -4509,13 +4602,13 @@
         <v>171</v>
       </c>
       <c r="AD12" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="AF12" t="s">
         <v>158</v>
       </c>
       <c r="AG12" t="s">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="AH12" s="37"/>
       <c r="AI12" s="37"/>
@@ -4564,16 +4657,16 @@
       </c>
       <c r="Z13" s="37"/>
       <c r="AB13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AD13" t="s">
         <v>244</v>
       </c>
       <c r="AF13" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="AG13" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="AH13" s="37"/>
       <c r="AI13" s="37"/>
@@ -4636,7 +4729,7 @@
       <c r="Z14" s="51"/>
       <c r="AA14" s="50"/>
       <c r="AB14" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AC14" s="50"/>
       <c r="AD14" t="s">
@@ -4644,10 +4737,10 @@
       </c>
       <c r="AE14" s="50"/>
       <c r="AF14" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="AG14" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="AH14" s="51"/>
       <c r="AI14" s="51"/>
@@ -4715,7 +4808,7 @@
         <v>251</v>
       </c>
       <c r="D2" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="E2" s="59" t="s">
         <v>255</v>
@@ -4913,7 +5006,7 @@
         <v>299</v>
       </c>
       <c r="D13" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="E13" s="59" t="s">
         <v>300</v>

--- a/NetAgent/src/main/resources/NA_STG.xlsx
+++ b/NetAgent/src/main/resources/NA_STG.xlsx
@@ -5,28 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Local\NetAgentOrderProcessing\NAOrderProcessing\NetAgent\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Local\NetAgent\NetAgent\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="748" windowHeight="8070" windowWidth="16380" xWindow="0" yWindow="120"/>
+    <workbookView activeTab="5" tabRatio="748" windowHeight="5895" windowWidth="10230" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
-    <sheet name="RTE" r:id="rId2" sheetId="8"/>
-    <sheet name="TaskLog" r:id="rId3" sheetId="2"/>
-    <sheet name="OrderProcessing" r:id="rId4" sheetId="3"/>
-    <sheet name="OrderSearch" r:id="rId5" sheetId="4"/>
-    <sheet name="AgentConsole" r:id="rId6" sheetId="5"/>
+    <sheet name="TaskLog" r:id="rId2" sheetId="2"/>
+    <sheet name="OrderProcessing" r:id="rId3" sheetId="3"/>
+    <sheet name="OrderSearch" r:id="rId4" sheetId="4"/>
+    <sheet name="AgentConsole" r:id="rId5" sheetId="5"/>
+    <sheet name="RTE" r:id="rId6" sheetId="8"/>
     <sheet name="OrderCreation" r:id="rId7" sheetId="6"/>
     <sheet name="TC_OrderProcess" r:id="rId8" sheetId="7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="752">
   <si>
     <t>PUId</t>
   </si>
@@ -689,9 +689,6 @@
     <t>SDC</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>FRA</t>
   </si>
   <si>
@@ -763,6 +760,9 @@
   </si>
   <si>
     <t>1581</t>
+  </si>
+  <si>
+    <t>779</t>
   </si>
   <si>
     <t>selenium.automation</t>
@@ -1220,7 +1220,16 @@
     <t>2622</t>
   </si>
   <si>
-    <t>1744563</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>02:40</t>
+  </si>
+  <si>
+    <t>10091686</t>
+  </si>
+  <si>
+    <t>RT00002143</t>
   </si>
   <si>
     <t>RouteWorkID</t>
@@ -1241,181 +1250,1144 @@
     <t>BOLNo</t>
   </si>
   <si>
+    <t>03:50</t>
+  </si>
+  <si>
+    <t>10101158</t>
+  </si>
+  <si>
+    <t>05:07</t>
+  </si>
+  <si>
+    <t>10101223</t>
+  </si>
+  <si>
+    <t>05:31</t>
+  </si>
+  <si>
+    <t>10101311</t>
+  </si>
+  <si>
+    <t>05:54</t>
+  </si>
+  <si>
+    <t>10101322</t>
+  </si>
+  <si>
+    <t>06:12</t>
+  </si>
+  <si>
+    <t>10101361</t>
+  </si>
+  <si>
+    <t>03:28</t>
+  </si>
+  <si>
+    <t>10101370</t>
+  </si>
+  <si>
+    <t>10101415</t>
+  </si>
+  <si>
+    <t>07:14</t>
+  </si>
+  <si>
+    <t>07:17</t>
+  </si>
+  <si>
+    <t>10101459</t>
+  </si>
+  <si>
+    <t>10101506</t>
+  </si>
+  <si>
+    <t>10101583</t>
+  </si>
+  <si>
+    <t>10101639</t>
+  </si>
+  <si>
+    <t>10167731</t>
+  </si>
+  <si>
+    <t>1756662</t>
+  </si>
+  <si>
     <t>RT00005082</t>
   </si>
   <si>
-    <t>10169553</t>
-  </si>
-  <si>
-    <t>10169918</t>
-  </si>
-  <si>
-    <t>10169948</t>
-  </si>
-  <si>
-    <t>10170039</t>
-  </si>
-  <si>
-    <t>01:24</t>
-  </si>
-  <si>
-    <t>10174207</t>
-  </si>
-  <si>
-    <t>02:47</t>
-  </si>
-  <si>
-    <t>10174257</t>
-  </si>
-  <si>
-    <t>03:19</t>
-  </si>
-  <si>
-    <t>03:21</t>
-  </si>
-  <si>
-    <t>10174390</t>
-  </si>
-  <si>
-    <t>00:55</t>
-  </si>
-  <si>
-    <t>10174439</t>
-  </si>
-  <si>
-    <t>04:26</t>
-  </si>
-  <si>
-    <t>10174489</t>
-  </si>
-  <si>
-    <t>06:54</t>
-  </si>
-  <si>
-    <t>10174856</t>
-  </si>
-  <si>
-    <t>07:17</t>
-  </si>
-  <si>
-    <t>10174891</t>
-  </si>
-  <si>
-    <t>04:52</t>
-  </si>
-  <si>
-    <t>10174957</t>
-  </si>
-  <si>
-    <t>10175322</t>
-  </si>
-  <si>
-    <t>RT00005106</t>
-  </si>
-  <si>
-    <t>135805790</t>
-  </si>
-  <si>
-    <t>33357330</t>
-  </si>
-  <si>
-    <t>10175378</t>
-  </si>
-  <si>
-    <t>135805804</t>
-  </si>
-  <si>
-    <t>23:09</t>
+    <t>1756678</t>
+  </si>
+  <si>
+    <t>10169598</t>
+  </si>
+  <si>
+    <t>1756682</t>
+  </si>
+  <si>
+    <t>1756683</t>
+  </si>
+  <si>
+    <t>1756684</t>
+  </si>
+  <si>
+    <t>1756685</t>
+  </si>
+  <si>
+    <t>1756686</t>
+  </si>
+  <si>
+    <t>10169610</t>
+  </si>
+  <si>
+    <t>1756711</t>
+  </si>
+  <si>
+    <t>10174064</t>
+  </si>
+  <si>
+    <t>1756714</t>
+  </si>
+  <si>
+    <t>1756715</t>
+  </si>
+  <si>
+    <t>1756716</t>
+  </si>
+  <si>
+    <t>1756717</t>
+  </si>
+  <si>
+    <t>1756718</t>
+  </si>
+  <si>
+    <t>1756781</t>
+  </si>
+  <si>
+    <t>135849909</t>
+  </si>
+  <si>
+    <t>33361407</t>
+  </si>
+  <si>
+    <t>10179455</t>
+  </si>
+  <si>
+    <t>135849910</t>
+  </si>
+  <si>
+    <t>10179524</t>
+  </si>
+  <si>
+    <t>1756784</t>
+  </si>
+  <si>
+    <t>1756785</t>
+  </si>
+  <si>
+    <t>1756786</t>
+  </si>
+  <si>
+    <t>1756787</t>
+  </si>
+  <si>
+    <t>1756806</t>
+  </si>
+  <si>
+    <t>10180037</t>
+  </si>
+  <si>
+    <t>1756809</t>
+  </si>
+  <si>
+    <t>1756810</t>
+  </si>
+  <si>
+    <t>1756811</t>
+  </si>
+  <si>
+    <t>1756812</t>
+  </si>
+  <si>
+    <t>1756813</t>
+  </si>
+  <si>
+    <t>1756819</t>
+  </si>
+  <si>
+    <t>135876897</t>
+  </si>
+  <si>
+    <t>33363849</t>
+  </si>
+  <si>
+    <t>10181897</t>
+  </si>
+  <si>
+    <t>135876901</t>
+  </si>
+  <si>
+    <t>10181905</t>
+  </si>
+  <si>
+    <t>1756822</t>
+  </si>
+  <si>
+    <t>1756823</t>
+  </si>
+  <si>
+    <t>1756824</t>
+  </si>
+  <si>
+    <t>1756825</t>
+  </si>
+  <si>
+    <t>1756826</t>
+  </si>
+  <si>
+    <t>1762104</t>
+  </si>
+  <si>
+    <t>10182424</t>
+  </si>
+  <si>
+    <t>1762107</t>
+  </si>
+  <si>
+    <t>1762117</t>
+  </si>
+  <si>
+    <t>10182449</t>
+  </si>
+  <si>
+    <t>1762121</t>
+  </si>
+  <si>
+    <t>1762122</t>
+  </si>
+  <si>
+    <t>1762123</t>
+  </si>
+  <si>
+    <t>1762124</t>
+  </si>
+  <si>
+    <t>1762125</t>
+  </si>
+  <si>
+    <t>1762126</t>
+  </si>
+  <si>
+    <t>1762131</t>
+  </si>
+  <si>
+    <t>1762132</t>
+  </si>
+  <si>
+    <t>1762133</t>
+  </si>
+  <si>
+    <t>1762134</t>
+  </si>
+  <si>
+    <t>1762135</t>
+  </si>
+  <si>
+    <t>1762148</t>
+  </si>
+  <si>
+    <t>10182508</t>
+  </si>
+  <si>
+    <t>1762153</t>
+  </si>
+  <si>
+    <t>1762154</t>
+  </si>
+  <si>
+    <t>1762155</t>
+  </si>
+  <si>
+    <t>1762156</t>
+  </si>
+  <si>
+    <t>1762157</t>
+  </si>
+  <si>
+    <t>1763224</t>
+  </si>
+  <si>
+    <t>10183231</t>
+  </si>
+  <si>
+    <t>1763227</t>
+  </si>
+  <si>
+    <t>1763228</t>
+  </si>
+  <si>
+    <t>1763229</t>
+  </si>
+  <si>
+    <t>1763230</t>
+  </si>
+  <si>
+    <t>1763231</t>
+  </si>
+  <si>
+    <t>1763291</t>
+  </si>
+  <si>
+    <t>1763295</t>
+  </si>
+  <si>
+    <t>135965984</t>
+  </si>
+  <si>
+    <t>33371512</t>
+  </si>
+  <si>
+    <t>10189557</t>
+  </si>
+  <si>
+    <t>135965995</t>
+  </si>
+  <si>
+    <t>10189712</t>
+  </si>
+  <si>
+    <t>1763302</t>
+  </si>
+  <si>
+    <t>1763303</t>
+  </si>
+  <si>
+    <t>1763304</t>
+  </si>
+  <si>
+    <t>1763305</t>
+  </si>
+  <si>
+    <t>1763306</t>
+  </si>
+  <si>
+    <t>1764376</t>
+  </si>
+  <si>
+    <t>10195385</t>
+  </si>
+  <si>
+    <t>1764379</t>
+  </si>
+  <si>
+    <t>1764380</t>
+  </si>
+  <si>
+    <t>1764381</t>
+  </si>
+  <si>
+    <t>1764382</t>
+  </si>
+  <si>
+    <t>1764383</t>
+  </si>
+  <si>
+    <t>1766507</t>
+  </si>
+  <si>
+    <t>136029416</t>
+  </si>
+  <si>
+    <t>33377325</t>
+  </si>
+  <si>
+    <t>10195370</t>
+  </si>
+  <si>
+    <t>136029427</t>
+  </si>
+  <si>
+    <t>10195478</t>
+  </si>
+  <si>
+    <t>1766510</t>
+  </si>
+  <si>
+    <t>1766548</t>
+  </si>
+  <si>
+    <t>10195493</t>
+  </si>
+  <si>
+    <t>1766554</t>
+  </si>
+  <si>
+    <t>1766558</t>
+  </si>
+  <si>
+    <t>1766559</t>
+  </si>
+  <si>
+    <t>1766560</t>
+  </si>
+  <si>
+    <t>1766561</t>
+  </si>
+  <si>
+    <t>1766562</t>
+  </si>
+  <si>
+    <t>1770776</t>
+  </si>
+  <si>
+    <t>136078654</t>
+  </si>
+  <si>
+    <t>33381722</t>
+  </si>
+  <si>
+    <t>10199767</t>
+  </si>
+  <si>
+    <t>136078665</t>
+  </si>
+  <si>
+    <t>10199817</t>
+  </si>
+  <si>
+    <t>1770779</t>
+  </si>
+  <si>
+    <t>1770780</t>
+  </si>
+  <si>
+    <t>1770781</t>
+  </si>
+  <si>
+    <t>1770782</t>
+  </si>
+  <si>
+    <t>1770783</t>
+  </si>
+  <si>
+    <t>1770873</t>
+  </si>
+  <si>
+    <t>136118330</t>
+  </si>
+  <si>
+    <t>33385162</t>
+  </si>
+  <si>
+    <t>10203205</t>
+  </si>
+  <si>
+    <t>136118341</t>
+  </si>
+  <si>
+    <t>10204106</t>
+  </si>
+  <si>
+    <t>1770885</t>
+  </si>
+  <si>
+    <t>136164670</t>
+  </si>
+  <si>
+    <t>33389499</t>
+  </si>
+  <si>
+    <t>10207542</t>
+  </si>
+  <si>
+    <t>136164681</t>
+  </si>
+  <si>
+    <t>10207634</t>
+  </si>
+  <si>
+    <t>1770896</t>
+  </si>
+  <si>
+    <t>1770897</t>
+  </si>
+  <si>
+    <t>1770898</t>
+  </si>
+  <si>
+    <t>1770899</t>
+  </si>
+  <si>
+    <t>1770900</t>
+  </si>
+  <si>
+    <t>136190837</t>
+  </si>
+  <si>
+    <t>33391916</t>
+  </si>
+  <si>
+    <t>10209959</t>
+  </si>
+  <si>
+    <t>136190848</t>
+  </si>
+  <si>
+    <t>10210106</t>
+  </si>
+  <si>
+    <t>1770925</t>
+  </si>
+  <si>
+    <t>10210173</t>
+  </si>
+  <si>
+    <t>1770934</t>
+  </si>
+  <si>
+    <t>1770935</t>
+  </si>
+  <si>
+    <t>1770937</t>
+  </si>
+  <si>
+    <t>1770938</t>
+  </si>
+  <si>
+    <t>1770939</t>
+  </si>
+  <si>
+    <t>1770940</t>
+  </si>
+  <si>
+    <t>1770941</t>
+  </si>
+  <si>
+    <t>1770996</t>
+  </si>
+  <si>
+    <t>136218883</t>
+  </si>
+  <si>
+    <t>33394512</t>
+  </si>
+  <si>
+    <t>10212555</t>
+  </si>
+  <si>
+    <t>136218894</t>
+  </si>
+  <si>
+    <t>10213023</t>
+  </si>
+  <si>
+    <t>1771004</t>
+  </si>
+  <si>
+    <t>1771005</t>
+  </si>
+  <si>
+    <t>1771006</t>
+  </si>
+  <si>
+    <t>1771007</t>
+  </si>
+  <si>
+    <t>1771008</t>
+  </si>
+  <si>
+    <t>1771038</t>
+  </si>
+  <si>
+    <t>136234854</t>
+  </si>
+  <si>
+    <t>33395861</t>
+  </si>
+  <si>
+    <t>10213903</t>
+  </si>
+  <si>
+    <t>136234865</t>
+  </si>
+  <si>
+    <t>10214498</t>
+  </si>
+  <si>
+    <t>1771041</t>
+  </si>
+  <si>
+    <t>1771087</t>
+  </si>
+  <si>
+    <t>136306227</t>
+  </si>
+  <si>
+    <t>33402392</t>
+  </si>
+  <si>
+    <t>10220418</t>
+  </si>
+  <si>
+    <t>136306238</t>
+  </si>
+  <si>
+    <t>1031</t>
+  </si>
+  <si>
+    <t>10220537</t>
+  </si>
+  <si>
+    <t>1771090</t>
+  </si>
+  <si>
+    <t>1771091</t>
+  </si>
+  <si>
+    <t>1771092</t>
+  </si>
+  <si>
+    <t>1771093</t>
+  </si>
+  <si>
+    <t>1771094</t>
+  </si>
+  <si>
+    <t>1771112</t>
+  </si>
+  <si>
+    <t>136332565</t>
+  </si>
+  <si>
+    <t>33404839</t>
+  </si>
+  <si>
+    <t>10222860</t>
+  </si>
+  <si>
+    <t>136332576</t>
+  </si>
+  <si>
+    <t>10223023</t>
+  </si>
+  <si>
+    <t>1771117</t>
+  </si>
+  <si>
+    <t>1771118</t>
+  </si>
+  <si>
+    <t>1771119</t>
+  </si>
+  <si>
+    <t>1771120</t>
+  </si>
+  <si>
+    <t>1771121</t>
+  </si>
+  <si>
+    <t>10224151</t>
+  </si>
+  <si>
+    <t>1771194</t>
+  </si>
+  <si>
+    <t>1771195</t>
+  </si>
+  <si>
+    <t>1771196</t>
+  </si>
+  <si>
+    <t>1771197</t>
+  </si>
+  <si>
+    <t>1771198</t>
+  </si>
+  <si>
+    <t>1771200</t>
+  </si>
+  <si>
+    <t>10224154</t>
+  </si>
+  <si>
+    <t>1771203</t>
+  </si>
+  <si>
+    <t>1771234</t>
+  </si>
+  <si>
+    <t>10224278</t>
+  </si>
+  <si>
+    <t>1771237</t>
+  </si>
+  <si>
+    <t>1771238</t>
+  </si>
+  <si>
+    <t>1771239</t>
+  </si>
+  <si>
+    <t>1771240</t>
+  </si>
+  <si>
+    <t>1771241</t>
+  </si>
+  <si>
+    <t>1771250</t>
+  </si>
+  <si>
+    <t>136388159</t>
+  </si>
+  <si>
+    <t>33409596</t>
+  </si>
+  <si>
+    <t>10227611</t>
+  </si>
+  <si>
+    <t>136388160</t>
+  </si>
+  <si>
+    <t>10227807</t>
+  </si>
+  <si>
+    <t>1771253</t>
+  </si>
+  <si>
+    <t>1771254</t>
+  </si>
+  <si>
+    <t>1771255</t>
+  </si>
+  <si>
+    <t>1771256</t>
+  </si>
+  <si>
+    <t>1771257</t>
+  </si>
+  <si>
+    <t>1771305</t>
+  </si>
+  <si>
+    <t>136416748</t>
+  </si>
+  <si>
+    <t>33412103</t>
+  </si>
+  <si>
+    <t>10230118</t>
+  </si>
+  <si>
+    <t>136416759</t>
+  </si>
+  <si>
+    <t>10230353</t>
+  </si>
+  <si>
+    <t>1771308</t>
+  </si>
+  <si>
+    <t>1771309</t>
+  </si>
+  <si>
+    <t>1771310</t>
+  </si>
+  <si>
+    <t>1771311</t>
+  </si>
+  <si>
+    <t>1771312</t>
+  </si>
+  <si>
+    <t>1771344</t>
+  </si>
+  <si>
+    <t>136463096</t>
+  </si>
+  <si>
+    <t>33416364</t>
+  </si>
+  <si>
+    <t>10234377</t>
+  </si>
+  <si>
+    <t>136463100</t>
+  </si>
+  <si>
+    <t>10234665</t>
+  </si>
+  <si>
+    <t>1771347</t>
+  </si>
+  <si>
+    <t>1771348</t>
+  </si>
+  <si>
+    <t>1771349</t>
+  </si>
+  <si>
+    <t>1771350</t>
+  </si>
+  <si>
+    <t>1771351</t>
+  </si>
+  <si>
+    <t>1771388</t>
+  </si>
+  <si>
+    <t>10235152</t>
+  </si>
+  <si>
+    <t>1771392</t>
+  </si>
+  <si>
+    <t>1771393</t>
+  </si>
+  <si>
+    <t>1771394</t>
+  </si>
+  <si>
+    <t>1771395</t>
+  </si>
+  <si>
+    <t>1771396</t>
+  </si>
+  <si>
+    <t>1771435</t>
+  </si>
+  <si>
+    <t>136548612</t>
+  </si>
+  <si>
+    <t>33423990</t>
+  </si>
+  <si>
+    <t>10241997</t>
+  </si>
+  <si>
+    <t>136548623</t>
+  </si>
+  <si>
+    <t>10242238</t>
+  </si>
+  <si>
+    <t>1771440</t>
+  </si>
+  <si>
+    <t>1771445</t>
+  </si>
+  <si>
+    <t>10242369</t>
+  </si>
+  <si>
+    <t>1771448</t>
+  </si>
+  <si>
+    <t>1771449</t>
+  </si>
+  <si>
+    <t>1771450</t>
+  </si>
+  <si>
+    <t>1771451</t>
+  </si>
+  <si>
+    <t>1771452</t>
+  </si>
+  <si>
+    <t>1771468</t>
+  </si>
+  <si>
+    <t>136574868</t>
+  </si>
+  <si>
+    <t>33426420</t>
+  </si>
+  <si>
+    <t>10244421</t>
+  </si>
+  <si>
+    <t>136574879</t>
+  </si>
+  <si>
+    <t>10244642</t>
+  </si>
+  <si>
+    <t>1771471</t>
+  </si>
+  <si>
+    <t>1771472</t>
+  </si>
+  <si>
+    <t>1771473</t>
+  </si>
+  <si>
+    <t>1771474</t>
+  </si>
+  <si>
+    <t>1771475</t>
+  </si>
+  <si>
+    <t>1771516</t>
+  </si>
+  <si>
+    <t>136602217</t>
+  </si>
+  <si>
+    <t>33428933</t>
+  </si>
+  <si>
+    <t>10246934</t>
+  </si>
+  <si>
+    <t>136602228</t>
+  </si>
+  <si>
+    <t>10247186</t>
+  </si>
+  <si>
+    <t>1771519</t>
+  </si>
+  <si>
+    <t>1771520</t>
+  </si>
+  <si>
+    <t>1771521</t>
+  </si>
+  <si>
+    <t>1771522</t>
+  </si>
+  <si>
+    <t>1771523</t>
+  </si>
+  <si>
+    <t>1771554</t>
+  </si>
+  <si>
+    <t>136650148</t>
+  </si>
+  <si>
+    <t>33433200</t>
+  </si>
+  <si>
+    <t>10251195</t>
+  </si>
+  <si>
+    <t>136650159</t>
+  </si>
+  <si>
+    <t>10251363</t>
+  </si>
+  <si>
+    <t>1771558</t>
+  </si>
+  <si>
+    <t>1771559</t>
+  </si>
+  <si>
+    <t>1771560</t>
+  </si>
+  <si>
+    <t>1771561</t>
+  </si>
+  <si>
+    <t>1771569</t>
+  </si>
+  <si>
+    <t>1771578</t>
+  </si>
+  <si>
+    <t>1771610</t>
+  </si>
+  <si>
+    <t>136698355</t>
+  </si>
+  <si>
+    <t>33437695</t>
+  </si>
+  <si>
+    <t>10255682</t>
+  </si>
+  <si>
+    <t>136698366</t>
+  </si>
+  <si>
+    <t>10255911</t>
+  </si>
+  <si>
+    <t>1771616</t>
+  </si>
+  <si>
+    <t>1771617</t>
+  </si>
+  <si>
+    <t>1771618</t>
+  </si>
+  <si>
+    <t>1771619</t>
+  </si>
+  <si>
+    <t>1771620</t>
+  </si>
+  <si>
+    <t>02:07</t>
+  </si>
+  <si>
+    <t>10268179</t>
+  </si>
+  <si>
+    <t>05:35</t>
+  </si>
+  <si>
+    <t>10268405</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>06:40</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>10177090</t>
-  </si>
-  <si>
-    <t>00:34</t>
-  </si>
-  <si>
-    <t>10177120</t>
-  </si>
-  <si>
-    <t>01:08</t>
-  </si>
-  <si>
-    <t>779</t>
-  </si>
-  <si>
-    <t>10177189</t>
-  </si>
-  <si>
-    <t>01:31</t>
-  </si>
-  <si>
-    <t>10177231</t>
-  </si>
-  <si>
-    <t>23:05</t>
-  </si>
-  <si>
-    <t>10177266</t>
-  </si>
-  <si>
-    <t>02:39</t>
-  </si>
-  <si>
-    <t>2620</t>
-  </si>
-  <si>
-    <t>10177309</t>
-  </si>
-  <si>
-    <t>03:05</t>
-  </si>
-  <si>
-    <t>10177350</t>
-  </si>
-  <si>
-    <t>03:29</t>
-  </si>
-  <si>
-    <t>10177361</t>
-  </si>
-  <si>
-    <t>04:34</t>
-  </si>
-  <si>
-    <t>10177401</t>
-  </si>
-  <si>
-    <t>01:56</t>
-  </si>
-  <si>
-    <t>10177433</t>
-  </si>
-  <si>
-    <t>1031</t>
-  </si>
-  <si>
-    <t>10177520</t>
-  </si>
-  <si>
-    <t>10177539</t>
-  </si>
-  <si>
-    <t>10177555</t>
-  </si>
-  <si>
-    <t>10177565</t>
-  </si>
-  <si>
-    <t>10177619</t>
-  </si>
-  <si>
-    <t>10178021</t>
-  </si>
-  <si>
-    <t>10178099</t>
+    <t>10268462</t>
+  </si>
+  <si>
+    <t>06:45</t>
+  </si>
+  <si>
+    <t>10268465</t>
+  </si>
+  <si>
+    <t>07:00</t>
+  </si>
+  <si>
+    <t>10268480</t>
+  </si>
+  <si>
+    <t>11:17</t>
+  </si>
+  <si>
+    <t>10270630</t>
+  </si>
+  <si>
+    <t>12:24</t>
+  </si>
+  <si>
+    <t>10270639</t>
+  </si>
+  <si>
+    <t>12:35</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>10270647</t>
+  </si>
+  <si>
+    <t>12:42</t>
+  </si>
+  <si>
+    <t>10270658</t>
+  </si>
+  <si>
+    <t>09:52</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>10270667</t>
+  </si>
+  <si>
+    <t>13:03</t>
+  </si>
+  <si>
+    <t>10270698</t>
+  </si>
+  <si>
+    <t>10271507</t>
+  </si>
+  <si>
+    <t>00:36</t>
+  </si>
+  <si>
+    <t>10271514</t>
+  </si>
+  <si>
+    <t>00:48</t>
+  </si>
+  <si>
+    <t>785</t>
+  </si>
+  <si>
+    <t>00:51</t>
+  </si>
+  <si>
+    <t>10271522</t>
+  </si>
+  <si>
+    <t>22:02</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>10271561</t>
+  </si>
+  <si>
+    <t>01:16</t>
+  </si>
+  <si>
+    <t>10271624</t>
+  </si>
+  <si>
+    <t>01:28</t>
+  </si>
+  <si>
+    <t>10271626</t>
+  </si>
+  <si>
+    <t>01:35</t>
+  </si>
+  <si>
+    <t>10271634</t>
+  </si>
+  <si>
+    <t>22:52</t>
+  </si>
+  <si>
+    <t>10271654</t>
+  </si>
+  <si>
+    <t>10271665</t>
+  </si>
+  <si>
+    <t>10271675</t>
+  </si>
+  <si>
+    <t>10271676</t>
+  </si>
+  <si>
+    <t>10271688</t>
+  </si>
+  <si>
+    <t>136871822</t>
+  </si>
+  <si>
+    <t>33453505</t>
+  </si>
+  <si>
+    <t>10271480</t>
+  </si>
+  <si>
+    <t>136871833</t>
   </si>
 </sst>
 </file>
@@ -1526,12 +2498,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1550,12 +2516,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1652,51 +2624,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1713,17 +2640,41 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFDDDDDD"/>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FFDDDDDD"/>
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1731,14 +2682,8 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1789,16 +2734,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="44" xfId="1"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="14" quotePrefix="1" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="3" fontId="13" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1814,19 +2749,19 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="0" numFmtId="49" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="0" numFmtId="49" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="7" numFmtId="49" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="7" numFmtId="49" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
@@ -1835,46 +2770,31 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="5" fontId="4" numFmtId="49" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="4" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="5" fontId="4" numFmtId="49" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="4" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="4" fontId="0" numFmtId="49" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="3" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="7" fillId="0" fontId="7" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="8" fillId="0" fontId="7" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="8" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="8" fillId="4" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="9" fillId="4" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="5" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="5" fontId="6" numFmtId="49" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="4" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="10" fillId="5" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="7" fillId="4" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -1886,14 +2806,42 @@
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="13" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="14" quotePrefix="1" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="8" fillId="0" fontId="7" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="9" fillId="0" fontId="7" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="9" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="10" fillId="3" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2428,502 +3376,511 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ4"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AO15" sqref="AO15"/>
+    <sheetView topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AO3" sqref="AO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="9.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="24.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="35.7109375" collapsed="true"/>
-    <col min="5" max="12" bestFit="true" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="3" width="16.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="3" width="7.42578125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="3" width="7.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="3" width="17.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="3" width="8.85546875" collapsed="true"/>
-    <col min="20" max="20" style="3" width="11.5703125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="3" width="7.85546875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
-    <col min="23" max="27" bestFit="true" customWidth="true" style="3" width="17.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="3" width="16.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="3" width="17.0" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="3" width="26.7109375" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="3" width="10.140625" collapsed="true"/>
-    <col min="32" max="34" bestFit="true" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="3" width="5.0" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="3" width="22.5703125" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="3" width="22.42578125" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" style="3" width="21.5703125" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="3" width="36.42578125" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" style="3" width="16.5703125" collapsed="true"/>
-    <col min="42" max="244" style="3" width="11.5703125" collapsed="true"/>
-    <col min="245" max="16384" style="4" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="35.7109375" collapsed="true"/>
+    <col min="5" max="12" bestFit="true" customWidth="true" style="1" width="18.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="16.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="17.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="18.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
+    <col min="20" max="20" style="1" width="11.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="23" max="27" bestFit="true" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="16.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="10.140625" collapsed="true"/>
+    <col min="32" max="34" bestFit="true" customWidth="true" style="1" width="18.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="5.0" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="1" width="22.5703125" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="1" width="21.5703125" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="36.42578125" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
+    <col min="42" max="244" style="1" width="11.5703125" collapsed="true"/>
+    <col min="245" max="16384" style="2" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3" spans="1:42">
-      <c r="A1" s="1">
+    <row customFormat="1" r="1" s="1" spans="1:42">
+      <c r="A1" s="49">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="49">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="49">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="49">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="49">
         <v>4</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="49">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="49">
         <v>6</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="49">
         <v>7</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="49">
         <v>8</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="49">
         <v>9</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="49">
         <v>10</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="49">
         <v>11</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="49">
         <v>12</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="49">
         <v>13</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="49">
         <v>14</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="49">
         <v>15</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="49">
         <v>16</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="49">
         <v>17</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="49">
         <v>18</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T1" s="50">
         <v>19</v>
       </c>
-      <c r="U1" s="2">
+      <c r="U1" s="50">
         <v>20</v>
       </c>
-      <c r="V1" s="2">
+      <c r="V1" s="50">
         <v>21</v>
       </c>
-      <c r="W1" s="2">
+      <c r="W1" s="50">
         <v>22</v>
       </c>
-      <c r="X1" s="2">
+      <c r="X1" s="50">
         <v>23</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Y1" s="50">
         <v>24</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="Z1" s="50">
         <v>25</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AA1" s="50">
         <v>26</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AB1" s="50">
         <v>27</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AC1" s="50">
         <v>28</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AD1" s="50">
         <v>29</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AE1" s="50">
         <v>30</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AF1" s="50">
         <v>31</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AG1" s="50">
         <v>32</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AH1" s="50">
         <v>33</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AI1" s="50">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AJ1" s="50">
         <v>35</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AK1" s="50">
         <v>36</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AL1" s="50">
         <v>37</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AM1" s="50">
         <v>38</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AN1" s="50">
         <v>39</v>
       </c>
-    </row>
-    <row ht="39" r="2" spans="1:42" thickBot="1">
-      <c r="A2" s="1" t="s">
+      <c r="AO1" s="51">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="51">
+        <v>41</v>
+      </c>
+    </row>
+    <row ht="38.25" r="2" spans="1:42">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AB2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AE2" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AH2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AI2" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AJ2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AK2" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AL2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AM2" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AN2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="AO2" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="AP2" s="62" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row ht="39" r="3" spans="1:42" thickBot="1">
-      <c r="A3" s="3" t="s">
+      <c r="AO2" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="AP2" s="51" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row ht="38.25" r="3" spans="1:42">
+      <c r="A3" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="51">
         <v>32363690</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3" s="3">
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="51">
         <v>95002505</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="51">
         <v>1</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="51">
         <v>1</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="51">
         <v>1</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="51">
         <v>95002504</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="51">
         <v>34769</v>
       </c>
-      <c r="T3" s="27">
+      <c r="T3" s="52">
         <v>121246406</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="51">
         <v>257844</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="51">
         <v>87</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="29" t="s">
+      <c r="X3" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="Y3" s="30" t="s">
+      <c r="Y3" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="Z3"/>
-      <c r="AA3" s="3" t="s">
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AB3" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AC3" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AD3" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AE3" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AF3" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AG3" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="AH3"/>
-      <c r="AI3" s="3">
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="51">
         <v>5</v>
       </c>
-      <c r="AJ3" s="28" t="s">
+      <c r="AJ3" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AK3" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AL3" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="AM3" s="3" t="s">
+      <c r="AM3" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="AN3" s="3" t="s">
+      <c r="AN3" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="AO3" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="AP3" s="60"/>
+      <c r="AO3" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="AP3" s="51"/>
     </row>
     <row ht="38.25" r="4" spans="1:42">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4" s="3">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="51">
         <v>1</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="51">
         <v>1</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="51">
         <v>1</v>
       </c>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4" s="3">
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="51">
         <v>34750</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="51">
         <v>243898</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="51">
         <v>19</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="X4" s="28" t="s">
+      <c r="X4" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AA4" s="51">
         <v>6</v>
       </c>
-      <c r="AB4"/>
-      <c r="AC4" s="3" t="s">
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AD4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AE4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AF4" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AG4" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="AH4" s="3">
+      <c r="AH4" s="51">
         <v>6.5</v>
       </c>
-      <c r="AI4" s="3">
+      <c r="AI4" s="51">
         <v>1</v>
       </c>
-      <c r="AJ4" s="27" t="s">
+      <c r="AJ4" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AK4" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AL4" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AM4" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AN4" s="51" t="s">
         <v>37</v>
       </c>
+      <c r="AO4" s="51"/>
+      <c r="AP4" s="51"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -2938,122 +3895,198 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="61" t="s">
-        <v>365</v>
-      </c>
-      <c r="B1" s="61" t="s">
-        <v>366</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="61" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1" s="61" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="B2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C2" t="s">
-        <v>394</v>
-      </c>
-      <c r="D2" t="s">
-        <v>395</v>
-      </c>
-      <c r="E2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" customWidth="true" width="15.0" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row ht="14.25" r="2" spans="1:8">
-      <c r="A2" s="10">
+      <c r="A2" s="8">
         <v>3368926</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>3368928</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>1685519</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>950656</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>3368</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="9">
         <v>257844</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="11">
         <v>25689294</v>
       </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins bottom="1.0527777777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="19" width="23.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="13"/>
+    </row>
+    <row ht="15" r="2" spans="1:6">
+      <c r="A2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="12">
+        <v>9775654</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row ht="15" r="3" spans="1:6">
+      <c r="A3" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="12">
+        <v>9775070</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row ht="15" r="4" spans="1:6">
+      <c r="A4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="12">
+        <v>9773125</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row ht="15" r="5" spans="1:6">
+      <c r="A5" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="12">
+        <v>9775066</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="F5" s="23"/>
+    </row>
+    <row ht="15" r="6" spans="1:6">
+      <c r="A6" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="12">
+        <v>9775655</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row ht="15" r="7" spans="1:6">
+      <c r="A7" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="12">
+        <v>9775067</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row ht="15" r="8" spans="1:6">
+      <c r="A8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="17">
+        <v>9773127</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row ht="15" r="9" spans="1:6">
+      <c r="A9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="17">
+        <v>3562792</v>
+      </c>
+      <c r="C9" s="14"/>
+    </row>
+    <row ht="15" r="10" spans="1:6">
+      <c r="A10" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="20">
+        <v>131620368</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row ht="15" r="11" spans="1:6">
+      <c r="A11" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="22">
+        <v>285730</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="18" spans="8:8">
+      <c r="H18" s="24"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -3067,134 +4100,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="21" width="23.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="15"/>
-    </row>
-    <row ht="15" r="2" spans="1:6">
-      <c r="A2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="14">
-        <v>9775654</v>
-      </c>
-      <c r="C2" s="6"/>
-    </row>
-    <row ht="15" r="3" spans="1:6">
-      <c r="A3" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="14">
-        <v>9775070</v>
-      </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row ht="15" r="4" spans="1:6">
-      <c r="A4" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="14">
-        <v>9773125</v>
-      </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row ht="15" r="5" spans="1:6">
-      <c r="A5" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="14">
-        <v>9775066</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="F5" s="25"/>
-    </row>
-    <row ht="15" r="6" spans="1:6">
-      <c r="A6" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="14">
-        <v>9775655</v>
-      </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row ht="15" r="7" spans="1:6">
-      <c r="A7" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="14">
-        <v>9775067</v>
-      </c>
-      <c r="C7" s="6"/>
-    </row>
-    <row ht="15" r="8" spans="1:6">
-      <c r="A8" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="19">
-        <v>9773127</v>
-      </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row ht="15" r="9" spans="1:6">
-      <c r="A9" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="19">
-        <v>3562792</v>
-      </c>
-      <c r="C9" s="16"/>
-    </row>
-    <row ht="15" r="10" spans="1:6">
-      <c r="A10" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="22">
-        <v>131620368</v>
-      </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row ht="15" r="11" spans="1:6">
-      <c r="A11" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="24">
-        <v>285730</v>
-      </c>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="18" spans="8:8">
-      <c r="H18" s="26"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins bottom="1.0527777777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -3221,87 +4126,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row ht="14.25" r="2" spans="1:14">
-      <c r="A2" s="18">
+      <c r="A2" s="16">
         <v>3375023</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="16">
         <v>32369785</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="16">
         <v>3368938</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>32363700</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="8">
         <v>3368926</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="4">
         <v>32363690</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="8">
         <v>3368928</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <v>32284566</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="4">
         <v>1685519</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4">
         <v>950656</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="4">
         <v>3357395</v>
       </c>
-      <c r="M2" s="6"/>
+      <c r="M2" s="4"/>
       <c r="N2" t="s">
-        <v>362</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -3310,7 +4215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -3321,29 +4226,86 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="12">
         <v>2653</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="56" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>370</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="B2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D2" t="s">
+        <v>750</v>
+      </c>
+      <c r="E2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3351,1408 +4313,1408 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" style="56" width="9.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="56" width="13.0" collapsed="true"/>
-    <col min="4" max="4" style="56" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="56" width="12.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="56" width="17.140625" collapsed="true"/>
-    <col min="7" max="8" style="56" width="9.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="56" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" style="56" width="9.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="56" width="13.140625" collapsed="true"/>
-    <col min="12" max="12" style="56" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="56" width="14.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="56" width="19.85546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="56" width="15.140625" collapsed="true"/>
-    <col min="16" max="16" style="56" width="9.140625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="56" width="15.28515625" collapsed="true"/>
-    <col min="18" max="23" style="56" width="9.140625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="56" width="13.85546875" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="56" width="15.5703125" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="56" width="13.28515625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="56" width="16.5703125" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="56" width="15.0" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="56" width="14.85546875" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="56" width="15.7109375" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="56" width="18.140625" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="56" width="15.85546875" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" style="56" width="12.140625" collapsed="true"/>
-    <col min="34" max="34" style="56" width="9.140625" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="56" width="12.7109375" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" style="56" width="13.0" collapsed="true"/>
-    <col min="37" max="37" style="56" width="9.140625" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" style="56" width="12.7109375" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" style="56" width="11.85546875" collapsed="true"/>
-    <col min="40" max="16384" style="56" width="9.140625" collapsed="true"/>
+    <col min="1" max="2" style="45" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="45" width="13.0" collapsed="true"/>
+    <col min="4" max="4" style="45" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="45" width="12.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="45" width="17.140625" collapsed="true"/>
+    <col min="7" max="8" style="45" width="9.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="45" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" style="45" width="9.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="45" width="13.140625" collapsed="true"/>
+    <col min="12" max="12" style="45" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="45" width="14.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="45" width="19.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="45" width="15.140625" collapsed="true"/>
+    <col min="16" max="16" style="45" width="9.140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="45" width="15.28515625" collapsed="true"/>
+    <col min="18" max="23" style="45" width="9.140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="45" width="13.85546875" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="45" width="15.5703125" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="45" width="13.28515625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="45" width="16.5703125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="45" width="15.0" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="45" width="14.85546875" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="45" width="15.7109375" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="45" width="18.140625" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="45" width="15.85546875" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="45" width="12.140625" collapsed="true"/>
+    <col min="34" max="34" style="45" width="9.140625" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="45" width="12.7109375" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="45" width="13.0" collapsed="true"/>
+    <col min="37" max="37" style="45" width="9.140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="45" width="12.7109375" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="45" width="11.85546875" collapsed="true"/>
+    <col min="40" max="16384" style="45" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="25.5" r="1" s="31" spans="1:40">
-      <c r="A1" s="43" t="s">
+    <row customFormat="1" ht="25.5" r="1" s="25" spans="1:40">
+      <c r="A1" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="P1" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="Q1" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="R1" s="44" t="s">
+      <c r="R1" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="S1" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="U1" s="44" t="s">
+      <c r="U1" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="V1" s="44" t="s">
+      <c r="V1" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="W1" s="44" t="s">
+      <c r="W1" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="X1" s="44" t="s">
+      <c r="X1" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="Y1" s="44" t="s">
+      <c r="Y1" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="Z1" s="44" t="s">
+      <c r="Z1" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="AA1" s="44" t="s">
+      <c r="AA1" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="AB1" s="44" t="s">
+      <c r="AB1" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="AC1" s="44" t="s">
+      <c r="AC1" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="AD1" s="44" t="s">
+      <c r="AD1" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="AE1" s="44" t="s">
+      <c r="AE1" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="AF1" s="44" t="s">
+      <c r="AF1" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="AG1" s="53" t="s">
+      <c r="AG1" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="53" t="s">
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="AJ1" s="53" t="s">
+      <c r="AJ1" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="AK1" s="53" t="s">
+      <c r="AK1" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="AL1" s="53" t="s">
+      <c r="AL1" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="AM1" s="55" t="s">
+      <c r="AM1" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="AN1" s="41"/>
-    </row>
-    <row customFormat="1" ht="63.75" r="2" s="31" spans="1:40">
-      <c r="A2" s="45" t="s">
+      <c r="AN1" s="35"/>
+    </row>
+    <row customFormat="1" ht="63.75" r="2" s="25" spans="1:40">
+      <c r="A2" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="32" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32" t="s">
+      <c r="O2" s="26"/>
+      <c r="P2" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32" t="s">
+      <c r="R2" s="26"/>
+      <c r="S2" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="T2" s="32" t="s">
+      <c r="T2" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="U2" s="32" t="s">
+      <c r="U2" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="V2" s="32" t="s">
+      <c r="V2" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="W2" s="32" t="s">
+      <c r="W2" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="X2" s="32" t="s">
+      <c r="X2" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="Y2" s="26" t="s">
         <v>153</v>
       </c>
       <c r="Z2" t="s">
-        <v>294</v>
-      </c>
-      <c r="AA2" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA2" s="26" t="s">
         <v>154</v>
       </c>
       <c r="AB2" t="s">
-        <v>398</v>
-      </c>
-      <c r="AC2" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC2" s="26" t="s">
         <v>155</v>
       </c>
       <c r="AD2" t="s">
         <v>156</v>
       </c>
-      <c r="AE2" s="32" t="s">
+      <c r="AE2" s="26" t="s">
         <v>157</v>
       </c>
       <c r="AF2" t="s">
         <v>158</v>
       </c>
       <c r="AG2" t="s">
-        <v>399</v>
-      </c>
-      <c r="AH2" s="36"/>
+        <v>726</v>
+      </c>
+      <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>397</v>
+        <v>184</v>
       </c>
       <c r="AJ2" t="s">
-        <v>397</v>
+        <v>184</v>
       </c>
       <c r="AK2" t="s">
-        <v>397</v>
-      </c>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="AN2" s="41"/>
-    </row>
-    <row customFormat="1" ht="76.5" r="3" s="31" spans="1:40">
-      <c r="A3" s="45" t="s">
+      <c r="AN2" s="35"/>
+    </row>
+    <row customFormat="1" ht="76.5" r="3" s="25" spans="1:40">
+      <c r="A3" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="32" t="s">
+      <c r="K3" s="27"/>
+      <c r="L3" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="N3" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="P3" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32" t="s">
+      <c r="R3" s="26"/>
+      <c r="S3" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="T3" s="32" t="s">
+      <c r="T3" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="U3" s="32" t="s">
+      <c r="U3" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="V3" s="32" t="s">
+      <c r="V3" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="W3" s="32" t="s">
+      <c r="W3" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="X3" s="32" t="s">
+      <c r="X3" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="Y3" s="32" t="s">
+      <c r="Y3" s="26" t="s">
         <v>171</v>
       </c>
       <c r="Z3" t="s">
         <v>153</v>
       </c>
-      <c r="AA3" s="32" t="s">
+      <c r="AA3" s="26" t="s">
         <v>172</v>
       </c>
       <c r="AB3" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC3" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC3" s="26" t="s">
         <v>173</v>
       </c>
       <c r="AD3" t="s">
         <v>173</v>
       </c>
-      <c r="AE3" s="32"/>
+      <c r="AE3" s="26"/>
       <c r="AF3" t="s">
         <v>158</v>
       </c>
       <c r="AG3" t="s">
-        <v>401</v>
-      </c>
-      <c r="AH3" s="36"/>
+        <v>728</v>
+      </c>
+      <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>400</v>
+        <v>727</v>
       </c>
       <c r="AJ3" t="s">
-        <v>400</v>
+        <v>727</v>
       </c>
       <c r="AK3" t="s">
-        <v>400</v>
-      </c>
-      <c r="AL3" s="37"/>
-      <c r="AM3" s="46" t="s">
+        <v>727</v>
+      </c>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="AN3" s="41"/>
-    </row>
-    <row customFormat="1" ht="63.75" r="4" s="31" spans="1:40">
-      <c r="A4" s="45" t="s">
+      <c r="AN3" s="35"/>
+    </row>
+    <row customFormat="1" ht="63.75" r="4" s="25" spans="1:40">
+      <c r="A4" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33" t="s">
+      <c r="K4" s="27"/>
+      <c r="L4" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32" t="s">
+      <c r="O4" s="26"/>
+      <c r="P4" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="Q4" s="32" t="s">
+      <c r="Q4" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32" t="s">
+      <c r="R4" s="26"/>
+      <c r="S4" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="T4" s="32" t="s">
+      <c r="T4" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="U4" s="32" t="s">
+      <c r="U4" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="V4" s="32" t="s">
+      <c r="V4" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="W4" s="32" t="s">
+      <c r="W4" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="X4" s="32" t="s">
+      <c r="X4" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="Y4" s="32" t="s">
+      <c r="Y4" s="26" t="s">
         <v>181</v>
       </c>
       <c r="Z4" t="s">
         <v>181</v>
       </c>
-      <c r="AA4" s="32" t="s">
+      <c r="AA4" s="26" t="s">
         <v>182</v>
       </c>
       <c r="AB4" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC4" s="32" t="s">
+        <v>716</v>
+      </c>
+      <c r="AC4" s="26" t="s">
         <v>183</v>
       </c>
       <c r="AD4" t="s">
-        <v>403</v>
-      </c>
-      <c r="AE4" s="32"/>
+        <v>730</v>
+      </c>
+      <c r="AE4" s="26"/>
       <c r="AF4" t="s">
         <v>158</v>
       </c>
       <c r="AG4" t="s">
-        <v>404</v>
-      </c>
-      <c r="AH4" s="36"/>
+        <v>717</v>
+      </c>
+      <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>402</v>
+        <v>729</v>
       </c>
       <c r="AJ4" t="s">
-        <v>402</v>
+        <v>729</v>
       </c>
       <c r="AK4" t="s">
-        <v>402</v>
-      </c>
-      <c r="AL4" s="37"/>
-      <c r="AM4" s="46" t="s">
+        <v>729</v>
+      </c>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="AN4" s="41"/>
-    </row>
-    <row customFormat="1" ht="76.5" r="5" s="31" spans="1:40">
-      <c r="A5" s="45" t="s">
+      <c r="AN4" s="35"/>
+    </row>
+    <row customFormat="1" ht="76.5" r="5" s="25" spans="1:40">
+      <c r="A5" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="32" t="s">
+      <c r="K5" s="27"/>
+      <c r="L5" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="N5" s="32" t="s">
+      <c r="N5" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="O5" s="32" t="s">
+      <c r="O5" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="P5" s="32" t="s">
+      <c r="P5" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="Q5" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32" t="s">
+      <c r="R5" s="26"/>
+      <c r="S5" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="T5" s="32" t="s">
+      <c r="T5" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="U5" s="32" t="s">
+      <c r="U5" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="V5" s="32" t="s">
+      <c r="V5" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="W5" s="32" t="s">
+      <c r="W5" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="X5" s="32" t="s">
+      <c r="X5" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="Y5" s="32" t="s">
+      <c r="Y5" s="26" t="s">
         <v>171</v>
       </c>
       <c r="Z5" t="s">
         <v>153</v>
       </c>
-      <c r="AA5" s="32" t="s">
+      <c r="AA5" s="26" t="s">
         <v>172</v>
       </c>
       <c r="AB5" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC5" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC5" s="26" t="s">
         <v>173</v>
       </c>
       <c r="AD5" t="s">
         <v>173</v>
       </c>
-      <c r="AE5" s="32"/>
+      <c r="AE5" s="26"/>
       <c r="AF5" t="s">
         <v>158</v>
       </c>
       <c r="AG5" t="s">
-        <v>406</v>
-      </c>
-      <c r="AH5" s="36"/>
+        <v>732</v>
+      </c>
+      <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>405</v>
+        <v>731</v>
       </c>
       <c r="AJ5" t="s">
-        <v>405</v>
+        <v>731</v>
       </c>
       <c r="AK5" t="s">
-        <v>405</v>
-      </c>
-      <c r="AL5" s="37"/>
-      <c r="AM5" s="46" t="s">
+        <v>731</v>
+      </c>
+      <c r="AL5" s="31"/>
+      <c r="AM5" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="AN5" s="41"/>
-    </row>
-    <row customFormat="1" ht="63.75" r="6" s="31" spans="1:40">
-      <c r="A6" s="45" t="s">
+      <c r="AN5" s="35"/>
+    </row>
+    <row customFormat="1" ht="63.75" r="6" s="25" spans="1:40">
+      <c r="A6" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="32" t="s">
+      <c r="K6" s="27"/>
+      <c r="L6" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="N6" s="32" t="s">
+      <c r="N6" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="O6" s="32" t="s">
+      <c r="O6" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="P6" s="32" t="s">
+      <c r="P6" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="Q6" s="32" t="s">
+      <c r="Q6" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32" t="s">
+      <c r="R6" s="26"/>
+      <c r="S6" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="T6" s="32" t="s">
+      <c r="T6" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="U6" s="32" t="s">
+      <c r="U6" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="V6" s="32" t="s">
+      <c r="V6" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="W6" s="32" t="s">
+      <c r="W6" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="X6" s="32" t="s">
+      <c r="X6" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="Y6" s="32" t="s">
+      <c r="Y6" s="26" t="s">
         <v>156</v>
       </c>
       <c r="Z6" t="s">
         <v>181</v>
       </c>
-      <c r="AA6" s="32" t="s">
+      <c r="AA6" s="26" t="s">
         <v>201</v>
       </c>
       <c r="AB6" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC6" s="32" t="s">
+        <v>734</v>
+      </c>
+      <c r="AC6" s="26" t="s">
         <v>202</v>
       </c>
       <c r="AD6" t="s">
-        <v>202</v>
-      </c>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="38"/>
+        <v>722</v>
+      </c>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="32"/>
       <c r="AG6" t="s">
-        <v>408</v>
-      </c>
-      <c r="AH6" s="36" t="s">
+        <v>735</v>
+      </c>
+      <c r="AH6" s="30" t="s">
         <v>203</v>
       </c>
       <c r="AI6" t="s">
-        <v>407</v>
+        <v>733</v>
       </c>
       <c r="AJ6" t="s">
-        <v>407</v>
+        <v>733</v>
       </c>
       <c r="AK6" t="s">
-        <v>407</v>
-      </c>
-      <c r="AL6" s="37"/>
-      <c r="AM6" s="46" t="s">
+        <v>733</v>
+      </c>
+      <c r="AL6" s="31"/>
+      <c r="AM6" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="AN6" s="41"/>
-    </row>
-    <row customFormat="1" ht="63.75" r="7" s="31" spans="1:40">
-      <c r="A7" s="45" t="s">
+      <c r="AN6" s="35"/>
+    </row>
+    <row customFormat="1" ht="63.75" r="7" s="25" spans="1:40">
+      <c r="A7" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32" t="s">
+      <c r="G7" s="26"/>
+      <c r="H7" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="32" t="s">
+      <c r="K7" s="27"/>
+      <c r="L7" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="M7" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="N7" s="32" t="s">
+      <c r="N7" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="O7" s="32" t="s">
+      <c r="O7" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="P7" s="32" t="s">
+      <c r="P7" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="Q7" s="32" t="s">
+      <c r="Q7" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32" t="s">
+      <c r="R7" s="26"/>
+      <c r="S7" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="T7" s="32" t="s">
+      <c r="T7" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="U7" s="32" t="s">
+      <c r="U7" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="V7" s="32" t="s">
+      <c r="V7" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="W7" s="32" t="s">
+      <c r="W7" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="X7" s="32" t="s">
+      <c r="X7" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="Y7" s="32" t="s">
+      <c r="Y7" s="26" t="s">
         <v>198</v>
       </c>
       <c r="Z7" t="s">
         <v>171</v>
       </c>
-      <c r="AA7" s="32" t="s">
+      <c r="AA7" s="26" t="s">
         <v>201</v>
       </c>
       <c r="AB7" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC7" s="32" t="s">
+        <v>734</v>
+      </c>
+      <c r="AC7" s="26" t="s">
         <v>209</v>
       </c>
       <c r="AD7" t="s">
-        <v>410</v>
-      </c>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="38"/>
+        <v>361</v>
+      </c>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="32"/>
       <c r="AG7" t="s">
-        <v>411</v>
-      </c>
-      <c r="AH7" s="36" t="s">
+        <v>737</v>
+      </c>
+      <c r="AH7" s="30" t="s">
         <v>210</v>
       </c>
       <c r="AI7" t="s">
-        <v>409</v>
+        <v>736</v>
       </c>
       <c r="AJ7" t="s">
-        <v>409</v>
+        <v>736</v>
       </c>
       <c r="AK7" t="s">
-        <v>409</v>
-      </c>
-      <c r="AL7" s="37"/>
-      <c r="AM7" s="46" t="s">
+        <v>736</v>
+      </c>
+      <c r="AL7" s="31"/>
+      <c r="AM7" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="AN7" s="41"/>
-    </row>
-    <row customFormat="1" ht="63.75" r="8" s="31" spans="1:40">
-      <c r="A8" s="45" t="s">
+      <c r="AN7" s="35"/>
+    </row>
+    <row customFormat="1" ht="63.75" r="8" s="25" spans="1:40">
+      <c r="A8" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="34" t="s">
+      <c r="K8" s="27"/>
+      <c r="L8" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="M8" s="34" t="s">
+      <c r="M8" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="N8" s="34" t="s">
+      <c r="N8" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="O8" s="34" t="s">
+      <c r="O8" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="P8" s="32" t="s">
+      <c r="P8" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="Q8" s="32" t="s">
+      <c r="Q8" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34" t="s">
+      <c r="R8" s="28"/>
+      <c r="S8" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="T8" s="34" t="s">
+      <c r="T8" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="U8" s="34" t="s">
+      <c r="U8" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="V8" s="34" t="s">
+      <c r="V8" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="W8" s="34" t="s">
+      <c r="W8" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="X8" s="32" t="s">
+      <c r="X8" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="Y8" s="34" t="s">
+      <c r="Y8" s="28" t="s">
         <v>155</v>
       </c>
       <c r="Z8" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA8" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA8" s="28" t="s">
         <v>169</v>
       </c>
       <c r="AB8" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC8" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC8" s="28" t="s">
         <v>181</v>
       </c>
       <c r="AD8" t="s">
         <v>172</v>
       </c>
-      <c r="AE8" s="34"/>
+      <c r="AE8" s="28"/>
       <c r="AF8" t="s">
         <v>158</v>
       </c>
       <c r="AG8" t="s">
-        <v>413</v>
-      </c>
-      <c r="AH8" s="36"/>
+        <v>739</v>
+      </c>
+      <c r="AH8" s="30"/>
       <c r="AI8" t="s">
-        <v>412</v>
+        <v>738</v>
       </c>
       <c r="AJ8" t="s">
-        <v>412</v>
+        <v>738</v>
       </c>
       <c r="AK8" t="s">
-        <v>412</v>
-      </c>
-      <c r="AL8" s="37"/>
-      <c r="AM8" s="46" t="s">
+        <v>738</v>
+      </c>
+      <c r="AL8" s="31"/>
+      <c r="AM8" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="AN8" s="41"/>
-    </row>
-    <row customFormat="1" ht="76.5" r="9" s="31" spans="1:40">
-      <c r="A9" s="45" t="s">
+      <c r="AN8" s="35"/>
+    </row>
+    <row customFormat="1" ht="76.5" r="9" s="25" spans="1:40">
+      <c r="A9" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="J9" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="32" t="s">
+      <c r="K9" s="27"/>
+      <c r="L9" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="M9" s="32" t="s">
+      <c r="M9" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="N9" s="32" t="s">
+      <c r="N9" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="O9" s="32" t="s">
+      <c r="O9" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="P9" s="32" t="s">
+      <c r="P9" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="Q9" s="32" t="s">
+      <c r="Q9" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="T9" s="32" t="s">
+      <c r="R9" s="28"/>
+      <c r="S9" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="T9" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="U9" s="32" t="s">
+      <c r="U9" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="V9" s="32" t="s">
+      <c r="V9" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="W9" s="32" t="s">
+      <c r="W9" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="X9" s="32" t="s">
+      <c r="X9" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="Y9" s="34" t="s">
+      <c r="Y9" s="28" t="s">
         <v>171</v>
       </c>
       <c r="Z9" t="s">
         <v>153</v>
       </c>
-      <c r="AA9" s="34" t="s">
+      <c r="AA9" s="28" t="s">
         <v>172</v>
       </c>
       <c r="AB9" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC9" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC9" s="28" t="s">
         <v>173</v>
       </c>
       <c r="AD9" t="s">
         <v>173</v>
       </c>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="38"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="32"/>
       <c r="AG9" t="s">
-        <v>417</v>
-      </c>
-      <c r="AH9" s="36"/>
+        <v>741</v>
+      </c>
+      <c r="AH9" s="30"/>
       <c r="AI9" t="s">
-        <v>416</v>
+        <v>740</v>
       </c>
       <c r="AJ9" t="s">
-        <v>416</v>
+        <v>740</v>
       </c>
       <c r="AK9" t="s">
-        <v>416</v>
-      </c>
-      <c r="AL9" s="37"/>
-      <c r="AM9" s="46" t="s">
+        <v>740</v>
+      </c>
+      <c r="AL9" s="31"/>
+      <c r="AM9" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="AN9" s="41"/>
-    </row>
-    <row customFormat="1" ht="76.5" r="10" s="35" spans="1:40">
-      <c r="A10" s="45" t="s">
+      <c r="AN9" s="35"/>
+    </row>
+    <row customFormat="1" ht="76.5" r="10" s="29" spans="1:40">
+      <c r="A10" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="F10" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="G10" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="H10" s="26"/>
+      <c r="I10" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="J10" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32" t="s">
+      <c r="M10" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="M10" s="32" t="s">
+      <c r="N10" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="N10" s="32" t="s">
+      <c r="O10" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="O10" s="32" t="s">
+      <c r="P10" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q10" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="P10" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q10" s="32" t="s">
+      <c r="T10" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="U10" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="V10" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="W10" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="X10" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y10" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA10" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC10" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="33"/>
+      <c r="AG10" t="s">
+        <v>743</v>
+      </c>
+      <c r="AH10" s="33"/>
+      <c r="AI10" t="s">
+        <v>742</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>742</v>
+      </c>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN10" s="36"/>
+    </row>
+    <row customFormat="1" r="11" s="25" spans="1:40">
+      <c r="A11" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q11" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="T10" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="U10" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="V10" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="W10" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="X10" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y10" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA10" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC10" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>184</v>
-      </c>
-      <c r="AE10" s="32"/>
-      <c r="AF10" s="39"/>
-      <c r="AG10" t="s">
-        <v>419</v>
-      </c>
-      <c r="AH10" s="39"/>
-      <c r="AI10" t="s">
-        <v>418</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>418</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>418</v>
-      </c>
-      <c r="AL10" s="40"/>
-      <c r="AM10" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN10" s="42"/>
-    </row>
-    <row customFormat="1" r="11" s="31" spans="1:40">
-      <c r="A11" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="M11" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="N11" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="O11" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="P11" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q11" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35" t="s">
+      <c r="R11" s="29"/>
+      <c r="S11" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="35" t="s">
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="34"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="28"/>
       <c r="AB11" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC11" s="34"/>
+        <v>198</v>
+      </c>
+      <c r="AC11" s="28"/>
       <c r="AD11" t="s">
         <v>169</v>
       </c>
-      <c r="AE11" s="34"/>
+      <c r="AE11" s="28"/>
       <c r="AF11" t="s">
         <v>158</v>
       </c>
       <c r="AG11" t="s">
-        <v>391</v>
-      </c>
-      <c r="AH11" s="36"/>
-      <c r="AI11" s="37"/>
-      <c r="AJ11" s="37"/>
-      <c r="AK11" s="37"/>
-      <c r="AL11" s="37" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="31"/>
+      <c r="AJ11" s="31"/>
+      <c r="AK11" s="31"/>
+      <c r="AL11" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AM11" s="46" t="s">
+      <c r="AM11" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="AN11" s="41"/>
-    </row>
-    <row customFormat="1" r="12" s="31" spans="1:40">
-      <c r="A12" s="47" t="s">
+      <c r="AN11" s="35"/>
+    </row>
+    <row customFormat="1" r="12" s="25" spans="1:40">
+      <c r="A12" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="L12" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="L12" s="35" t="s">
+      <c r="M12" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="M12" s="35" t="s">
+      <c r="N12" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="N12" s="35" t="s">
+      <c r="O12" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="O12" s="35" t="s">
+      <c r="P12" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="P12" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q12" s="35" t="s">
+      <c r="Q12" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35" t="s">
+      <c r="R12" s="29"/>
+      <c r="S12" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="X12" s="35" t="s">
+      <c r="X12" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="Z12" s="37"/>
+      <c r="Z12" s="31"/>
       <c r="AB12" t="s">
         <v>171</v>
       </c>
       <c r="AD12" t="s">
-        <v>420</v>
+        <v>362</v>
       </c>
       <c r="AF12" t="s">
         <v>158</v>
       </c>
       <c r="AG12" t="s">
-        <v>421</v>
-      </c>
-      <c r="AH12" s="37"/>
-      <c r="AI12" s="37"/>
-      <c r="AJ12" s="37"/>
-      <c r="AK12" s="37"/>
-      <c r="AL12" s="37" t="s">
+        <v>745</v>
+      </c>
+      <c r="AH12" s="31"/>
+      <c r="AI12" s="31"/>
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="31"/>
+      <c r="AL12" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AM12" s="46" t="s">
+      <c r="AM12" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="AN12" s="41"/>
-    </row>
-    <row customFormat="1" r="13" s="31" spans="1:40">
-      <c r="A13" s="47" t="s">
+      <c r="AN12" s="35"/>
+    </row>
+    <row customFormat="1" r="13" s="25" spans="1:40">
+      <c r="A13" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="L13" s="35" t="s">
+      <c r="C13" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="M13" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="M13" s="35" t="s">
+      <c r="N13" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="N13" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q13" s="35" t="s">
+      <c r="O13" s="29"/>
+      <c r="P13" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q13" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35" t="s">
+      <c r="R13" s="29"/>
+      <c r="S13" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="X13" s="35" t="s">
+      <c r="X13" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="Z13" s="37"/>
+      <c r="Z13" s="31"/>
       <c r="AB13" t="s">
         <v>153</v>
       </c>
       <c r="AD13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF13" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s">
-        <v>426</v>
-      </c>
-      <c r="AH13" s="37"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="37"/>
-      <c r="AK13" s="37"/>
-      <c r="AL13" s="37" t="s">
+        <v>746</v>
+      </c>
+      <c r="AH13" s="31"/>
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="31"/>
+      <c r="AK13" s="31"/>
+      <c r="AL13" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AM13" s="46" t="s">
+      <c r="AM13" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="AN13" s="41"/>
-    </row>
-    <row customFormat="1" ht="13.5" r="14" s="31" spans="1:40" thickBot="1">
-      <c r="A14" s="48" t="s">
+      <c r="AN13" s="35"/>
+    </row>
+    <row customFormat="1" r="14" s="25" spans="1:40">
+      <c r="A14" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="49" t="s">
+      <c r="M14" s="58" t="s">
         <v>235</v>
       </c>
-      <c r="M14" s="49" t="s">
+      <c r="N14" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="N14" s="49" t="s">
-        <v>237</v>
-      </c>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q14" s="49" t="s">
+      <c r="O14" s="58"/>
+      <c r="P14" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q14" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="49" t="s">
+      <c r="R14" s="58"/>
+      <c r="S14" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="50"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="59"/>
       <c r="AB14" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC14" s="50"/>
+        <v>171</v>
+      </c>
+      <c r="AC14" s="59"/>
       <c r="AD14" t="s">
         <v>169</v>
       </c>
-      <c r="AE14" s="50"/>
+      <c r="AE14" s="59"/>
       <c r="AF14" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="AG14" t="s">
-        <v>427</v>
-      </c>
-      <c r="AH14" s="51"/>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="51"/>
-      <c r="AK14" s="51"/>
-      <c r="AL14" s="51" t="s">
+        <v>747</v>
+      </c>
+      <c r="AH14" s="60"/>
+      <c r="AI14" s="60"/>
+      <c r="AJ14" s="60"/>
+      <c r="AK14" s="60"/>
+      <c r="AL14" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="AM14" s="52" t="s">
+      <c r="AM14" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="AN14" s="41"/>
+      <c r="AN14" s="35"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -4764,53 +5726,53 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="57" width="11.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="57" width="59.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="57" width="28.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="57" width="10.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="57" width="35.140625" collapsed="true"/>
-    <col min="6" max="6" style="57" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="46" width="11.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="46" width="59.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="46" width="28.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="46" width="10.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="46" width="35.140625" collapsed="true"/>
+    <col min="6" max="6" style="46" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="47" t="s">
         <v>254</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="47" t="s">
         <v>246</v>
       </c>
     </row>
     <row ht="51" r="2" spans="1:6">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="48" t="s">
         <v>250</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="48" t="s">
         <v>251</v>
       </c>
       <c r="D2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E2" s="59" t="s">
+        <v>726</v>
+      </c>
+      <c r="E2" s="48" t="s">
         <v>255</v>
       </c>
       <c r="F2" t="s">
@@ -4818,17 +5780,17 @@
       </c>
     </row>
     <row ht="89.25" r="3" spans="1:6">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="48" t="s">
         <v>257</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="48" t="s">
         <v>258</v>
       </c>
       <c r="F3" t="s">
@@ -4836,17 +5798,17 @@
       </c>
     </row>
     <row ht="89.25" r="4" spans="1:6">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59" t="s">
+      <c r="D4" s="48"/>
+      <c r="E4" s="48" t="s">
         <v>259</v>
       </c>
       <c r="F4" t="s">
@@ -4854,17 +5816,17 @@
       </c>
     </row>
     <row ht="51" r="5" spans="1:6">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="48" t="s">
         <v>286</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48" t="s">
         <v>260</v>
       </c>
       <c r="F5" t="s">
@@ -4872,17 +5834,17 @@
       </c>
     </row>
     <row ht="51" r="6" spans="1:6">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="48" t="s">
         <v>262</v>
       </c>
       <c r="F6" t="s">
@@ -4890,17 +5852,17 @@
       </c>
     </row>
     <row ht="51" r="7" spans="1:6">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59" t="s">
+      <c r="D7" s="48"/>
+      <c r="E7" s="48" t="s">
         <v>270</v>
       </c>
       <c r="F7" t="s">
@@ -4908,17 +5870,17 @@
       </c>
     </row>
     <row ht="63.75" r="8" spans="1:6">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="48" t="s">
         <v>267</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59" t="s">
+      <c r="D8" s="48"/>
+      <c r="E8" s="48" t="s">
         <v>271</v>
       </c>
       <c r="F8" t="s">
@@ -4926,17 +5888,17 @@
       </c>
     </row>
     <row ht="51" r="9" spans="1:6">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59" t="s">
+      <c r="D9" s="48"/>
+      <c r="E9" s="48" t="s">
         <v>274</v>
       </c>
       <c r="F9" t="s">
@@ -4944,17 +5906,17 @@
       </c>
     </row>
     <row ht="51" r="10" spans="1:6">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="48" t="s">
         <v>277</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59" t="s">
+      <c r="D10" s="48"/>
+      <c r="E10" s="48" t="s">
         <v>273</v>
       </c>
       <c r="F10" t="s">
@@ -4962,33 +5924,33 @@
       </c>
     </row>
     <row ht="63.75" r="11" spans="1:6">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59" t="s">
+      <c r="D11" s="48"/>
+      <c r="E11" s="48" t="s">
         <v>280</v>
       </c>
-      <c r="F11" s="59"/>
+      <c r="F11" s="48"/>
     </row>
     <row ht="51" r="12" spans="1:6">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="48" t="s">
         <v>281</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59" t="s">
+      <c r="D12" s="48"/>
+      <c r="E12" s="48" t="s">
         <v>283</v>
       </c>
       <c r="F12" t="s">
@@ -4996,19 +5958,19 @@
       </c>
     </row>
     <row ht="51" r="13" spans="1:6">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="48" t="s">
         <v>299</v>
       </c>
       <c r="D13" t="s">
-        <v>401</v>
-      </c>
-      <c r="E13" s="59" t="s">
+        <v>728</v>
+      </c>
+      <c r="E13" s="48" t="s">
         <v>300</v>
       </c>
       <c r="F13" t="s">
@@ -5016,17 +5978,17 @@
       </c>
     </row>
     <row ht="102" r="14" spans="1:6">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="48" t="s">
         <v>325</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="48" t="s">
         <v>326</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59" t="s">
+      <c r="D14" s="48"/>
+      <c r="E14" s="48" t="s">
         <v>327</v>
       </c>
       <c r="F14" t="s">
@@ -5034,17 +5996,17 @@
       </c>
     </row>
     <row ht="102" r="15" spans="1:6">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="48" t="s">
         <v>328</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59" t="s">
+      <c r="D15" s="48"/>
+      <c r="E15" s="48" t="s">
         <v>330</v>
       </c>
       <c r="F15" t="s">
@@ -5052,17 +6014,17 @@
       </c>
     </row>
     <row ht="102" r="16" spans="1:6">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="48" t="s">
         <v>331</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="48" t="s">
         <v>332</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59" t="s">
+      <c r="D16" s="48"/>
+      <c r="E16" s="48" t="s">
         <v>333</v>
       </c>
       <c r="F16" t="s">
@@ -5070,17 +6032,17 @@
       </c>
     </row>
     <row ht="89.25" r="17" spans="1:6">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59" t="s">
+      <c r="D17" s="48"/>
+      <c r="E17" s="48" t="s">
         <v>304</v>
       </c>
       <c r="F17" t="s">
@@ -5088,396 +6050,396 @@
       </c>
     </row>
     <row ht="89.25" r="18" spans="1:6">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="48" t="s">
         <v>305</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="48" t="s">
         <v>306</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="48" t="s">
         <v>307</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59" t="s">
+      <c r="D18" s="48"/>
+      <c r="E18" s="48" t="s">
         <v>308</v>
       </c>
-      <c r="F18" s="57" t="s">
+      <c r="F18" s="46" t="s">
         <v>295</v>
       </c>
     </row>
     <row ht="51" r="19" spans="1:6">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="48" t="s">
         <v>309</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="48" t="s">
         <v>310</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59" t="s">
+      <c r="D19" s="48"/>
+      <c r="E19" s="48" t="s">
         <v>311</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="46" t="s">
         <v>295</v>
       </c>
     </row>
     <row ht="51" r="20" spans="1:6">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="48" t="s">
         <v>312</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="48" t="s">
         <v>313</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59" t="s">
+      <c r="D20" s="48"/>
+      <c r="E20" s="48" t="s">
         <v>314</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="F20" s="46" t="s">
         <v>295</v>
       </c>
     </row>
     <row ht="51" r="21" spans="1:6">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="48" t="s">
         <v>316</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59" t="s">
+      <c r="D21" s="48"/>
+      <c r="E21" s="48" t="s">
         <v>317</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="46" t="s">
         <v>295</v>
       </c>
     </row>
     <row ht="63.75" r="22" spans="1:6">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="48" t="s">
         <v>318</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="48" t="s">
         <v>319</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="48" t="s">
         <v>267</v>
       </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59" t="s">
+      <c r="D22" s="48"/>
+      <c r="E22" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="46" t="s">
         <v>295</v>
       </c>
     </row>
     <row ht="51" r="23" spans="1:6">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="48" t="s">
         <v>320</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="48" t="s">
         <v>334</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="48" t="s">
         <v>335</v>
       </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59" t="s">
+      <c r="D23" s="48"/>
+      <c r="E23" s="48" t="s">
         <v>336</v>
       </c>
-      <c r="F23" s="57" t="s">
+      <c r="F23" s="46" t="s">
         <v>295</v>
       </c>
     </row>
     <row ht="51" r="24" spans="1:6">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="48" t="s">
         <v>337</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="48" t="s">
         <v>338</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59" t="s">
+      <c r="D24" s="48"/>
+      <c r="E24" s="48" t="s">
         <v>339</v>
       </c>
-      <c r="F24" s="57" t="s">
+      <c r="F24" s="46" t="s">
         <v>295</v>
       </c>
     </row>
     <row ht="63.75" r="25" spans="1:6">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59" t="s">
+      <c r="D25" s="48"/>
+      <c r="E25" s="48" t="s">
         <v>280</v>
       </c>
-      <c r="F25" s="59"/>
+      <c r="F25" s="48"/>
     </row>
     <row ht="51" r="26" spans="1:6">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="48" t="s">
         <v>340</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59" t="s">
+      <c r="D26" s="48"/>
+      <c r="E26" s="48" t="s">
         <v>341</v>
       </c>
-      <c r="F26" s="57" t="s">
+      <c r="F26" s="46" t="s">
         <v>295</v>
       </c>
     </row>
     <row ht="63.75" r="27" spans="1:6">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="48" t="s">
         <v>342</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="48" t="s">
         <v>343</v>
       </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59" t="s">
+      <c r="D27" s="48"/>
+      <c r="E27" s="48" t="s">
         <v>344</v>
       </c>
-      <c r="F27" s="57" t="s">
+      <c r="F27" s="46" t="s">
         <v>295</v>
       </c>
     </row>
     <row ht="51" r="28" spans="1:6">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="48" t="s">
         <v>309</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="48" t="s">
         <v>345</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59" t="s">
+      <c r="D28" s="48"/>
+      <c r="E28" s="48" t="s">
         <v>346</v>
       </c>
-      <c r="F28" s="57" t="s">
+      <c r="F28" s="46" t="s">
         <v>295</v>
       </c>
     </row>
     <row ht="51" r="29" spans="1:6">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="48" t="s">
         <v>312</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="48" t="s">
         <v>347</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="48" t="s">
         <v>348</v>
       </c>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59" t="s">
+      <c r="D29" s="48"/>
+      <c r="E29" s="48" t="s">
         <v>349</v>
       </c>
-      <c r="F29" s="57" t="s">
+      <c r="F29" s="46" t="s">
         <v>295</v>
       </c>
     </row>
     <row ht="51" r="30" spans="1:6">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="48" t="s">
         <v>350</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59" t="s">
+      <c r="D30" s="48"/>
+      <c r="E30" s="48" t="s">
         <v>351</v>
       </c>
-      <c r="F30" s="57" t="s">
+      <c r="F30" s="46" t="s">
         <v>295</v>
       </c>
     </row>
     <row ht="63.75" r="31" spans="1:6">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="48" t="s">
         <v>353</v>
       </c>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59" t="s">
+      <c r="D31" s="48"/>
+      <c r="E31" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="F31" s="57" t="s">
+      <c r="F31" s="46" t="s">
         <v>295</v>
       </c>
     </row>
     <row ht="76.5" r="32" spans="1:6">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="48" t="s">
         <v>355</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="48" t="s">
         <v>357</v>
       </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59" t="s">
+      <c r="D32" s="48"/>
+      <c r="E32" s="48" t="s">
         <v>356</v>
       </c>
-      <c r="F32" s="57" t="s">
+      <c r="F32" s="46" t="s">
         <v>295</v>
       </c>
     </row>
     <row ht="76.5" r="33" spans="1:6">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="48" t="s">
         <v>358</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="48" t="s">
         <v>359</v>
       </c>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59" t="s">
+      <c r="D33" s="48"/>
+      <c r="E33" s="48" t="s">
         <v>360</v>
       </c>
-      <c r="F33" s="57" t="s">
+      <c r="F33" s="46" t="s">
         <v>295</v>
       </c>
     </row>
     <row ht="76.5" r="34" spans="1:6">
-      <c r="A34" s="59" t="s">
+      <c r="A34" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="48" t="s">
         <v>355</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="48" t="s">
         <v>357</v>
       </c>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59" t="s">
+      <c r="D34" s="48"/>
+      <c r="E34" s="48" t="s">
         <v>356</v>
       </c>
-      <c r="F34" s="57" t="s">
+      <c r="F34" s="46" t="s">
         <v>295</v>
       </c>
     </row>
     <row ht="76.5" r="35" spans="1:6">
-      <c r="A35" s="59" t="s">
+      <c r="A35" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="48" t="s">
         <v>355</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="48" t="s">
         <v>357</v>
       </c>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59" t="s">
+      <c r="D35" s="48"/>
+      <c r="E35" s="48" t="s">
         <v>356</v>
       </c>
-      <c r="F35" s="57" t="s">
+      <c r="F35" s="46" t="s">
         <v>295</v>
       </c>
     </row>
     <row ht="76.5" r="36" spans="1:6">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="48" t="s">
         <v>355</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C36" s="48" t="s">
         <v>357</v>
       </c>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59" t="s">
+      <c r="D36" s="48"/>
+      <c r="E36" s="48" t="s">
         <v>356</v>
       </c>
-      <c r="F36" s="57" t="s">
+      <c r="F36" s="46" t="s">
         <v>295</v>
       </c>
     </row>
     <row ht="76.5" r="37" spans="1:6">
-      <c r="A37" s="59" t="s">
+      <c r="A37" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="48" t="s">
         <v>355</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="48" t="s">
         <v>357</v>
       </c>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59" t="s">
+      <c r="D37" s="48"/>
+      <c r="E37" s="48" t="s">
         <v>356</v>
       </c>
-      <c r="F37" s="57" t="s">
+      <c r="F37" s="46" t="s">
         <v>295</v>
       </c>
     </row>
     <row ht="76.5" r="38" spans="1:6">
-      <c r="A38" s="59" t="s">
+      <c r="A38" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="48" t="s">
         <v>355</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="48" t="s">
         <v>357</v>
       </c>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59" t="s">
+      <c r="D38" s="48"/>
+      <c r="E38" s="48" t="s">
         <v>356</v>
       </c>
-      <c r="F38" s="57" t="s">
+      <c r="F38" s="46" t="s">
         <v>295</v>
       </c>
     </row>
     <row ht="76.5" r="39" spans="1:6">
-      <c r="A39" s="59" t="s">
+      <c r="A39" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="48" t="s">
         <v>355</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="48" t="s">
         <v>357</v>
       </c>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59" t="s">
+      <c r="D39" s="48"/>
+      <c r="E39" s="48" t="s">
         <v>356</v>
       </c>
-      <c r="F39" s="57" t="s">
+      <c r="F39" s="46" t="s">
         <v>295</v>
       </c>
     </row>

--- a/NetAgent/src/main/resources/NA_STG.xlsx
+++ b/NetAgent/src/main/resources/NA_STG.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="786">
   <si>
     <t>PUId</t>
   </si>
@@ -2388,6 +2388,108 @@
   </si>
   <si>
     <t>136871833</t>
+  </si>
+  <si>
+    <t>04:14</t>
+  </si>
+  <si>
+    <t>10276070</t>
+  </si>
+  <si>
+    <t>05:22</t>
+  </si>
+  <si>
+    <t>10276123</t>
+  </si>
+  <si>
+    <t>05:27</t>
+  </si>
+  <si>
+    <t>10276189</t>
+  </si>
+  <si>
+    <t>06:35</t>
+  </si>
+  <si>
+    <t>10276200</t>
+  </si>
+  <si>
+    <t>06:47</t>
+  </si>
+  <si>
+    <t>10276217</t>
+  </si>
+  <si>
+    <t>06:55</t>
+  </si>
+  <si>
+    <t>10276250</t>
+  </si>
+  <si>
+    <t>07:13</t>
+  </si>
+  <si>
+    <t>10276268</t>
+  </si>
+  <si>
+    <t>04:22</t>
+  </si>
+  <si>
+    <t>10276301</t>
+  </si>
+  <si>
+    <t>07:33</t>
+  </si>
+  <si>
+    <t>10276307</t>
+  </si>
+  <si>
+    <t>07:44</t>
+  </si>
+  <si>
+    <t>10276322</t>
+  </si>
+  <si>
+    <t>07:50</t>
+  </si>
+  <si>
+    <t>10276342</t>
+  </si>
+  <si>
+    <t>05:00</t>
+  </si>
+  <si>
+    <t>10276348</t>
+  </si>
+  <si>
+    <t>10276357</t>
+  </si>
+  <si>
+    <t>10276377</t>
+  </si>
+  <si>
+    <t>10276394</t>
+  </si>
+  <si>
+    <t>136919124</t>
+  </si>
+  <si>
+    <t>33457767</t>
+  </si>
+  <si>
+    <t>10275742</t>
+  </si>
+  <si>
+    <t>136919135</t>
+  </si>
+  <si>
+    <t>10276781</t>
+  </si>
+  <si>
+    <t>10276847</t>
+  </si>
+  <si>
+    <t>10276859</t>
   </si>
 </sst>
 </file>
@@ -4291,16 +4393,16 @@
         <v>393</v>
       </c>
       <c r="B2" t="s">
-        <v>748</v>
+        <v>779</v>
       </c>
       <c r="C2" t="s">
-        <v>749</v>
+        <v>780</v>
       </c>
       <c r="D2" t="s">
-        <v>750</v>
+        <v>781</v>
       </c>
       <c r="E2" t="s">
-        <v>751</v>
+        <v>782</v>
       </c>
     </row>
   </sheetData>
@@ -4541,13 +4643,13 @@
         <v>153</v>
       </c>
       <c r="Z2" t="s">
-        <v>184</v>
+        <v>294</v>
       </c>
       <c r="AA2" s="26" t="s">
         <v>154</v>
       </c>
       <c r="AB2" t="s">
-        <v>154</v>
+        <v>705</v>
       </c>
       <c r="AC2" s="26" t="s">
         <v>155</v>
@@ -4562,17 +4664,17 @@
         <v>158</v>
       </c>
       <c r="AG2" t="s">
-        <v>726</v>
+        <v>757</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>184</v>
+        <v>756</v>
       </c>
       <c r="AJ2" t="s">
-        <v>184</v>
+        <v>756</v>
       </c>
       <c r="AK2" t="s">
-        <v>184</v>
+        <v>756</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -4659,7 +4761,7 @@
         <v>172</v>
       </c>
       <c r="AB3" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="AC3" s="26" t="s">
         <v>173</v>
@@ -4672,17 +4774,17 @@
         <v>158</v>
       </c>
       <c r="AG3" t="s">
-        <v>728</v>
+        <v>759</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>727</v>
+        <v>758</v>
       </c>
       <c r="AJ3" t="s">
-        <v>727</v>
+        <v>758</v>
       </c>
       <c r="AK3" t="s">
-        <v>727</v>
+        <v>758</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -4771,24 +4873,24 @@
         <v>183</v>
       </c>
       <c r="AD4" t="s">
-        <v>730</v>
+        <v>244</v>
       </c>
       <c r="AE4" s="26"/>
       <c r="AF4" t="s">
         <v>158</v>
       </c>
       <c r="AG4" t="s">
-        <v>717</v>
+        <v>761</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>729</v>
+        <v>760</v>
       </c>
       <c r="AJ4" t="s">
-        <v>729</v>
+        <v>760</v>
       </c>
       <c r="AK4" t="s">
-        <v>729</v>
+        <v>760</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -4875,7 +4977,7 @@
         <v>172</v>
       </c>
       <c r="AB5" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="AC5" s="26" t="s">
         <v>173</v>
@@ -4888,17 +4990,17 @@
         <v>158</v>
       </c>
       <c r="AG5" t="s">
-        <v>732</v>
+        <v>765</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>731</v>
+        <v>764</v>
       </c>
       <c r="AJ5" t="s">
-        <v>731</v>
+        <v>764</v>
       </c>
       <c r="AK5" t="s">
-        <v>731</v>
+        <v>764</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -4985,7 +5087,7 @@
         <v>201</v>
       </c>
       <c r="AB6" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="AC6" s="26" t="s">
         <v>202</v>
@@ -4996,19 +5098,19 @@
       <c r="AE6" s="26"/>
       <c r="AF6" s="32"/>
       <c r="AG6" t="s">
-        <v>735</v>
+        <v>767</v>
       </c>
       <c r="AH6" s="30" t="s">
         <v>203</v>
       </c>
       <c r="AI6" t="s">
-        <v>733</v>
+        <v>766</v>
       </c>
       <c r="AJ6" t="s">
-        <v>733</v>
+        <v>766</v>
       </c>
       <c r="AK6" t="s">
-        <v>733</v>
+        <v>766</v>
       </c>
       <c r="AL6" s="31"/>
       <c r="AM6" s="40" t="s">
@@ -5104,19 +5206,19 @@
       <c r="AE7" s="26"/>
       <c r="AF7" s="32"/>
       <c r="AG7" t="s">
-        <v>737</v>
+        <v>769</v>
       </c>
       <c r="AH7" s="30" t="s">
         <v>210</v>
       </c>
       <c r="AI7" t="s">
-        <v>736</v>
+        <v>768</v>
       </c>
       <c r="AJ7" t="s">
-        <v>736</v>
+        <v>768</v>
       </c>
       <c r="AK7" t="s">
-        <v>736</v>
+        <v>768</v>
       </c>
       <c r="AL7" s="31"/>
       <c r="AM7" s="40" t="s">
@@ -5216,17 +5318,17 @@
         <v>158</v>
       </c>
       <c r="AG8" t="s">
-        <v>739</v>
+        <v>771</v>
       </c>
       <c r="AH8" s="30"/>
       <c r="AI8" t="s">
-        <v>738</v>
+        <v>770</v>
       </c>
       <c r="AJ8" t="s">
-        <v>738</v>
+        <v>770</v>
       </c>
       <c r="AK8" t="s">
-        <v>738</v>
+        <v>770</v>
       </c>
       <c r="AL8" s="31"/>
       <c r="AM8" s="40" t="s">
@@ -5313,7 +5415,7 @@
         <v>172</v>
       </c>
       <c r="AB9" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="AC9" s="28" t="s">
         <v>173</v>
@@ -5324,17 +5426,17 @@
       <c r="AE9" s="28"/>
       <c r="AF9" s="32"/>
       <c r="AG9" t="s">
-        <v>741</v>
+        <v>773</v>
       </c>
       <c r="AH9" s="30"/>
       <c r="AI9" t="s">
-        <v>740</v>
+        <v>772</v>
       </c>
       <c r="AJ9" t="s">
-        <v>740</v>
+        <v>772</v>
       </c>
       <c r="AK9" t="s">
-        <v>740</v>
+        <v>772</v>
       </c>
       <c r="AL9" s="31"/>
       <c r="AM9" s="40" t="s">
@@ -5430,17 +5532,17 @@
       <c r="AE10" s="26"/>
       <c r="AF10" s="33"/>
       <c r="AG10" t="s">
-        <v>743</v>
+        <v>775</v>
       </c>
       <c r="AH10" s="33"/>
       <c r="AI10" t="s">
-        <v>742</v>
+        <v>774</v>
       </c>
       <c r="AJ10" t="s">
-        <v>742</v>
+        <v>774</v>
       </c>
       <c r="AK10" t="s">
-        <v>742</v>
+        <v>774</v>
       </c>
       <c r="AL10" s="34"/>
       <c r="AM10" s="40" t="s">
@@ -5499,7 +5601,7 @@
       <c r="Z11" s="30"/>
       <c r="AA11" s="28"/>
       <c r="AB11" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="AC11" s="28"/>
       <c r="AD11" t="s">
@@ -5510,7 +5612,7 @@
         <v>158</v>
       </c>
       <c r="AG11" t="s">
-        <v>744</v>
+        <v>776</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -5561,7 +5663,7 @@
       </c>
       <c r="Z12" s="31"/>
       <c r="AB12" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="AD12" t="s">
         <v>362</v>
@@ -5570,7 +5672,7 @@
         <v>158</v>
       </c>
       <c r="AG12" t="s">
-        <v>745</v>
+        <v>777</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -5619,7 +5721,7 @@
       </c>
       <c r="Z13" s="31"/>
       <c r="AB13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AD13" t="s">
         <v>243</v>
@@ -5628,7 +5730,7 @@
         <v>158</v>
       </c>
       <c r="AG13" t="s">
-        <v>746</v>
+        <v>784</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -5691,7 +5793,7 @@
       <c r="Z14" s="60"/>
       <c r="AA14" s="59"/>
       <c r="AB14" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="AC14" s="59"/>
       <c r="AD14" t="s">
@@ -5702,7 +5804,7 @@
         <v>158</v>
       </c>
       <c r="AG14" t="s">
-        <v>747</v>
+        <v>785</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -5770,7 +5872,7 @@
         <v>251</v>
       </c>
       <c r="D2" t="s">
-        <v>726</v>
+        <v>757</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>255</v>
@@ -5968,7 +6070,7 @@
         <v>299</v>
       </c>
       <c r="D13" t="s">
-        <v>728</v>
+        <v>759</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>300</v>

--- a/NetAgent/src/main/resources/NA_STG.xlsx
+++ b/NetAgent/src/main/resources/NA_STG.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="983">
   <si>
     <t>PUId</t>
   </si>
@@ -2390,106 +2390,697 @@
     <t>136871833</t>
   </si>
   <si>
-    <t>04:14</t>
-  </si>
-  <si>
-    <t>10276070</t>
-  </si>
-  <si>
-    <t>05:22</t>
-  </si>
-  <si>
-    <t>10276123</t>
-  </si>
-  <si>
-    <t>05:27</t>
-  </si>
-  <si>
-    <t>10276189</t>
-  </si>
-  <si>
     <t>06:35</t>
   </si>
   <si>
-    <t>10276200</t>
-  </si>
-  <si>
-    <t>06:47</t>
-  </si>
-  <si>
-    <t>10276217</t>
-  </si>
-  <si>
-    <t>06:55</t>
-  </si>
-  <si>
-    <t>10276250</t>
-  </si>
-  <si>
-    <t>07:13</t>
-  </si>
-  <si>
-    <t>10276268</t>
-  </si>
-  <si>
-    <t>04:22</t>
-  </si>
-  <si>
-    <t>10276301</t>
-  </si>
-  <si>
-    <t>07:33</t>
-  </si>
-  <si>
-    <t>10276307</t>
-  </si>
-  <si>
-    <t>07:44</t>
-  </si>
-  <si>
-    <t>10276322</t>
-  </si>
-  <si>
-    <t>07:50</t>
-  </si>
-  <si>
-    <t>10276342</t>
-  </si>
-  <si>
-    <t>05:00</t>
-  </si>
-  <si>
-    <t>10276348</t>
-  </si>
-  <si>
-    <t>10276357</t>
-  </si>
-  <si>
-    <t>10276377</t>
-  </si>
-  <si>
-    <t>10276394</t>
-  </si>
-  <si>
-    <t>136919124</t>
-  </si>
-  <si>
-    <t>33457767</t>
-  </si>
-  <si>
-    <t>10275742</t>
-  </si>
-  <si>
-    <t>136919135</t>
-  </si>
-  <si>
-    <t>10276781</t>
-  </si>
-  <si>
-    <t>10276847</t>
-  </si>
-  <si>
-    <t>10276859</t>
+    <t>10289423</t>
+  </si>
+  <si>
+    <t>07:42</t>
+  </si>
+  <si>
+    <t>10289438</t>
+  </si>
+  <si>
+    <t>07:52</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>10289459</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>10289475</t>
+  </si>
+  <si>
+    <t>05:09</t>
+  </si>
+  <si>
+    <t>10289497</t>
+  </si>
+  <si>
+    <t>08:18</t>
+  </si>
+  <si>
+    <t>10289527</t>
+  </si>
+  <si>
+    <t>08:28</t>
+  </si>
+  <si>
+    <t>10289547</t>
+  </si>
+  <si>
+    <t>08:34</t>
+  </si>
+  <si>
+    <t>10289555</t>
+  </si>
+  <si>
+    <t>05:44</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>10289572</t>
+  </si>
+  <si>
+    <t>10289585</t>
+  </si>
+  <si>
+    <t>10289605</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>1585</t>
+  </si>
+  <si>
+    <t>10289628</t>
+  </si>
+  <si>
+    <t>01:15</t>
+  </si>
+  <si>
+    <t>10291874</t>
+  </si>
+  <si>
+    <t>02:22</t>
+  </si>
+  <si>
+    <t>10291875</t>
+  </si>
+  <si>
+    <t>02:31</t>
+  </si>
+  <si>
+    <t>10291882</t>
+  </si>
+  <si>
+    <t>02:38</t>
+  </si>
+  <si>
+    <t>10291883</t>
+  </si>
+  <si>
+    <t>23:48</t>
+  </si>
+  <si>
+    <t>10291888</t>
+  </si>
+  <si>
+    <t>02:57</t>
+  </si>
+  <si>
+    <t>10291909</t>
+  </si>
+  <si>
+    <t>03:06</t>
+  </si>
+  <si>
+    <t>10291918</t>
+  </si>
+  <si>
+    <t>03:12</t>
+  </si>
+  <si>
+    <t>10291919</t>
+  </si>
+  <si>
+    <t>00:22</t>
+  </si>
+  <si>
+    <t>10291920</t>
+  </si>
+  <si>
+    <t>10291924</t>
+  </si>
+  <si>
+    <t>10291928</t>
+  </si>
+  <si>
+    <t>10291934</t>
+  </si>
+  <si>
+    <t>10291940</t>
+  </si>
+  <si>
+    <t>137064216</t>
+  </si>
+  <si>
+    <t>33471106</t>
+  </si>
+  <si>
+    <t>10289070</t>
+  </si>
+  <si>
+    <t>137064227</t>
+  </si>
+  <si>
+    <t>10297398</t>
+  </si>
+  <si>
+    <t>00:30</t>
+  </si>
+  <si>
+    <t>10297410</t>
+  </si>
+  <si>
+    <t>00:40</t>
+  </si>
+  <si>
+    <t>10297417</t>
+  </si>
+  <si>
+    <t>10297418</t>
+  </si>
+  <si>
+    <t>21:57</t>
+  </si>
+  <si>
+    <t>10297433</t>
+  </si>
+  <si>
+    <t>01:08</t>
+  </si>
+  <si>
+    <t>10297467</t>
+  </si>
+  <si>
+    <t>22:15</t>
+  </si>
+  <si>
+    <t>10297478</t>
+  </si>
+  <si>
+    <t>10297536</t>
+  </si>
+  <si>
+    <t>10297551</t>
+  </si>
+  <si>
+    <t>10297565</t>
+  </si>
+  <si>
+    <t>10297571</t>
+  </si>
+  <si>
+    <t>137154539</t>
+  </si>
+  <si>
+    <t>33479426</t>
+  </si>
+  <si>
+    <t>10297380</t>
+  </si>
+  <si>
+    <t>137154540</t>
+  </si>
+  <si>
+    <t>23:57</t>
+  </si>
+  <si>
+    <t>10299816</t>
+  </si>
+  <si>
+    <t>01:04</t>
+  </si>
+  <si>
+    <t>10299820</t>
+  </si>
+  <si>
+    <t>01:13</t>
+  </si>
+  <si>
+    <t>10299854</t>
+  </si>
+  <si>
+    <t>01:20</t>
+  </si>
+  <si>
+    <t>10299898</t>
+  </si>
+  <si>
+    <t>22:29</t>
+  </si>
+  <si>
+    <t>10299912</t>
+  </si>
+  <si>
+    <t>01:40</t>
+  </si>
+  <si>
+    <t>02:29</t>
+  </si>
+  <si>
+    <t>10299997</t>
+  </si>
+  <si>
+    <t>02:36</t>
+  </si>
+  <si>
+    <t>23:39</t>
+  </si>
+  <si>
+    <t>10300013</t>
+  </si>
+  <si>
+    <t>10300026</t>
+  </si>
+  <si>
+    <t>10300029</t>
+  </si>
+  <si>
+    <t>10300339</t>
+  </si>
+  <si>
+    <t>10300355</t>
+  </si>
+  <si>
+    <t>137180176</t>
+  </si>
+  <si>
+    <t>33481792</t>
+  </si>
+  <si>
+    <t>10299743</t>
+  </si>
+  <si>
+    <t>137180187</t>
+  </si>
+  <si>
+    <t>22:49</t>
+  </si>
+  <si>
+    <t>10301920</t>
+  </si>
+  <si>
+    <t>23:56</t>
+  </si>
+  <si>
+    <t>10301929</t>
+  </si>
+  <si>
+    <t>00:07</t>
+  </si>
+  <si>
+    <t>10301973</t>
+  </si>
+  <si>
+    <t>00:14</t>
+  </si>
+  <si>
+    <t>10301977</t>
+  </si>
+  <si>
+    <t>21:24</t>
+  </si>
+  <si>
+    <t>10301981</t>
+  </si>
+  <si>
+    <t>00:34</t>
+  </si>
+  <si>
+    <t>02:12</t>
+  </si>
+  <si>
+    <t>10302143</t>
+  </si>
+  <si>
+    <t>02:18</t>
+  </si>
+  <si>
+    <t>10302157</t>
+  </si>
+  <si>
+    <t>23:29</t>
+  </si>
+  <si>
+    <t>10302165</t>
+  </si>
+  <si>
+    <t>10302168</t>
+  </si>
+  <si>
+    <t>10302201</t>
+  </si>
+  <si>
+    <t>10302217</t>
+  </si>
+  <si>
+    <t>10303942</t>
+  </si>
+  <si>
+    <t>10303947</t>
+  </si>
+  <si>
+    <t>00:32</t>
+  </si>
+  <si>
+    <t>10303958</t>
+  </si>
+  <si>
+    <t>00:39</t>
+  </si>
+  <si>
+    <t>10303964</t>
+  </si>
+  <si>
+    <t>21:49</t>
+  </si>
+  <si>
+    <t>10303971</t>
+  </si>
+  <si>
+    <t>01:00</t>
+  </si>
+  <si>
+    <t>01:26</t>
+  </si>
+  <si>
+    <t>10304072</t>
+  </si>
+  <si>
+    <t>01:34</t>
+  </si>
+  <si>
+    <t>10304087</t>
+  </si>
+  <si>
+    <t>22:45</t>
+  </si>
+  <si>
+    <t>10304096</t>
+  </si>
+  <si>
+    <t>10304099</t>
+  </si>
+  <si>
+    <t>10304103</t>
+  </si>
+  <si>
+    <t>10304152</t>
+  </si>
+  <si>
+    <t>10304170</t>
+  </si>
+  <si>
+    <t>137227356</t>
+  </si>
+  <si>
+    <t>33485991</t>
+  </si>
+  <si>
+    <t>10303936</t>
+  </si>
+  <si>
+    <t>137227367</t>
+  </si>
+  <si>
+    <t>02:09</t>
+  </si>
+  <si>
+    <t>10308911</t>
+  </si>
+  <si>
+    <t>03:16</t>
+  </si>
+  <si>
+    <t>10308913</t>
+  </si>
+  <si>
+    <t>03:26</t>
+  </si>
+  <si>
+    <t>10308917</t>
+  </si>
+  <si>
+    <t>03:33</t>
+  </si>
+  <si>
+    <t>10308923</t>
+  </si>
+  <si>
+    <t>00:43</t>
+  </si>
+  <si>
+    <t>10308932</t>
+  </si>
+  <si>
+    <t>03:52</t>
+  </si>
+  <si>
+    <t>10308944</t>
+  </si>
+  <si>
+    <t>03:59</t>
+  </si>
+  <si>
+    <t>10308958</t>
+  </si>
+  <si>
+    <t>01:10</t>
+  </si>
+  <si>
+    <t>10308970</t>
+  </si>
+  <si>
+    <t>10308971</t>
+  </si>
+  <si>
+    <t>10308977</t>
+  </si>
+  <si>
+    <t>10308985</t>
+  </si>
+  <si>
+    <t>10308997</t>
+  </si>
+  <si>
+    <t>137278738</t>
+  </si>
+  <si>
+    <t>33490777</t>
+  </si>
+  <si>
+    <t>10308722</t>
+  </si>
+  <si>
+    <t>137278749</t>
+  </si>
+  <si>
+    <t>23:30</t>
+  </si>
+  <si>
+    <t>10311210</t>
+  </si>
+  <si>
+    <t>00:38</t>
+  </si>
+  <si>
+    <t>10311217</t>
+  </si>
+  <si>
+    <t>10311233</t>
+  </si>
+  <si>
+    <t>00:55</t>
+  </si>
+  <si>
+    <t>10311246</t>
+  </si>
+  <si>
+    <t>22:05</t>
+  </si>
+  <si>
+    <t>10311276</t>
+  </si>
+  <si>
+    <t>01:42</t>
+  </si>
+  <si>
+    <t>02:04</t>
+  </si>
+  <si>
+    <t>10311379</t>
+  </si>
+  <si>
+    <t>10311387</t>
+  </si>
+  <si>
+    <t>23:22</t>
+  </si>
+  <si>
+    <t>10311401</t>
+  </si>
+  <si>
+    <t>10311405</t>
+  </si>
+  <si>
+    <t>10311419</t>
+  </si>
+  <si>
+    <t>10311427</t>
+  </si>
+  <si>
+    <t>10311441</t>
+  </si>
+  <si>
+    <t>03:20</t>
+  </si>
+  <si>
+    <t>10311479</t>
+  </si>
+  <si>
+    <t>137304965</t>
+  </si>
+  <si>
+    <t>33493238</t>
+  </si>
+  <si>
+    <t>10311177</t>
+  </si>
+  <si>
+    <t>137304976</t>
+  </si>
+  <si>
+    <t>23:20</t>
+  </si>
+  <si>
+    <t>10313908</t>
+  </si>
+  <si>
+    <t>00:28</t>
+  </si>
+  <si>
+    <t>10313918</t>
+  </si>
+  <si>
+    <t>10313927</t>
+  </si>
+  <si>
+    <t>00:46</t>
+  </si>
+  <si>
+    <t>10313936</t>
+  </si>
+  <si>
+    <t>10313951</t>
+  </si>
+  <si>
+    <t>10314023</t>
+  </si>
+  <si>
+    <t>10314027</t>
+  </si>
+  <si>
+    <t>10314040</t>
+  </si>
+  <si>
+    <t>10314046</t>
+  </si>
+  <si>
+    <t>10314060</t>
+  </si>
+  <si>
+    <t>10314164</t>
+  </si>
+  <si>
+    <t>10314196</t>
+  </si>
+  <si>
+    <t>10314201</t>
+  </si>
+  <si>
+    <t>137333961</t>
+  </si>
+  <si>
+    <t>33495958</t>
+  </si>
+  <si>
+    <t>10313897</t>
+  </si>
+  <si>
+    <t>137333972</t>
+  </si>
+  <si>
+    <t>01:50</t>
+  </si>
+  <si>
+    <t>10318713</t>
+  </si>
+  <si>
+    <t>02:58</t>
+  </si>
+  <si>
+    <t>10318732</t>
+  </si>
+  <si>
+    <t>03:10</t>
+  </si>
+  <si>
+    <t>10318744</t>
+  </si>
+  <si>
+    <t>03:17</t>
+  </si>
+  <si>
+    <t>10318745</t>
+  </si>
+  <si>
+    <t>10318749</t>
+  </si>
+  <si>
+    <t>03:37</t>
+  </si>
+  <si>
+    <t>10318755</t>
+  </si>
+  <si>
+    <t>03:43</t>
+  </si>
+  <si>
+    <t>10318764</t>
+  </si>
+  <si>
+    <t>05:16</t>
+  </si>
+  <si>
+    <t>10318882</t>
+  </si>
+  <si>
+    <t>05:58</t>
+  </si>
+  <si>
+    <t>10318966</t>
+  </si>
+  <si>
+    <t>06:11</t>
+  </si>
+  <si>
+    <t>10318982</t>
+  </si>
+  <si>
+    <t>10319021</t>
+  </si>
+  <si>
+    <t>06:51</t>
+  </si>
+  <si>
+    <t>10319040</t>
+  </si>
+  <si>
+    <t>07:01</t>
+  </si>
+  <si>
+    <t>10319090</t>
   </si>
 </sst>
 </file>
@@ -4393,16 +4984,16 @@
         <v>393</v>
       </c>
       <c r="B2" t="s">
-        <v>779</v>
+        <v>955</v>
       </c>
       <c r="C2" t="s">
-        <v>780</v>
+        <v>956</v>
       </c>
       <c r="D2" t="s">
-        <v>781</v>
+        <v>957</v>
       </c>
       <c r="E2" t="s">
-        <v>782</v>
+        <v>958</v>
       </c>
     </row>
   </sheetData>
@@ -4649,7 +5240,7 @@
         <v>154</v>
       </c>
       <c r="AB2" t="s">
-        <v>705</v>
+        <v>154</v>
       </c>
       <c r="AC2" s="26" t="s">
         <v>155</v>
@@ -4664,17 +5255,17 @@
         <v>158</v>
       </c>
       <c r="AG2" t="s">
-        <v>757</v>
+        <v>960</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>756</v>
+        <v>959</v>
       </c>
       <c r="AJ2" t="s">
-        <v>756</v>
+        <v>959</v>
       </c>
       <c r="AK2" t="s">
-        <v>756</v>
+        <v>959</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -4755,13 +5346,13 @@
         <v>171</v>
       </c>
       <c r="Z3" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="AA3" s="26" t="s">
         <v>172</v>
       </c>
       <c r="AB3" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="AC3" s="26" t="s">
         <v>173</v>
@@ -4774,17 +5365,17 @@
         <v>158</v>
       </c>
       <c r="AG3" t="s">
-        <v>759</v>
+        <v>978</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>758</v>
+        <v>184</v>
       </c>
       <c r="AJ3" t="s">
-        <v>758</v>
+        <v>184</v>
       </c>
       <c r="AK3" t="s">
-        <v>758</v>
+        <v>184</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -4873,24 +5464,24 @@
         <v>183</v>
       </c>
       <c r="AD4" t="s">
-        <v>244</v>
+        <v>730</v>
       </c>
       <c r="AE4" s="26"/>
       <c r="AF4" t="s">
         <v>158</v>
       </c>
       <c r="AG4" t="s">
-        <v>761</v>
+        <v>980</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>760</v>
+        <v>979</v>
       </c>
       <c r="AJ4" t="s">
-        <v>760</v>
+        <v>979</v>
       </c>
       <c r="AK4" t="s">
-        <v>760</v>
+        <v>979</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -4977,7 +5568,7 @@
         <v>172</v>
       </c>
       <c r="AB5" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="AC5" s="26" t="s">
         <v>173</v>
@@ -4990,17 +5581,17 @@
         <v>158</v>
       </c>
       <c r="AG5" t="s">
-        <v>765</v>
+        <v>982</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>764</v>
+        <v>981</v>
       </c>
       <c r="AJ5" t="s">
-        <v>764</v>
+        <v>981</v>
       </c>
       <c r="AK5" t="s">
-        <v>764</v>
+        <v>981</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -5081,13 +5672,13 @@
         <v>156</v>
       </c>
       <c r="Z6" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="AA6" s="26" t="s">
         <v>201</v>
       </c>
       <c r="AB6" t="s">
-        <v>721</v>
+        <v>201</v>
       </c>
       <c r="AC6" s="26" t="s">
         <v>202</v>
@@ -5098,19 +5689,19 @@
       <c r="AE6" s="26"/>
       <c r="AF6" s="32"/>
       <c r="AG6" t="s">
-        <v>767</v>
+        <v>967</v>
       </c>
       <c r="AH6" s="30" t="s">
         <v>203</v>
       </c>
       <c r="AI6" t="s">
-        <v>766</v>
+        <v>941</v>
       </c>
       <c r="AJ6" t="s">
-        <v>766</v>
+        <v>941</v>
       </c>
       <c r="AK6" t="s">
-        <v>766</v>
+        <v>941</v>
       </c>
       <c r="AL6" s="31"/>
       <c r="AM6" s="40" t="s">
@@ -5206,19 +5797,19 @@
       <c r="AE7" s="26"/>
       <c r="AF7" s="32"/>
       <c r="AG7" t="s">
-        <v>769</v>
+        <v>788</v>
       </c>
       <c r="AH7" s="30" t="s">
         <v>210</v>
       </c>
       <c r="AI7" t="s">
-        <v>768</v>
+        <v>933</v>
       </c>
       <c r="AJ7" t="s">
-        <v>768</v>
+        <v>933</v>
       </c>
       <c r="AK7" t="s">
-        <v>768</v>
+        <v>933</v>
       </c>
       <c r="AL7" s="31"/>
       <c r="AM7" s="40" t="s">
@@ -5318,17 +5909,17 @@
         <v>158</v>
       </c>
       <c r="AG8" t="s">
-        <v>771</v>
+        <v>969</v>
       </c>
       <c r="AH8" s="30"/>
       <c r="AI8" t="s">
-        <v>770</v>
+        <v>968</v>
       </c>
       <c r="AJ8" t="s">
-        <v>770</v>
+        <v>968</v>
       </c>
       <c r="AK8" t="s">
-        <v>770</v>
+        <v>968</v>
       </c>
       <c r="AL8" s="31"/>
       <c r="AM8" s="40" t="s">
@@ -5415,7 +6006,7 @@
         <v>172</v>
       </c>
       <c r="AB9" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="AC9" s="28" t="s">
         <v>173</v>
@@ -5426,17 +6017,17 @@
       <c r="AE9" s="28"/>
       <c r="AF9" s="32"/>
       <c r="AG9" t="s">
-        <v>773</v>
+        <v>971</v>
       </c>
       <c r="AH9" s="30"/>
       <c r="AI9" t="s">
-        <v>772</v>
+        <v>970</v>
       </c>
       <c r="AJ9" t="s">
-        <v>772</v>
+        <v>970</v>
       </c>
       <c r="AK9" t="s">
-        <v>772</v>
+        <v>970</v>
       </c>
       <c r="AL9" s="31"/>
       <c r="AM9" s="40" t="s">
@@ -5515,7 +6106,7 @@
         <v>171</v>
       </c>
       <c r="Z10" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="AA10" s="26" t="s">
         <v>169</v>
@@ -5532,17 +6123,17 @@
       <c r="AE10" s="26"/>
       <c r="AF10" s="33"/>
       <c r="AG10" t="s">
-        <v>775</v>
+        <v>949</v>
       </c>
       <c r="AH10" s="33"/>
       <c r="AI10" t="s">
-        <v>774</v>
+        <v>184</v>
       </c>
       <c r="AJ10" t="s">
-        <v>774</v>
+        <v>184</v>
       </c>
       <c r="AK10" t="s">
-        <v>774</v>
+        <v>184</v>
       </c>
       <c r="AL10" s="34"/>
       <c r="AM10" s="40" t="s">
@@ -5601,7 +6192,7 @@
       <c r="Z11" s="30"/>
       <c r="AA11" s="28"/>
       <c r="AB11" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="AC11" s="28"/>
       <c r="AD11" t="s">
@@ -5612,7 +6203,7 @@
         <v>158</v>
       </c>
       <c r="AG11" t="s">
-        <v>776</v>
+        <v>950</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -5663,7 +6254,7 @@
       </c>
       <c r="Z12" s="31"/>
       <c r="AB12" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AD12" t="s">
         <v>362</v>
@@ -5672,7 +6263,7 @@
         <v>158</v>
       </c>
       <c r="AG12" t="s">
-        <v>777</v>
+        <v>952</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -5721,16 +6312,16 @@
       </c>
       <c r="Z13" s="31"/>
       <c r="AB13" t="s">
-        <v>151</v>
+        <v>294</v>
       </c>
       <c r="AD13" t="s">
-        <v>243</v>
+        <v>775</v>
       </c>
       <c r="AF13" t="s">
         <v>158</v>
       </c>
       <c r="AG13" t="s">
-        <v>784</v>
+        <v>953</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -5793,7 +6384,7 @@
       <c r="Z14" s="60"/>
       <c r="AA14" s="59"/>
       <c r="AB14" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AC14" s="59"/>
       <c r="AD14" t="s">
@@ -5804,7 +6395,7 @@
         <v>158</v>
       </c>
       <c r="AG14" t="s">
-        <v>785</v>
+        <v>954</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -5872,7 +6463,7 @@
         <v>251</v>
       </c>
       <c r="D2" t="s">
-        <v>757</v>
+        <v>960</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>255</v>
@@ -6070,7 +6661,7 @@
         <v>299</v>
       </c>
       <c r="D13" t="s">
-        <v>759</v>
+        <v>978</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>300</v>

--- a/NetAgent/src/main/resources/NA_STG.xlsx
+++ b/NetAgent/src/main/resources/NA_STG.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Local\NetAgent\NetAgent\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView activeTab="5" tabRatio="748" windowHeight="5895" windowWidth="10230" xWindow="0" yWindow="0"/>
   </bookViews>
@@ -21,12 +16,12 @@
     <sheet name="OrderCreation" r:id="rId7" sheetId="6"/>
     <sheet name="TC_OrderProcess" r:id="rId8" sheetId="7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="463">
   <si>
     <t>PUId</t>
   </si>
@@ -501,9 +496,6 @@
   </si>
   <si>
     <t>$101.67</t>
-  </si>
-  <si>
-    <t>$0.00</t>
   </si>
   <si>
     <t>34769</t>
@@ -1307,1786 +1299,229 @@
     <t>10101639</t>
   </si>
   <si>
-    <t>10167731</t>
-  </si>
-  <si>
-    <t>1756662</t>
-  </si>
-  <si>
-    <t>RT00005082</t>
-  </si>
-  <si>
-    <t>1756678</t>
-  </si>
-  <si>
-    <t>10169598</t>
-  </si>
-  <si>
-    <t>1756682</t>
-  </si>
-  <si>
-    <t>1756683</t>
-  </si>
-  <si>
-    <t>1756684</t>
-  </si>
-  <si>
-    <t>1756685</t>
-  </si>
-  <si>
-    <t>1756686</t>
-  </si>
-  <si>
-    <t>10169610</t>
-  </si>
-  <si>
-    <t>1756711</t>
-  </si>
-  <si>
-    <t>10174064</t>
-  </si>
-  <si>
-    <t>1756714</t>
-  </si>
-  <si>
-    <t>1756715</t>
-  </si>
-  <si>
-    <t>1756716</t>
-  </si>
-  <si>
-    <t>1756717</t>
-  </si>
-  <si>
-    <t>1756718</t>
-  </si>
-  <si>
-    <t>1756781</t>
-  </si>
-  <si>
-    <t>135849909</t>
-  </si>
-  <si>
-    <t>33361407</t>
-  </si>
-  <si>
-    <t>10179455</t>
-  </si>
-  <si>
-    <t>135849910</t>
-  </si>
-  <si>
-    <t>10179524</t>
-  </si>
-  <si>
-    <t>1756784</t>
-  </si>
-  <si>
-    <t>1756785</t>
-  </si>
-  <si>
-    <t>1756786</t>
-  </si>
-  <si>
-    <t>1756787</t>
-  </si>
-  <si>
-    <t>1756806</t>
-  </si>
-  <si>
-    <t>10180037</t>
-  </si>
-  <si>
-    <t>1756809</t>
-  </si>
-  <si>
-    <t>1756810</t>
-  </si>
-  <si>
-    <t>1756811</t>
-  </si>
-  <si>
-    <t>1756812</t>
-  </si>
-  <si>
-    <t>1756813</t>
-  </si>
-  <si>
-    <t>1756819</t>
-  </si>
-  <si>
-    <t>135876897</t>
-  </si>
-  <si>
-    <t>33363849</t>
-  </si>
-  <si>
-    <t>10181897</t>
-  </si>
-  <si>
-    <t>135876901</t>
-  </si>
-  <si>
-    <t>10181905</t>
-  </si>
-  <si>
-    <t>1756822</t>
-  </si>
-  <si>
-    <t>1756823</t>
-  </si>
-  <si>
-    <t>1756824</t>
-  </si>
-  <si>
-    <t>1756825</t>
-  </si>
-  <si>
-    <t>1756826</t>
-  </si>
-  <si>
-    <t>1762104</t>
-  </si>
-  <si>
-    <t>10182424</t>
-  </si>
-  <si>
-    <t>1762107</t>
-  </si>
-  <si>
-    <t>1762117</t>
-  </si>
-  <si>
-    <t>10182449</t>
-  </si>
-  <si>
-    <t>1762121</t>
-  </si>
-  <si>
-    <t>1762122</t>
-  </si>
-  <si>
-    <t>1762123</t>
-  </si>
-  <si>
-    <t>1762124</t>
-  </si>
-  <si>
-    <t>1762125</t>
-  </si>
-  <si>
-    <t>1762126</t>
-  </si>
-  <si>
-    <t>1762131</t>
-  </si>
-  <si>
-    <t>1762132</t>
-  </si>
-  <si>
-    <t>1762133</t>
-  </si>
-  <si>
-    <t>1762134</t>
-  </si>
-  <si>
-    <t>1762135</t>
-  </si>
-  <si>
-    <t>1762148</t>
-  </si>
-  <si>
-    <t>10182508</t>
-  </si>
-  <si>
-    <t>1762153</t>
-  </si>
-  <si>
-    <t>1762154</t>
-  </si>
-  <si>
-    <t>1762155</t>
-  </si>
-  <si>
-    <t>1762156</t>
-  </si>
-  <si>
-    <t>1762157</t>
-  </si>
-  <si>
-    <t>1763224</t>
-  </si>
-  <si>
-    <t>10183231</t>
-  </si>
-  <si>
-    <t>1763227</t>
-  </si>
-  <si>
-    <t>1763228</t>
-  </si>
-  <si>
-    <t>1763229</t>
-  </si>
-  <si>
-    <t>1763230</t>
-  </si>
-  <si>
-    <t>1763231</t>
-  </si>
-  <si>
-    <t>1763291</t>
-  </si>
-  <si>
-    <t>1763295</t>
-  </si>
-  <si>
-    <t>135965984</t>
-  </si>
-  <si>
-    <t>33371512</t>
-  </si>
-  <si>
-    <t>10189557</t>
-  </si>
-  <si>
-    <t>135965995</t>
-  </si>
-  <si>
-    <t>10189712</t>
-  </si>
-  <si>
-    <t>1763302</t>
-  </si>
-  <si>
-    <t>1763303</t>
-  </si>
-  <si>
-    <t>1763304</t>
-  </si>
-  <si>
-    <t>1763305</t>
-  </si>
-  <si>
-    <t>1763306</t>
-  </si>
-  <si>
-    <t>1764376</t>
-  </si>
-  <si>
-    <t>10195385</t>
-  </si>
-  <si>
-    <t>1764379</t>
-  </si>
-  <si>
-    <t>1764380</t>
-  </si>
-  <si>
-    <t>1764381</t>
-  </si>
-  <si>
-    <t>1764382</t>
-  </si>
-  <si>
-    <t>1764383</t>
-  </si>
-  <si>
-    <t>1766507</t>
-  </si>
-  <si>
-    <t>136029416</t>
-  </si>
-  <si>
-    <t>33377325</t>
-  </si>
-  <si>
-    <t>10195370</t>
-  </si>
-  <si>
-    <t>136029427</t>
-  </si>
-  <si>
-    <t>10195478</t>
-  </si>
-  <si>
-    <t>1766510</t>
-  </si>
-  <si>
-    <t>1766548</t>
-  </si>
-  <si>
-    <t>10195493</t>
-  </si>
-  <si>
-    <t>1766554</t>
-  </si>
-  <si>
-    <t>1766558</t>
-  </si>
-  <si>
-    <t>1766559</t>
-  </si>
-  <si>
-    <t>1766560</t>
-  </si>
-  <si>
-    <t>1766561</t>
-  </si>
-  <si>
-    <t>1766562</t>
-  </si>
-  <si>
-    <t>1770776</t>
-  </si>
-  <si>
-    <t>136078654</t>
-  </si>
-  <si>
-    <t>33381722</t>
-  </si>
-  <si>
-    <t>10199767</t>
-  </si>
-  <si>
-    <t>136078665</t>
-  </si>
-  <si>
-    <t>10199817</t>
-  </si>
-  <si>
-    <t>1770779</t>
-  </si>
-  <si>
-    <t>1770780</t>
-  </si>
-  <si>
-    <t>1770781</t>
-  </si>
-  <si>
-    <t>1770782</t>
-  </si>
-  <si>
-    <t>1770783</t>
-  </si>
-  <si>
-    <t>1770873</t>
-  </si>
-  <si>
-    <t>136118330</t>
-  </si>
-  <si>
-    <t>33385162</t>
-  </si>
-  <si>
-    <t>10203205</t>
-  </si>
-  <si>
-    <t>136118341</t>
-  </si>
-  <si>
-    <t>10204106</t>
-  </si>
-  <si>
-    <t>1770885</t>
-  </si>
-  <si>
-    <t>136164670</t>
-  </si>
-  <si>
-    <t>33389499</t>
-  </si>
-  <si>
-    <t>10207542</t>
-  </si>
-  <si>
-    <t>136164681</t>
-  </si>
-  <si>
-    <t>10207634</t>
-  </si>
-  <si>
-    <t>1770896</t>
-  </si>
-  <si>
-    <t>1770897</t>
-  </si>
-  <si>
-    <t>1770898</t>
-  </si>
-  <si>
-    <t>1770899</t>
-  </si>
-  <si>
-    <t>1770900</t>
-  </si>
-  <si>
-    <t>136190837</t>
-  </si>
-  <si>
-    <t>33391916</t>
-  </si>
-  <si>
-    <t>10209959</t>
-  </si>
-  <si>
-    <t>136190848</t>
-  </si>
-  <si>
-    <t>10210106</t>
-  </si>
-  <si>
-    <t>1770925</t>
-  </si>
-  <si>
-    <t>10210173</t>
-  </si>
-  <si>
-    <t>1770934</t>
-  </si>
-  <si>
-    <t>1770935</t>
-  </si>
-  <si>
-    <t>1770937</t>
-  </si>
-  <si>
-    <t>1770938</t>
-  </si>
-  <si>
-    <t>1770939</t>
-  </si>
-  <si>
-    <t>1770940</t>
-  </si>
-  <si>
-    <t>1770941</t>
-  </si>
-  <si>
-    <t>1770996</t>
-  </si>
-  <si>
-    <t>136218883</t>
-  </si>
-  <si>
-    <t>33394512</t>
-  </si>
-  <si>
-    <t>10212555</t>
-  </si>
-  <si>
-    <t>136218894</t>
-  </si>
-  <si>
-    <t>10213023</t>
-  </si>
-  <si>
-    <t>1771004</t>
-  </si>
-  <si>
-    <t>1771005</t>
-  </si>
-  <si>
-    <t>1771006</t>
-  </si>
-  <si>
-    <t>1771007</t>
-  </si>
-  <si>
-    <t>1771008</t>
-  </si>
-  <si>
-    <t>1771038</t>
-  </si>
-  <si>
-    <t>136234854</t>
-  </si>
-  <si>
-    <t>33395861</t>
-  </si>
-  <si>
-    <t>10213903</t>
-  </si>
-  <si>
-    <t>136234865</t>
-  </si>
-  <si>
-    <t>10214498</t>
-  </si>
-  <si>
-    <t>1771041</t>
-  </si>
-  <si>
-    <t>1771087</t>
-  </si>
-  <si>
-    <t>136306227</t>
-  </si>
-  <si>
-    <t>33402392</t>
-  </si>
-  <si>
-    <t>10220418</t>
-  </si>
-  <si>
-    <t>136306238</t>
-  </si>
-  <si>
-    <t>1031</t>
-  </si>
-  <si>
-    <t>10220537</t>
-  </si>
-  <si>
-    <t>1771090</t>
-  </si>
-  <si>
-    <t>1771091</t>
-  </si>
-  <si>
-    <t>1771092</t>
-  </si>
-  <si>
-    <t>1771093</t>
-  </si>
-  <si>
-    <t>1771094</t>
-  </si>
-  <si>
-    <t>1771112</t>
-  </si>
-  <si>
-    <t>136332565</t>
-  </si>
-  <si>
-    <t>33404839</t>
-  </si>
-  <si>
-    <t>10222860</t>
-  </si>
-  <si>
-    <t>136332576</t>
-  </si>
-  <si>
-    <t>10223023</t>
-  </si>
-  <si>
-    <t>1771117</t>
-  </si>
-  <si>
-    <t>1771118</t>
-  </si>
-  <si>
-    <t>1771119</t>
-  </si>
-  <si>
-    <t>1771120</t>
-  </si>
-  <si>
-    <t>1771121</t>
-  </si>
-  <si>
-    <t>10224151</t>
-  </si>
-  <si>
-    <t>1771194</t>
-  </si>
-  <si>
-    <t>1771195</t>
-  </si>
-  <si>
-    <t>1771196</t>
-  </si>
-  <si>
-    <t>1771197</t>
-  </si>
-  <si>
-    <t>1771198</t>
-  </si>
-  <si>
-    <t>1771200</t>
-  </si>
-  <si>
-    <t>10224154</t>
-  </si>
-  <si>
-    <t>1771203</t>
-  </si>
-  <si>
-    <t>1771234</t>
-  </si>
-  <si>
-    <t>10224278</t>
-  </si>
-  <si>
-    <t>1771237</t>
-  </si>
-  <si>
-    <t>1771238</t>
-  </si>
-  <si>
-    <t>1771239</t>
-  </si>
-  <si>
-    <t>1771240</t>
-  </si>
-  <si>
-    <t>1771241</t>
-  </si>
-  <si>
-    <t>1771250</t>
-  </si>
-  <si>
-    <t>136388159</t>
-  </si>
-  <si>
-    <t>33409596</t>
-  </si>
-  <si>
-    <t>10227611</t>
-  </si>
-  <si>
-    <t>136388160</t>
-  </si>
-  <si>
-    <t>10227807</t>
-  </si>
-  <si>
-    <t>1771253</t>
-  </si>
-  <si>
-    <t>1771254</t>
-  </si>
-  <si>
-    <t>1771255</t>
-  </si>
-  <si>
-    <t>1771256</t>
-  </si>
-  <si>
-    <t>1771257</t>
-  </si>
-  <si>
-    <t>1771305</t>
-  </si>
-  <si>
-    <t>136416748</t>
-  </si>
-  <si>
-    <t>33412103</t>
-  </si>
-  <si>
-    <t>10230118</t>
-  </si>
-  <si>
-    <t>136416759</t>
-  </si>
-  <si>
-    <t>10230353</t>
-  </si>
-  <si>
-    <t>1771308</t>
-  </si>
-  <si>
-    <t>1771309</t>
-  </si>
-  <si>
-    <t>1771310</t>
-  </si>
-  <si>
-    <t>1771311</t>
-  </si>
-  <si>
-    <t>1771312</t>
-  </si>
-  <si>
-    <t>1771344</t>
-  </si>
-  <si>
-    <t>136463096</t>
-  </si>
-  <si>
-    <t>33416364</t>
-  </si>
-  <si>
-    <t>10234377</t>
-  </si>
-  <si>
-    <t>136463100</t>
-  </si>
-  <si>
-    <t>10234665</t>
-  </si>
-  <si>
-    <t>1771347</t>
-  </si>
-  <si>
-    <t>1771348</t>
-  </si>
-  <si>
-    <t>1771349</t>
-  </si>
-  <si>
-    <t>1771350</t>
-  </si>
-  <si>
-    <t>1771351</t>
-  </si>
-  <si>
-    <t>1771388</t>
-  </si>
-  <si>
-    <t>10235152</t>
-  </si>
-  <si>
-    <t>1771392</t>
-  </si>
-  <si>
-    <t>1771393</t>
-  </si>
-  <si>
-    <t>1771394</t>
-  </si>
-  <si>
-    <t>1771395</t>
-  </si>
-  <si>
-    <t>1771396</t>
-  </si>
-  <si>
-    <t>1771435</t>
-  </si>
-  <si>
-    <t>136548612</t>
-  </si>
-  <si>
-    <t>33423990</t>
-  </si>
-  <si>
-    <t>10241997</t>
-  </si>
-  <si>
-    <t>136548623</t>
-  </si>
-  <si>
-    <t>10242238</t>
-  </si>
-  <si>
-    <t>1771440</t>
-  </si>
-  <si>
-    <t>1771445</t>
-  </si>
-  <si>
-    <t>10242369</t>
-  </si>
-  <si>
-    <t>1771448</t>
-  </si>
-  <si>
-    <t>1771449</t>
-  </si>
-  <si>
-    <t>1771450</t>
-  </si>
-  <si>
-    <t>1771451</t>
-  </si>
-  <si>
-    <t>1771452</t>
-  </si>
-  <si>
-    <t>1771468</t>
-  </si>
-  <si>
-    <t>136574868</t>
-  </si>
-  <si>
-    <t>33426420</t>
-  </si>
-  <si>
-    <t>10244421</t>
-  </si>
-  <si>
-    <t>136574879</t>
-  </si>
-  <si>
-    <t>10244642</t>
-  </si>
-  <si>
-    <t>1771471</t>
-  </si>
-  <si>
-    <t>1771472</t>
-  </si>
-  <si>
-    <t>1771473</t>
-  </si>
-  <si>
-    <t>1771474</t>
-  </si>
-  <si>
-    <t>1771475</t>
-  </si>
-  <si>
-    <t>1771516</t>
-  </si>
-  <si>
-    <t>136602217</t>
-  </si>
-  <si>
-    <t>33428933</t>
-  </si>
-  <si>
-    <t>10246934</t>
-  </si>
-  <si>
-    <t>136602228</t>
-  </si>
-  <si>
-    <t>10247186</t>
-  </si>
-  <si>
-    <t>1771519</t>
-  </si>
-  <si>
-    <t>1771520</t>
-  </si>
-  <si>
-    <t>1771521</t>
-  </si>
-  <si>
-    <t>1771522</t>
-  </si>
-  <si>
-    <t>1771523</t>
-  </si>
-  <si>
-    <t>1771554</t>
-  </si>
-  <si>
-    <t>136650148</t>
-  </si>
-  <si>
-    <t>33433200</t>
-  </si>
-  <si>
-    <t>10251195</t>
-  </si>
-  <si>
-    <t>136650159</t>
-  </si>
-  <si>
-    <t>10251363</t>
-  </si>
-  <si>
-    <t>1771558</t>
-  </si>
-  <si>
-    <t>1771559</t>
-  </si>
-  <si>
-    <t>1771560</t>
-  </si>
-  <si>
-    <t>1771561</t>
-  </si>
-  <si>
-    <t>1771569</t>
-  </si>
-  <si>
-    <t>1771578</t>
-  </si>
-  <si>
-    <t>1771610</t>
-  </si>
-  <si>
-    <t>136698355</t>
-  </si>
-  <si>
-    <t>33437695</t>
-  </si>
-  <si>
-    <t>10255682</t>
-  </si>
-  <si>
-    <t>136698366</t>
-  </si>
-  <si>
     <t>10255911</t>
   </si>
   <si>
-    <t>1771616</t>
-  </si>
-  <si>
-    <t>1771617</t>
-  </si>
-  <si>
-    <t>1771618</t>
-  </si>
-  <si>
-    <t>1771619</t>
-  </si>
-  <si>
     <t>1771620</t>
   </si>
   <si>
-    <t>02:07</t>
-  </si>
-  <si>
-    <t>10268179</t>
-  </si>
-  <si>
-    <t>05:35</t>
-  </si>
-  <si>
-    <t>10268405</t>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>111111111</t>
+  </si>
+  <si>
+    <t>98934</t>
+  </si>
+  <si>
+    <t>98936</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>14624888</t>
+  </si>
+  <si>
+    <t>04:25</t>
+  </si>
+  <si>
+    <t>30738</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>00:08</t>
+  </si>
+  <si>
+    <t>10304210</t>
+  </si>
+  <si>
+    <t>00:12</t>
+  </si>
+  <si>
+    <t>10304211</t>
+  </si>
+  <si>
+    <t>04:19</t>
+  </si>
+  <si>
+    <t>10326451</t>
+  </si>
+  <si>
+    <t>$0.00</t>
+  </si>
+  <si>
+    <t>05:25</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>785</t>
+  </si>
+  <si>
+    <t>10326462</t>
+  </si>
+  <si>
+    <t>05:33</t>
+  </si>
+  <si>
+    <t>10326471</t>
+  </si>
+  <si>
+    <t>02:44</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>10326486</t>
+  </si>
+  <si>
+    <t>05:53</t>
+  </si>
+  <si>
+    <t>10326499</t>
+  </si>
+  <si>
+    <t>05:58</t>
+  </si>
+  <si>
+    <t>10326505</t>
+  </si>
+  <si>
+    <t>06:30</t>
+  </si>
+  <si>
+    <t>10326548</t>
+  </si>
+  <si>
+    <t>06:41</t>
+  </si>
+  <si>
+    <t>10326565</t>
+  </si>
+  <si>
+    <t>06:49</t>
+  </si>
+  <si>
+    <t>10326578</t>
+  </si>
+  <si>
+    <t>04:00</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>10326629</t>
+  </si>
+  <si>
+    <t>07:10</t>
+  </si>
+  <si>
+    <t>10326641</t>
+  </si>
+  <si>
+    <t>07:15</t>
+  </si>
+  <si>
+    <t>10326648</t>
+  </si>
+  <si>
+    <t>04:27</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>10326662</t>
+  </si>
+  <si>
+    <t>10326673</t>
+  </si>
+  <si>
+    <t>07:49</t>
+  </si>
+  <si>
+    <t>10326709</t>
+  </si>
+  <si>
+    <t>08:01</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>08:04</t>
+  </si>
+  <si>
+    <t>10326760</t>
+  </si>
+  <si>
+    <t>08:16</t>
+  </si>
+  <si>
+    <t>10326800</t>
+  </si>
+  <si>
+    <t>08:50</t>
+  </si>
+  <si>
+    <t>10327092</t>
+  </si>
+  <si>
+    <t>10327091</t>
   </si>
   <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>06:40</t>
+    <t>10:35</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>10268462</t>
-  </si>
-  <si>
-    <t>06:45</t>
-  </si>
-  <si>
-    <t>10268465</t>
-  </si>
-  <si>
-    <t>07:00</t>
-  </si>
-  <si>
-    <t>10268480</t>
-  </si>
-  <si>
-    <t>11:17</t>
-  </si>
-  <si>
-    <t>10270630</t>
-  </si>
-  <si>
-    <t>12:24</t>
-  </si>
-  <si>
-    <t>10270639</t>
-  </si>
-  <si>
-    <t>12:35</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>10270647</t>
-  </si>
-  <si>
-    <t>12:42</t>
-  </si>
-  <si>
-    <t>10270658</t>
-  </si>
-  <si>
-    <t>09:52</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>10270667</t>
-  </si>
-  <si>
-    <t>13:03</t>
-  </si>
-  <si>
-    <t>10270698</t>
-  </si>
-  <si>
-    <t>10271507</t>
-  </si>
-  <si>
-    <t>00:36</t>
-  </si>
-  <si>
-    <t>10271514</t>
-  </si>
-  <si>
-    <t>00:48</t>
-  </si>
-  <si>
-    <t>785</t>
-  </si>
-  <si>
-    <t>00:51</t>
-  </si>
-  <si>
-    <t>10271522</t>
-  </si>
-  <si>
-    <t>22:02</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>10271561</t>
-  </si>
-  <si>
-    <t>01:16</t>
-  </si>
-  <si>
-    <t>10271624</t>
-  </si>
-  <si>
-    <t>01:28</t>
-  </si>
-  <si>
-    <t>10271626</t>
-  </si>
-  <si>
-    <t>01:35</t>
-  </si>
-  <si>
-    <t>10271634</t>
-  </si>
-  <si>
-    <t>22:52</t>
-  </si>
-  <si>
-    <t>10271654</t>
-  </si>
-  <si>
-    <t>10271665</t>
-  </si>
-  <si>
-    <t>10271675</t>
-  </si>
-  <si>
-    <t>10271676</t>
-  </si>
-  <si>
-    <t>10271688</t>
-  </si>
-  <si>
-    <t>136871822</t>
-  </si>
-  <si>
-    <t>33453505</t>
-  </si>
-  <si>
-    <t>10271480</t>
-  </si>
-  <si>
-    <t>136871833</t>
-  </si>
-  <si>
-    <t>06:35</t>
-  </si>
-  <si>
-    <t>10289423</t>
-  </si>
-  <si>
-    <t>07:42</t>
-  </si>
-  <si>
-    <t>10289438</t>
-  </si>
-  <si>
-    <t>07:52</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>10289459</t>
-  </si>
-  <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>10289475</t>
-  </si>
-  <si>
-    <t>05:09</t>
-  </si>
-  <si>
-    <t>10289497</t>
-  </si>
-  <si>
-    <t>08:18</t>
-  </si>
-  <si>
-    <t>10289527</t>
-  </si>
-  <si>
-    <t>08:28</t>
-  </si>
-  <si>
-    <t>10289547</t>
-  </si>
-  <si>
-    <t>08:34</t>
-  </si>
-  <si>
-    <t>10289555</t>
-  </si>
-  <si>
-    <t>05:44</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>10289572</t>
-  </si>
-  <si>
-    <t>10289585</t>
-  </si>
-  <si>
-    <t>10289605</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>1585</t>
-  </si>
-  <si>
-    <t>10289628</t>
-  </si>
-  <si>
-    <t>01:15</t>
-  </si>
-  <si>
-    <t>10291874</t>
-  </si>
-  <si>
-    <t>02:22</t>
-  </si>
-  <si>
-    <t>10291875</t>
-  </si>
-  <si>
-    <t>02:31</t>
-  </si>
-  <si>
-    <t>10291882</t>
-  </si>
-  <si>
-    <t>02:38</t>
-  </si>
-  <si>
-    <t>10291883</t>
-  </si>
-  <si>
-    <t>23:48</t>
-  </si>
-  <si>
-    <t>10291888</t>
-  </si>
-  <si>
-    <t>02:57</t>
-  </si>
-  <si>
-    <t>10291909</t>
-  </si>
-  <si>
-    <t>03:06</t>
-  </si>
-  <si>
-    <t>10291918</t>
-  </si>
-  <si>
-    <t>03:12</t>
-  </si>
-  <si>
-    <t>10291919</t>
-  </si>
-  <si>
-    <t>00:22</t>
-  </si>
-  <si>
-    <t>10291920</t>
-  </si>
-  <si>
-    <t>10291924</t>
-  </si>
-  <si>
-    <t>10291928</t>
-  </si>
-  <si>
-    <t>10291934</t>
-  </si>
-  <si>
-    <t>10291940</t>
-  </si>
-  <si>
-    <t>137064216</t>
-  </si>
-  <si>
-    <t>33471106</t>
-  </si>
-  <si>
-    <t>10289070</t>
-  </si>
-  <si>
-    <t>137064227</t>
-  </si>
-  <si>
-    <t>10297398</t>
-  </si>
-  <si>
-    <t>00:30</t>
-  </si>
-  <si>
-    <t>10297410</t>
-  </si>
-  <si>
-    <t>00:40</t>
-  </si>
-  <si>
-    <t>10297417</t>
-  </si>
-  <si>
-    <t>10297418</t>
-  </si>
-  <si>
-    <t>21:57</t>
-  </si>
-  <si>
-    <t>10297433</t>
-  </si>
-  <si>
-    <t>01:08</t>
-  </si>
-  <si>
-    <t>10297467</t>
-  </si>
-  <si>
-    <t>22:15</t>
-  </si>
-  <si>
-    <t>10297478</t>
-  </si>
-  <si>
-    <t>10297536</t>
-  </si>
-  <si>
-    <t>10297551</t>
-  </si>
-  <si>
-    <t>10297565</t>
-  </si>
-  <si>
-    <t>10297571</t>
-  </si>
-  <si>
-    <t>137154539</t>
-  </si>
-  <si>
-    <t>33479426</t>
-  </si>
-  <si>
-    <t>10297380</t>
-  </si>
-  <si>
-    <t>137154540</t>
-  </si>
-  <si>
-    <t>23:57</t>
-  </si>
-  <si>
-    <t>10299816</t>
-  </si>
-  <si>
-    <t>01:04</t>
-  </si>
-  <si>
-    <t>10299820</t>
-  </si>
-  <si>
-    <t>01:13</t>
-  </si>
-  <si>
-    <t>10299854</t>
-  </si>
-  <si>
-    <t>01:20</t>
-  </si>
-  <si>
-    <t>10299898</t>
-  </si>
-  <si>
-    <t>22:29</t>
-  </si>
-  <si>
-    <t>10299912</t>
-  </si>
-  <si>
-    <t>01:40</t>
-  </si>
-  <si>
-    <t>02:29</t>
-  </si>
-  <si>
-    <t>10299997</t>
-  </si>
-  <si>
-    <t>02:36</t>
-  </si>
-  <si>
-    <t>23:39</t>
-  </si>
-  <si>
-    <t>10300013</t>
-  </si>
-  <si>
-    <t>10300026</t>
-  </si>
-  <si>
-    <t>10300029</t>
-  </si>
-  <si>
-    <t>10300339</t>
-  </si>
-  <si>
-    <t>10300355</t>
-  </si>
-  <si>
-    <t>137180176</t>
-  </si>
-  <si>
-    <t>33481792</t>
-  </si>
-  <si>
-    <t>10299743</t>
-  </si>
-  <si>
-    <t>137180187</t>
-  </si>
-  <si>
-    <t>22:49</t>
-  </si>
-  <si>
-    <t>10301920</t>
-  </si>
-  <si>
-    <t>23:56</t>
-  </si>
-  <si>
-    <t>10301929</t>
-  </si>
-  <si>
-    <t>00:07</t>
-  </si>
-  <si>
-    <t>10301973</t>
-  </si>
-  <si>
-    <t>00:14</t>
-  </si>
-  <si>
-    <t>10301977</t>
-  </si>
-  <si>
-    <t>21:24</t>
-  </si>
-  <si>
-    <t>10301981</t>
-  </si>
-  <si>
-    <t>00:34</t>
-  </si>
-  <si>
-    <t>02:12</t>
-  </si>
-  <si>
-    <t>10302143</t>
-  </si>
-  <si>
-    <t>02:18</t>
-  </si>
-  <si>
-    <t>10302157</t>
-  </si>
-  <si>
-    <t>23:29</t>
-  </si>
-  <si>
-    <t>10302165</t>
-  </si>
-  <si>
-    <t>10302168</t>
-  </si>
-  <si>
-    <t>10302201</t>
-  </si>
-  <si>
-    <t>10302217</t>
-  </si>
-  <si>
-    <t>10303942</t>
-  </si>
-  <si>
-    <t>10303947</t>
-  </si>
-  <si>
-    <t>00:32</t>
-  </si>
-  <si>
-    <t>10303958</t>
-  </si>
-  <si>
-    <t>00:39</t>
-  </si>
-  <si>
-    <t>10303964</t>
-  </si>
-  <si>
-    <t>21:49</t>
-  </si>
-  <si>
-    <t>10303971</t>
-  </si>
-  <si>
-    <t>01:00</t>
-  </si>
-  <si>
-    <t>01:26</t>
-  </si>
-  <si>
-    <t>10304072</t>
-  </si>
-  <si>
-    <t>01:34</t>
-  </si>
-  <si>
-    <t>10304087</t>
-  </si>
-  <si>
-    <t>22:45</t>
-  </si>
-  <si>
-    <t>10304096</t>
-  </si>
-  <si>
-    <t>10304099</t>
-  </si>
-  <si>
-    <t>10304103</t>
-  </si>
-  <si>
-    <t>10304152</t>
-  </si>
-  <si>
-    <t>10304170</t>
-  </si>
-  <si>
-    <t>137227356</t>
-  </si>
-  <si>
-    <t>33485991</t>
-  </si>
-  <si>
-    <t>10303936</t>
-  </si>
-  <si>
-    <t>137227367</t>
-  </si>
-  <si>
-    <t>02:09</t>
-  </si>
-  <si>
-    <t>10308911</t>
-  </si>
-  <si>
-    <t>03:16</t>
-  </si>
-  <si>
-    <t>10308913</t>
-  </si>
-  <si>
-    <t>03:26</t>
-  </si>
-  <si>
-    <t>10308917</t>
-  </si>
-  <si>
-    <t>03:33</t>
-  </si>
-  <si>
-    <t>10308923</t>
-  </si>
-  <si>
-    <t>00:43</t>
-  </si>
-  <si>
-    <t>10308932</t>
-  </si>
-  <si>
-    <t>03:52</t>
-  </si>
-  <si>
-    <t>10308944</t>
-  </si>
-  <si>
-    <t>03:59</t>
-  </si>
-  <si>
-    <t>10308958</t>
-  </si>
-  <si>
-    <t>01:10</t>
-  </si>
-  <si>
-    <t>10308970</t>
-  </si>
-  <si>
-    <t>10308971</t>
-  </si>
-  <si>
-    <t>10308977</t>
-  </si>
-  <si>
-    <t>10308985</t>
-  </si>
-  <si>
-    <t>10308997</t>
-  </si>
-  <si>
-    <t>137278738</t>
-  </si>
-  <si>
-    <t>33490777</t>
-  </si>
-  <si>
-    <t>10308722</t>
-  </si>
-  <si>
-    <t>137278749</t>
-  </si>
-  <si>
-    <t>23:30</t>
-  </si>
-  <si>
-    <t>10311210</t>
-  </si>
-  <si>
-    <t>00:38</t>
-  </si>
-  <si>
-    <t>10311217</t>
-  </si>
-  <si>
-    <t>10311233</t>
-  </si>
-  <si>
-    <t>00:55</t>
-  </si>
-  <si>
-    <t>10311246</t>
-  </si>
-  <si>
-    <t>22:05</t>
-  </si>
-  <si>
-    <t>10311276</t>
-  </si>
-  <si>
-    <t>01:42</t>
-  </si>
-  <si>
-    <t>02:04</t>
-  </si>
-  <si>
-    <t>10311379</t>
-  </si>
-  <si>
-    <t>10311387</t>
-  </si>
-  <si>
-    <t>23:22</t>
-  </si>
-  <si>
-    <t>10311401</t>
-  </si>
-  <si>
-    <t>10311405</t>
-  </si>
-  <si>
-    <t>10311419</t>
-  </si>
-  <si>
-    <t>10311427</t>
-  </si>
-  <si>
-    <t>10311441</t>
-  </si>
-  <si>
-    <t>03:20</t>
-  </si>
-  <si>
-    <t>10311479</t>
-  </si>
-  <si>
-    <t>137304965</t>
-  </si>
-  <si>
-    <t>33493238</t>
-  </si>
-  <si>
-    <t>10311177</t>
-  </si>
-  <si>
-    <t>137304976</t>
-  </si>
-  <si>
-    <t>23:20</t>
-  </si>
-  <si>
-    <t>10313908</t>
-  </si>
-  <si>
-    <t>00:28</t>
-  </si>
-  <si>
-    <t>10313918</t>
-  </si>
-  <si>
-    <t>10313927</t>
-  </si>
-  <si>
-    <t>00:46</t>
-  </si>
-  <si>
-    <t>10313936</t>
-  </si>
-  <si>
-    <t>10313951</t>
-  </si>
-  <si>
-    <t>10314023</t>
-  </si>
-  <si>
-    <t>10314027</t>
-  </si>
-  <si>
-    <t>10314040</t>
-  </si>
-  <si>
-    <t>10314046</t>
-  </si>
-  <si>
-    <t>10314060</t>
-  </si>
-  <si>
-    <t>10314164</t>
-  </si>
-  <si>
-    <t>10314196</t>
-  </si>
-  <si>
-    <t>10314201</t>
-  </si>
-  <si>
-    <t>137333961</t>
-  </si>
-  <si>
-    <t>33495958</t>
-  </si>
-  <si>
-    <t>10313897</t>
-  </si>
-  <si>
-    <t>137333972</t>
-  </si>
-  <si>
-    <t>01:50</t>
-  </si>
-  <si>
-    <t>10318713</t>
-  </si>
-  <si>
-    <t>02:58</t>
-  </si>
-  <si>
-    <t>10318732</t>
-  </si>
-  <si>
-    <t>03:10</t>
-  </si>
-  <si>
-    <t>10318744</t>
-  </si>
-  <si>
-    <t>03:17</t>
-  </si>
-  <si>
-    <t>10318745</t>
-  </si>
-  <si>
-    <t>10318749</t>
-  </si>
-  <si>
-    <t>03:37</t>
-  </si>
-  <si>
-    <t>10318755</t>
-  </si>
-  <si>
-    <t>03:43</t>
-  </si>
-  <si>
-    <t>10318764</t>
+    <t>10327526</t>
+  </si>
+  <si>
+    <t>11:41</t>
+  </si>
+  <si>
+    <t>10327538</t>
+  </si>
+  <si>
+    <t>11:55</t>
+  </si>
+  <si>
+    <t>10327565</t>
+  </si>
+  <si>
+    <t>12:14</t>
+  </si>
+  <si>
+    <t>10327611</t>
   </si>
   <si>
     <t>05:16</t>
   </si>
   <si>
-    <t>10318882</t>
-  </si>
-  <si>
-    <t>05:58</t>
-  </si>
-  <si>
-    <t>10318966</t>
-  </si>
-  <si>
-    <t>06:11</t>
-  </si>
-  <si>
-    <t>10318982</t>
-  </si>
-  <si>
-    <t>10319021</t>
-  </si>
-  <si>
-    <t>06:51</t>
-  </si>
-  <si>
-    <t>10319040</t>
-  </si>
-  <si>
-    <t>07:01</t>
-  </si>
-  <si>
-    <t>10319090</t>
+    <t>10329128</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -4355,10 +2790,10 @@
         <v>31</v>
       </c>
       <c r="AO2" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="AP2" s="51" t="s">
         <v>366</v>
-      </c>
-      <c r="AP2" s="51" t="s">
-        <v>367</v>
       </c>
     </row>
     <row ht="38.25" r="3" spans="1:42">
@@ -4469,13 +2904,13 @@
         <v>50</v>
       </c>
       <c r="AM3" s="51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AN3" s="51" t="s">
         <v>99</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AP3" s="51"/>
     </row>
@@ -4546,7 +2981,7 @@
         <v>44</v>
       </c>
       <c r="AF4" s="51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AG4" s="51" t="s">
         <v>45</v>
@@ -4899,7 +3334,7 @@
       </c>
       <c r="M2" s="4"/>
       <c r="N2" t="s">
-        <v>698</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -4950,7 +3385,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4964,37 +3399,23 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="56" t="s">
+        <v>367</v>
+      </c>
+      <c r="B1" s="56" t="s">
         <v>368</v>
-      </c>
-      <c r="B1" s="56" t="s">
-        <v>369</v>
       </c>
       <c r="C1" s="56" t="s">
         <v>58</v>
       </c>
       <c r="D1" s="56" t="s">
+        <v>369</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>370</v>
       </c>
-      <c r="E1" s="56" t="s">
-        <v>371</v>
-      </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="B2" t="s">
-        <v>955</v>
-      </c>
-      <c r="C2" t="s">
-        <v>956</v>
-      </c>
-      <c r="D2" t="s">
-        <v>957</v>
-      </c>
-      <c r="E2" t="s">
-        <v>958</v>
-      </c>
+      <c r="A2" s="12"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -5004,10 +3425,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AQ26"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5047,7 +3468,7 @@
     <col min="40" max="16384" style="45" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="25.5" r="1" s="25" spans="1:40">
+    <row customFormat="1" ht="25.5" r="1" s="25" spans="1:41">
       <c r="A1" s="37" t="s">
         <v>100</v>
       </c>
@@ -5165,7 +3586,7 @@
       </c>
       <c r="AN1" s="35"/>
     </row>
-    <row customFormat="1" ht="63.75" r="2" s="25" spans="1:40">
+    <row customFormat="1" ht="63.75" r="2" s="25" spans="1:41">
       <c r="A2" s="39" t="s">
         <v>136</v>
       </c>
@@ -5234,13 +3655,13 @@
         <v>153</v>
       </c>
       <c r="Z2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AA2" s="26" t="s">
         <v>154</v>
       </c>
       <c r="AB2" t="s">
-        <v>154</v>
+        <v>453</v>
       </c>
       <c r="AC2" s="26" t="s">
         <v>155</v>
@@ -5252,28 +3673,28 @@
         <v>157</v>
       </c>
       <c r="AF2" t="s">
-        <v>158</v>
+        <v>409</v>
       </c>
       <c r="AG2" t="s">
-        <v>960</v>
+        <v>454</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>959</v>
+        <v>452</v>
       </c>
       <c r="AJ2" t="s">
-        <v>959</v>
+        <v>452</v>
       </c>
       <c r="AK2" t="s">
-        <v>959</v>
+        <v>452</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AN2" s="35"/>
     </row>
-    <row customFormat="1" ht="76.5" r="3" s="25" spans="1:40">
+    <row customFormat="1" ht="76.5" r="3" s="25" spans="1:41">
       <c r="A3" s="39" t="s">
         <v>136</v>
       </c>
@@ -5284,16 +3705,16 @@
         <v>138</v>
       </c>
       <c r="D3" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="F3" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="G3" s="26" t="s">
         <v>162</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>163</v>
       </c>
       <c r="H3" s="26" t="s">
         <v>142</v>
@@ -5306,16 +3727,16 @@
       </c>
       <c r="K3" s="27"/>
       <c r="L3" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="M3" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="N3" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="O3" s="26" t="s">
         <v>166</v>
-      </c>
-      <c r="O3" s="26" t="s">
-        <v>167</v>
       </c>
       <c r="P3" s="26" t="s">
         <v>148</v>
@@ -5328,62 +3749,62 @@
         <v>75</v>
       </c>
       <c r="T3" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="U3" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="U3" s="26" t="s">
+      <c r="V3" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="W3" s="26" t="s">
         <v>169</v>
-      </c>
-      <c r="V3" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="W3" s="26" t="s">
-        <v>170</v>
       </c>
       <c r="X3" s="26" t="s">
         <v>152</v>
       </c>
       <c r="Y3" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA3" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="Z3" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA3" s="26" t="s">
+      <c r="AB3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC3" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="AB3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC3" s="26" t="s">
-        <v>173</v>
-      </c>
       <c r="AD3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AE3" s="26"/>
       <c r="AF3" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="AG3" t="s">
-        <v>978</v>
+        <v>462</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>184</v>
+        <v>461</v>
       </c>
       <c r="AJ3" t="s">
-        <v>184</v>
+        <v>461</v>
       </c>
       <c r="AK3" t="s">
-        <v>184</v>
+        <v>461</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AN3" s="35"/>
     </row>
-    <row customFormat="1" ht="63.75" r="4" s="25" spans="1:40">
+    <row customFormat="1" ht="63.75" r="4" s="25" spans="1:41">
       <c r="A4" s="39" t="s">
         <v>136</v>
       </c>
@@ -5394,13 +3815,13 @@
         <v>138</v>
       </c>
       <c r="D4" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="F4" s="26" t="s">
         <v>175</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>176</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="26" t="s">
@@ -5414,13 +3835,13 @@
       </c>
       <c r="K4" s="27"/>
       <c r="L4" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="M4" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="N4" s="26" t="s">
         <v>178</v>
-      </c>
-      <c r="N4" s="26" t="s">
-        <v>179</v>
       </c>
       <c r="O4" s="26"/>
       <c r="P4" s="26" t="s">
@@ -5431,13 +3852,13 @@
       </c>
       <c r="R4" s="26"/>
       <c r="S4" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T4" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U4" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="V4" s="26" t="s">
         <v>156</v>
@@ -5449,47 +3870,47 @@
         <v>152</v>
       </c>
       <c r="Y4" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA4" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="Z4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA4" s="26" t="s">
+      <c r="AB4" t="s">
+        <v>411</v>
+      </c>
+      <c r="AC4" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="AB4" t="s">
-        <v>716</v>
-      </c>
-      <c r="AC4" s="26" t="s">
-        <v>183</v>
-      </c>
       <c r="AD4" t="s">
-        <v>730</v>
+        <v>412</v>
       </c>
       <c r="AE4" s="26"/>
       <c r="AF4" t="s">
-        <v>158</v>
+        <v>409</v>
       </c>
       <c r="AG4" t="s">
-        <v>980</v>
+        <v>458</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>979</v>
+        <v>457</v>
       </c>
       <c r="AJ4" t="s">
-        <v>979</v>
+        <v>457</v>
       </c>
       <c r="AK4" t="s">
-        <v>979</v>
+        <v>457</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AN4" s="35"/>
     </row>
-    <row customFormat="1" ht="76.5" r="5" s="25" spans="1:40">
+    <row customFormat="1" ht="76.5" r="5" s="25" spans="1:41">
       <c r="A5" s="39" t="s">
         <v>136</v>
       </c>
@@ -5500,16 +3921,16 @@
         <v>138</v>
       </c>
       <c r="D5" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="F5" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="G5" s="26" t="s">
         <v>162</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>163</v>
       </c>
       <c r="H5" s="26" t="s">
         <v>142</v>
@@ -5522,16 +3943,16 @@
       </c>
       <c r="K5" s="27"/>
       <c r="L5" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="M5" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="N5" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="N5" s="26" t="s">
+      <c r="O5" s="26" t="s">
         <v>166</v>
-      </c>
-      <c r="O5" s="26" t="s">
-        <v>167</v>
       </c>
       <c r="P5" s="26" t="s">
         <v>148</v>
@@ -5541,65 +3962,65 @@
       </c>
       <c r="R5" s="26"/>
       <c r="S5" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="T5" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="T5" s="26" t="s">
+      <c r="U5" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="U5" s="26" t="s">
+      <c r="V5" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="V5" s="26" t="s">
-        <v>188</v>
-      </c>
       <c r="W5" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X5" s="26" t="s">
         <v>152</v>
       </c>
       <c r="Y5" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z5" t="s">
         <v>153</v>
       </c>
       <c r="AA5" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC5" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="AB5" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC5" s="26" t="s">
-        <v>173</v>
-      </c>
       <c r="AD5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AE5" s="26"/>
       <c r="AF5" t="s">
-        <v>158</v>
+        <v>409</v>
       </c>
       <c r="AG5" t="s">
-        <v>982</v>
+        <v>445</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>981</v>
+        <v>444</v>
       </c>
       <c r="AJ5" t="s">
-        <v>981</v>
+        <v>444</v>
       </c>
       <c r="AK5" t="s">
-        <v>981</v>
+        <v>444</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AN5" s="35"/>
     </row>
-    <row customFormat="1" ht="63.75" r="6" s="25" spans="1:40">
+    <row customFormat="1" ht="63.75" r="6" s="25" spans="1:41">
       <c r="A6" s="39" t="s">
         <v>136</v>
       </c>
@@ -5607,19 +4028,19 @@
         <v>137</v>
       </c>
       <c r="C6" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="E6" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="F6" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="F6" s="26" t="s">
-        <v>192</v>
-      </c>
       <c r="G6" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H6" s="26" t="s">
         <v>142</v>
@@ -5632,16 +4053,16 @@
       </c>
       <c r="K6" s="27"/>
       <c r="L6" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="M6" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="N6" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="N6" s="26" t="s">
+      <c r="O6" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="O6" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="P6" s="26" t="s">
         <v>148</v>
@@ -5651,22 +4072,22 @@
       </c>
       <c r="R6" s="26"/>
       <c r="S6" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="T6" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="U6" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="V6" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="T6" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="U6" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="V6" s="26" t="s">
+      <c r="W6" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="W6" s="26" t="s">
+      <c r="X6" s="26" t="s">
         <v>199</v>
-      </c>
-      <c r="X6" s="26" t="s">
-        <v>200</v>
       </c>
       <c r="Y6" s="26" t="s">
         <v>156</v>
@@ -5675,41 +4096,41 @@
         <v>156</v>
       </c>
       <c r="AA6" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>430</v>
+      </c>
+      <c r="AC6" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="AB6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC6" s="26" t="s">
-        <v>202</v>
-      </c>
       <c r="AD6" t="s">
-        <v>722</v>
+        <v>417</v>
       </c>
       <c r="AE6" s="26"/>
       <c r="AF6" s="32"/>
       <c r="AG6" t="s">
-        <v>967</v>
+        <v>431</v>
       </c>
       <c r="AH6" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AI6" t="s">
-        <v>941</v>
+        <v>429</v>
       </c>
       <c r="AJ6" t="s">
-        <v>941</v>
+        <v>429</v>
       </c>
       <c r="AK6" t="s">
-        <v>941</v>
+        <v>429</v>
       </c>
       <c r="AL6" s="31"/>
       <c r="AM6" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AN6" s="35"/>
     </row>
-    <row customFormat="1" ht="63.75" r="7" s="25" spans="1:40">
+    <row customFormat="1" ht="63.75" r="7" s="25" spans="1:41">
       <c r="A7" s="39" t="s">
         <v>136</v>
       </c>
@@ -5717,16 +4138,16 @@
         <v>137</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D7" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="F7" s="26" t="s">
         <v>205</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>206</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="26" t="s">
@@ -5740,16 +4161,16 @@
       </c>
       <c r="K7" s="27"/>
       <c r="L7" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="M7" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="N7" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="N7" s="26" t="s">
+      <c r="O7" s="26" t="s">
         <v>195</v>
-      </c>
-      <c r="O7" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="P7" s="26" t="s">
         <v>148</v>
@@ -5759,65 +4180,65 @@
       </c>
       <c r="R7" s="26"/>
       <c r="S7" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="U7" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="V7" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="W7" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="X7" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="T7" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="U7" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="V7" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="W7" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="X7" s="26" t="s">
+      <c r="Y7" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z7" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA7" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB7" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC7" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="Y7" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA7" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>734</v>
-      </c>
-      <c r="AC7" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>361</v>
+      <c r="AD7" s="45" t="s">
+        <v>360</v>
       </c>
       <c r="AE7" s="26"/>
       <c r="AF7" s="32"/>
-      <c r="AG7" t="s">
-        <v>788</v>
+      <c r="AG7" s="45" t="s">
+        <v>386</v>
       </c>
       <c r="AH7" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>933</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>933</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>933</v>
+        <v>209</v>
+      </c>
+      <c r="AI7" s="45" t="s">
+        <v>385</v>
+      </c>
+      <c r="AJ7" s="45" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK7" s="45" t="s">
+        <v>385</v>
       </c>
       <c r="AL7" s="31"/>
       <c r="AM7" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AN7" s="35"/>
     </row>
-    <row customFormat="1" ht="63.75" r="8" s="25" spans="1:40">
+    <row customFormat="1" ht="63.75" r="8" s="25" spans="1:41">
       <c r="A8" s="39" t="s">
         <v>136</v>
       </c>
@@ -5825,19 +4246,19 @@
         <v>137</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D8" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="F8" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="G8" s="28" t="s">
         <v>213</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>214</v>
       </c>
       <c r="H8" s="26" t="s">
         <v>142</v>
@@ -5850,16 +4271,16 @@
       </c>
       <c r="K8" s="27"/>
       <c r="L8" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="M8" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="M8" s="28" t="s">
+      <c r="N8" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="N8" s="28" t="s">
+      <c r="O8" s="28" t="s">
         <v>217</v>
-      </c>
-      <c r="O8" s="28" t="s">
-        <v>218</v>
       </c>
       <c r="P8" s="26" t="s">
         <v>148</v>
@@ -5869,10 +4290,10 @@
       </c>
       <c r="R8" s="28"/>
       <c r="S8" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="T8" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U8" s="28" t="s">
         <v>156</v>
@@ -5881,7 +4302,7 @@
         <v>155</v>
       </c>
       <c r="W8" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X8" s="26" t="s">
         <v>152</v>
@@ -5890,44 +4311,44 @@
         <v>155</v>
       </c>
       <c r="Z8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AA8" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AB8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AC8" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AD8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AE8" s="28"/>
       <c r="AF8" t="s">
-        <v>158</v>
+        <v>409</v>
       </c>
       <c r="AG8" t="s">
-        <v>969</v>
+        <v>433</v>
       </c>
       <c r="AH8" s="30"/>
       <c r="AI8" t="s">
-        <v>968</v>
+        <v>432</v>
       </c>
       <c r="AJ8" t="s">
-        <v>968</v>
+        <v>432</v>
       </c>
       <c r="AK8" t="s">
-        <v>968</v>
+        <v>432</v>
       </c>
       <c r="AL8" s="31"/>
       <c r="AM8" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AN8" s="35"/>
     </row>
-    <row customFormat="1" ht="76.5" r="9" s="25" spans="1:40">
+    <row customFormat="1" ht="76.5" r="9" s="25" spans="1:41">
       <c r="A9" s="39" t="s">
         <v>136</v>
       </c>
@@ -5935,19 +4356,19 @@
         <v>137</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D9" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="F9" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="G9" s="26" t="s">
         <v>162</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>163</v>
       </c>
       <c r="H9" s="26" t="s">
         <v>142</v>
@@ -5960,16 +4381,16 @@
       </c>
       <c r="K9" s="27"/>
       <c r="L9" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="M9" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="N9" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="N9" s="26" t="s">
+      <c r="O9" s="26" t="s">
         <v>166</v>
-      </c>
-      <c r="O9" s="26" t="s">
-        <v>167</v>
       </c>
       <c r="P9" s="26" t="s">
         <v>148</v>
@@ -5979,63 +4400,63 @@
       </c>
       <c r="R9" s="28"/>
       <c r="S9" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="T9" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="U9" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="U9" s="26" t="s">
+      <c r="V9" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="V9" s="26" t="s">
-        <v>188</v>
-      </c>
       <c r="W9" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X9" s="26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y9" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z9" t="s">
         <v>153</v>
       </c>
       <c r="AA9" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC9" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="AB9" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC9" s="28" t="s">
-        <v>173</v>
-      </c>
       <c r="AD9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AE9" s="28"/>
       <c r="AF9" s="32"/>
       <c r="AG9" t="s">
-        <v>971</v>
+        <v>447</v>
       </c>
       <c r="AH9" s="30"/>
       <c r="AI9" t="s">
-        <v>970</v>
+        <v>446</v>
       </c>
       <c r="AJ9" t="s">
-        <v>970</v>
+        <v>446</v>
       </c>
       <c r="AK9" t="s">
-        <v>970</v>
+        <v>446</v>
       </c>
       <c r="AL9" s="31"/>
       <c r="AM9" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AN9" s="35"/>
     </row>
-    <row customFormat="1" ht="76.5" r="10" s="29" spans="1:40">
+    <row customFormat="1" ht="76.5" r="10" s="29" spans="1:41">
       <c r="A10" s="39" t="s">
         <v>136</v>
       </c>
@@ -6043,19 +4464,19 @@
         <v>137</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D10" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="F10" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="G10" s="26" t="s">
         <v>223</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>224</v>
       </c>
       <c r="H10" s="26"/>
       <c r="I10" s="26" t="s">
@@ -6066,16 +4487,16 @@
       </c>
       <c r="K10" s="26"/>
       <c r="L10" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="M10" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="N10" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="N10" s="26" t="s">
+      <c r="O10" s="26" t="s">
         <v>227</v>
-      </c>
-      <c r="O10" s="26" t="s">
-        <v>228</v>
       </c>
       <c r="P10" s="26" t="s">
         <v>148</v>
@@ -6085,34 +4506,34 @@
       </c>
       <c r="R10" s="26"/>
       <c r="S10" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="T10" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="T10" s="26" t="s">
+      <c r="U10" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="V10" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="W10" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="X10" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="U10" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="V10" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="W10" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="X10" s="26" t="s">
-        <v>231</v>
-      </c>
       <c r="Y10" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z10" t="s">
-        <v>184</v>
+        <v>437</v>
       </c>
       <c r="AA10" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AB10" t="s">
-        <v>153</v>
+        <v>437</v>
       </c>
       <c r="AC10" s="26" t="s">
         <v>156</v>
@@ -6123,25 +4544,25 @@
       <c r="AE10" s="26"/>
       <c r="AF10" s="33"/>
       <c r="AG10" t="s">
-        <v>949</v>
+        <v>438</v>
       </c>
       <c r="AH10" s="33"/>
       <c r="AI10" t="s">
-        <v>184</v>
+        <v>436</v>
       </c>
       <c r="AJ10" t="s">
-        <v>184</v>
+        <v>436</v>
       </c>
       <c r="AK10" t="s">
-        <v>184</v>
+        <v>436</v>
       </c>
       <c r="AL10" s="34"/>
       <c r="AM10" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AN10" s="36"/>
     </row>
-    <row customFormat="1" r="11" s="25" spans="1:40">
+    <row customFormat="1" r="11" s="25" spans="1:41">
       <c r="A11" s="41" t="s">
         <v>136</v>
       </c>
@@ -6149,7 +4570,7 @@
         <v>137</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -6160,19 +4581,19 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
       <c r="L11" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="M11" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="M11" s="29" t="s">
+      <c r="N11" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="N11" s="29" t="s">
+      <c r="O11" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="O11" s="29" t="s">
+      <c r="P11" s="29" t="s">
         <v>237</v>
-      </c>
-      <c r="P11" s="29" t="s">
-        <v>238</v>
       </c>
       <c r="Q11" s="29" t="s">
         <v>149</v>
@@ -6192,18 +4613,18 @@
       <c r="Z11" s="30"/>
       <c r="AA11" s="28"/>
       <c r="AB11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AC11" s="28"/>
       <c r="AD11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AE11" s="28"/>
       <c r="AF11" t="s">
-        <v>158</v>
+        <v>409</v>
       </c>
       <c r="AG11" t="s">
-        <v>950</v>
+        <v>439</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -6213,11 +4634,11 @@
         <v>85</v>
       </c>
       <c r="AM11" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AN11" s="35"/>
     </row>
-    <row customFormat="1" r="12" s="25" spans="1:40">
+    <row customFormat="1" r="12" s="25" spans="1:41">
       <c r="A12" s="41" t="s">
         <v>136</v>
       </c>
@@ -6225,22 +4646,22 @@
         <v>137</v>
       </c>
       <c r="C12" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="L12" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="L12" s="29" t="s">
+      <c r="M12" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="M12" s="29" t="s">
+      <c r="N12" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="N12" s="29" t="s">
+      <c r="O12" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="O12" s="29" t="s">
+      <c r="P12" s="29" t="s">
         <v>237</v>
-      </c>
-      <c r="P12" s="29" t="s">
-        <v>238</v>
       </c>
       <c r="Q12" s="29" t="s">
         <v>149</v>
@@ -6254,16 +4675,16 @@
       </c>
       <c r="Z12" s="31"/>
       <c r="AB12" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="AD12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF12" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="AG12" t="s">
-        <v>952</v>
+        <v>390</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -6273,11 +4694,11 @@
         <v>85</v>
       </c>
       <c r="AM12" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AN12" s="35"/>
     </row>
-    <row customFormat="1" r="13" s="25" spans="1:40">
+    <row customFormat="1" r="13" s="25" spans="1:41">
       <c r="A13" s="41" t="s">
         <v>136</v>
       </c>
@@ -6285,20 +4706,20 @@
         <v>137</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L13" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="M13" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="M13" s="29" t="s">
+      <c r="N13" s="29" t="s">
         <v>240</v>
-      </c>
-      <c r="N13" s="29" t="s">
-        <v>241</v>
       </c>
       <c r="O13" s="29"/>
       <c r="P13" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q13" s="29" t="s">
         <v>149</v>
@@ -6311,17 +4732,17 @@
         <v>152</v>
       </c>
       <c r="Z13" s="31"/>
-      <c r="AB13" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>775</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>953</v>
+      <c r="AB13" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD13" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF13" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG13" s="45" t="s">
+        <v>389</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -6331,11 +4752,11 @@
         <v>85</v>
       </c>
       <c r="AM13" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AN13" s="35"/>
     </row>
-    <row customFormat="1" r="14" s="25" spans="1:40">
+    <row customFormat="1" r="14" s="25" spans="1:41">
       <c r="A14" s="57" t="s">
         <v>136</v>
       </c>
@@ -6343,7 +4764,7 @@
         <v>137</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D14" s="59"/>
       <c r="E14" s="59"/>
@@ -6354,24 +4775,24 @@
       <c r="J14" s="59"/>
       <c r="K14" s="59"/>
       <c r="L14" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="M14" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="M14" s="58" t="s">
+      <c r="N14" s="58" t="s">
         <v>235</v>
-      </c>
-      <c r="N14" s="58" t="s">
-        <v>236</v>
       </c>
       <c r="O14" s="58"/>
       <c r="P14" s="58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="58" t="s">
         <v>149</v>
       </c>
       <c r="R14" s="58"/>
       <c r="S14" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="T14" s="59"/>
       <c r="U14" s="59"/>
@@ -6383,19 +4804,19 @@
       <c r="Y14" s="59"/>
       <c r="Z14" s="60"/>
       <c r="AA14" s="59"/>
-      <c r="AB14" t="s">
-        <v>198</v>
+      <c r="AB14" s="45" t="s">
+        <v>183</v>
       </c>
       <c r="AC14" s="59"/>
-      <c r="AD14" t="s">
-        <v>169</v>
+      <c r="AD14" s="45" t="s">
+        <v>168</v>
       </c>
       <c r="AE14" s="59"/>
-      <c r="AF14" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>954</v>
+      <c r="AF14" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG14" s="45" t="s">
+        <v>387</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -6405,9 +4826,1270 @@
         <v>85</v>
       </c>
       <c r="AM14" s="61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AN14" s="35"/>
+    </row>
+    <row customFormat="1" ht="63.75" r="15" s="25" spans="1:41">
+      <c r="A15" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" s="27"/>
+      <c r="L15" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q15" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="T15" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="U15" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="V15" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="W15" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="X15" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y15" s="26"/>
+      <c r="Z15" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA15" s="26"/>
+      <c r="AB15" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC15" s="26"/>
+      <c r="AD15" t="s">
+        <v>397</v>
+      </c>
+      <c r="AE15" s="26"/>
+      <c r="AF15" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>398</v>
+      </c>
+      <c r="AH15" s="30"/>
+      <c r="AI15" t="s">
+        <v>399</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>399</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>399</v>
+      </c>
+      <c r="AL15" s="31"/>
+      <c r="AM15" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="AN15" s="35"/>
+      <c r="AO15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="63.75" r="16" s="25" spans="1:41">
+      <c r="A16" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" s="27"/>
+      <c r="L16" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q16" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="T16" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="U16" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="V16" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="W16" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="X16" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y16" s="26"/>
+      <c r="Z16" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA16" s="26"/>
+      <c r="AB16" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC16" s="26"/>
+      <c r="AD16" t="s">
+        <v>397</v>
+      </c>
+      <c r="AE16" s="26"/>
+      <c r="AF16" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>398</v>
+      </c>
+      <c r="AH16" s="30"/>
+      <c r="AI16" t="s">
+        <v>399</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>399</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>399</v>
+      </c>
+      <c r="AL16" s="31"/>
+      <c r="AM16" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="AN16" s="35"/>
+      <c r="AO16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="63.75" r="17" s="25" spans="1:42">
+      <c r="A17" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="K17" s="27"/>
+      <c r="L17" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="N17" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q17" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="T17" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="U17" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="V17" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="W17" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="X17" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y17" s="26"/>
+      <c r="Z17" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA17" s="26"/>
+      <c r="AB17" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC17" s="26"/>
+      <c r="AD17" t="s">
+        <v>397</v>
+      </c>
+      <c r="AE17" s="26"/>
+      <c r="AF17" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>398</v>
+      </c>
+      <c r="AH17" s="30"/>
+      <c r="AI17" t="s">
+        <v>399</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>399</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>399</v>
+      </c>
+      <c r="AL17" s="31"/>
+      <c r="AM17" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="AN17" s="35"/>
+      <c r="AO17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="63.75" r="18" s="25" spans="1:42">
+      <c r="A18" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="K18" s="27"/>
+      <c r="L18" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="N18" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q18" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="T18" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="U18" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="V18" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="W18" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="X18" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y18" s="26"/>
+      <c r="Z18" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA18" s="26"/>
+      <c r="AB18" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC18" s="26"/>
+      <c r="AD18" t="s">
+        <v>397</v>
+      </c>
+      <c r="AE18" s="26"/>
+      <c r="AF18" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>398</v>
+      </c>
+      <c r="AH18" s="30"/>
+      <c r="AI18" t="s">
+        <v>399</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>399</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>399</v>
+      </c>
+      <c r="AL18" s="31"/>
+      <c r="AM18" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="AN18" s="35"/>
+      <c r="AO18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="63.75" r="19" s="25" spans="1:42">
+      <c r="A19" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="K19" s="27"/>
+      <c r="L19" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="M19" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q19" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="T19" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="U19" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="V19" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="W19" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="X19" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y19" s="26"/>
+      <c r="Z19" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA19" s="26"/>
+      <c r="AB19" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC19" s="26"/>
+      <c r="AD19" t="s">
+        <v>397</v>
+      </c>
+      <c r="AE19" s="26"/>
+      <c r="AF19" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>398</v>
+      </c>
+      <c r="AH19" s="30"/>
+      <c r="AI19" t="s">
+        <v>399</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>399</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>399</v>
+      </c>
+      <c r="AL19" s="31"/>
+      <c r="AM19" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="AN19" s="35"/>
+      <c r="AO19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="63.75" r="20" s="25" spans="1:42">
+      <c r="A20" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="27"/>
+      <c r="L20" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="M20" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="N20" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q20" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="T20" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="U20" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="V20" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="W20" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="X20" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y20" s="26"/>
+      <c r="Z20" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA20" s="26"/>
+      <c r="AB20" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC20" s="26"/>
+      <c r="AD20" t="s">
+        <v>397</v>
+      </c>
+      <c r="AE20" s="26"/>
+      <c r="AF20" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>398</v>
+      </c>
+      <c r="AH20" s="30"/>
+      <c r="AI20" t="s">
+        <v>399</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>399</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>399</v>
+      </c>
+      <c r="AL20" s="31"/>
+      <c r="AM20" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="AN20" s="35"/>
+      <c r="AO20" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="63.75" r="21" s="25" spans="1:42">
+      <c r="A21" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="27"/>
+      <c r="L21" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="M21" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="N21" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q21" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="T21" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="U21" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="V21" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="W21" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="X21" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y21" s="26"/>
+      <c r="Z21" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA21" s="26"/>
+      <c r="AB21" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC21" s="26"/>
+      <c r="AD21" t="s">
+        <v>397</v>
+      </c>
+      <c r="AE21" s="26"/>
+      <c r="AF21" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>398</v>
+      </c>
+      <c r="AH21" s="30"/>
+      <c r="AI21" t="s">
+        <v>399</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>399</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>399</v>
+      </c>
+      <c r="AL21" s="31"/>
+      <c r="AM21" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="AN21" s="35"/>
+      <c r="AO21" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="63.75" r="22" s="25" spans="1:42">
+      <c r="A22" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="K22" s="27"/>
+      <c r="L22" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="M22" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="N22" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q22" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="T22" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="U22" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="V22" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="W22" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="X22" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y22" s="26"/>
+      <c r="Z22" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA22" s="26"/>
+      <c r="AB22" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC22" s="26"/>
+      <c r="AD22" t="s">
+        <v>397</v>
+      </c>
+      <c r="AE22" s="26"/>
+      <c r="AF22" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>398</v>
+      </c>
+      <c r="AH22" s="30"/>
+      <c r="AI22" t="s">
+        <v>399</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>399</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>399</v>
+      </c>
+      <c r="AL22" s="31"/>
+      <c r="AM22" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="AN22" s="35"/>
+      <c r="AO22" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="63.75" r="23" s="25" spans="1:42">
+      <c r="A23" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="K23" s="27"/>
+      <c r="L23" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="M23" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="N23" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q23" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="T23" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="U23" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="V23" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="W23" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="X23" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y23" s="26"/>
+      <c r="Z23" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA23" s="26"/>
+      <c r="AB23" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC23" s="26"/>
+      <c r="AD23" t="s">
+        <v>397</v>
+      </c>
+      <c r="AE23" s="26"/>
+      <c r="AF23" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>398</v>
+      </c>
+      <c r="AH23" s="30"/>
+      <c r="AI23" t="s">
+        <v>399</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>399</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>399</v>
+      </c>
+      <c r="AL23" s="31"/>
+      <c r="AM23" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="AN23" s="35"/>
+      <c r="AO23" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="63.75" r="24" s="25" spans="1:42">
+      <c r="A24" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="K24" s="27"/>
+      <c r="L24" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="M24" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="N24" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q24" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="T24" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="U24" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="V24" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="W24" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="X24" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y24" s="26"/>
+      <c r="Z24" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA24" s="26"/>
+      <c r="AB24" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC24" s="26"/>
+      <c r="AD24" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE24" s="26"/>
+      <c r="AF24" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>404</v>
+      </c>
+      <c r="AH24" s="30"/>
+      <c r="AI24" t="s">
+        <v>403</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>403</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>403</v>
+      </c>
+      <c r="AL24" s="31"/>
+      <c r="AM24" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="AN24" s="35"/>
+      <c r="AO24" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="63.75" r="25" s="25" spans="1:42">
+      <c r="A25" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="27"/>
+      <c r="L25" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="M25" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="N25" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q25" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="T25" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="U25" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="V25" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="W25" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="X25" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y25" s="26"/>
+      <c r="Z25" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA25" s="26"/>
+      <c r="AB25" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC25" s="26"/>
+      <c r="AD25" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE25" s="26"/>
+      <c r="AF25" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>406</v>
+      </c>
+      <c r="AH25" s="30"/>
+      <c r="AI25" t="s">
+        <v>405</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>405</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>405</v>
+      </c>
+      <c r="AL25" s="31"/>
+      <c r="AM25" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="AN25" s="35"/>
+      <c r="AO25" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42">
+      <c r="A26" s="45">
+        <v>0</v>
+      </c>
+      <c r="B26" s="45">
+        <v>1</v>
+      </c>
+      <c r="C26" s="45">
+        <v>2</v>
+      </c>
+      <c r="D26" s="45">
+        <v>3</v>
+      </c>
+      <c r="E26" s="45">
+        <v>4</v>
+      </c>
+      <c r="F26" s="45">
+        <v>5</v>
+      </c>
+      <c r="G26" s="45">
+        <v>6</v>
+      </c>
+      <c r="H26" s="45">
+        <v>7</v>
+      </c>
+      <c r="I26" s="45">
+        <v>8</v>
+      </c>
+      <c r="J26" s="45">
+        <v>9</v>
+      </c>
+      <c r="K26" s="45">
+        <v>10</v>
+      </c>
+      <c r="L26" s="45">
+        <v>11</v>
+      </c>
+      <c r="M26" s="45">
+        <v>12</v>
+      </c>
+      <c r="N26" s="45">
+        <v>13</v>
+      </c>
+      <c r="O26" s="45">
+        <v>14</v>
+      </c>
+      <c r="P26" s="45">
+        <v>15</v>
+      </c>
+      <c r="Q26" s="45">
+        <v>16</v>
+      </c>
+      <c r="R26" s="45">
+        <v>17</v>
+      </c>
+      <c r="S26" s="45">
+        <v>18</v>
+      </c>
+      <c r="T26" s="45">
+        <v>19</v>
+      </c>
+      <c r="U26" s="45">
+        <v>20</v>
+      </c>
+      <c r="V26" s="45">
+        <v>21</v>
+      </c>
+      <c r="W26" s="45">
+        <v>22</v>
+      </c>
+      <c r="X26" s="45">
+        <v>23</v>
+      </c>
+      <c r="Y26" s="45">
+        <v>24</v>
+      </c>
+      <c r="Z26" s="45">
+        <v>25</v>
+      </c>
+      <c r="AA26" s="45">
+        <v>26</v>
+      </c>
+      <c r="AB26" s="45">
+        <v>27</v>
+      </c>
+      <c r="AC26" s="45">
+        <v>28</v>
+      </c>
+      <c r="AD26" s="45">
+        <v>29</v>
+      </c>
+      <c r="AE26" s="45">
+        <v>30</v>
+      </c>
+      <c r="AF26" s="45">
+        <v>31</v>
+      </c>
+      <c r="AG26" s="45">
+        <v>32</v>
+      </c>
+      <c r="AH26" s="45">
+        <v>33</v>
+      </c>
+      <c r="AI26" s="45">
+        <v>34</v>
+      </c>
+      <c r="AJ26" s="45">
+        <v>35</v>
+      </c>
+      <c r="AK26" s="45">
+        <v>36</v>
+      </c>
+      <c r="AL26" s="45">
+        <v>37</v>
+      </c>
+      <c r="AM26" s="45">
+        <v>38</v>
+      </c>
+      <c r="AN26" s="45">
+        <v>39</v>
+      </c>
+      <c r="AO26" s="45">
+        <v>40</v>
+      </c>
+      <c r="AP26" s="45">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -6434,706 +6116,706 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="C1" s="47" t="s">
         <v>248</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>249</v>
       </c>
       <c r="D1" s="47" t="s">
         <v>131</v>
       </c>
       <c r="E1" s="47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row ht="51" r="2" spans="1:6">
       <c r="A2" s="48" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B2" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="48" t="s">
         <v>250</v>
       </c>
-      <c r="C2" s="48" t="s">
-        <v>251</v>
-      </c>
       <c r="D2" t="s">
-        <v>960</v>
+        <v>454</v>
       </c>
       <c r="E2" s="48" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="89.25" r="3" spans="1:6">
       <c r="A3" s="48" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B3" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="48" t="s">
         <v>256</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>257</v>
       </c>
       <c r="D3" s="48"/>
       <c r="E3" s="48" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="89.25" r="4" spans="1:6">
       <c r="A4" s="48" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D4" s="48"/>
       <c r="E4" s="48" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="51" r="5" spans="1:6">
       <c r="A5" s="48" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D5" s="48"/>
       <c r="E5" s="48" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="51" r="6" spans="1:6">
       <c r="A6" s="48" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D6" s="48"/>
       <c r="E6" s="48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="51" r="7" spans="1:6">
       <c r="A7" s="48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B7" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" s="48" t="s">
         <v>268</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>269</v>
       </c>
       <c r="D7" s="48"/>
       <c r="E7" s="48" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="63.75" r="8" spans="1:6">
       <c r="A8" s="48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B8" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="48" t="s">
         <v>266</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>267</v>
       </c>
       <c r="D8" s="48"/>
       <c r="E8" s="48" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="51" r="9" spans="1:6">
       <c r="A9" s="48" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D9" s="48"/>
       <c r="E9" s="48" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="51" r="10" spans="1:6">
       <c r="A10" s="48" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B10" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="C10" s="48" t="s">
         <v>276</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>277</v>
       </c>
       <c r="D10" s="48"/>
       <c r="E10" s="48" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="63.75" r="11" spans="1:6">
       <c r="A11" s="48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B11" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="48" t="s">
         <v>278</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>279</v>
       </c>
       <c r="D11" s="48"/>
       <c r="E11" s="48" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F11" s="48"/>
     </row>
     <row ht="51" r="12" spans="1:6">
       <c r="A12" s="48" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B12" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="C12" s="48" t="s">
         <v>281</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>282</v>
       </c>
       <c r="D12" s="48"/>
       <c r="E12" s="48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="51" r="13" spans="1:6">
       <c r="A13" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="C13" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="D13" t="s">
+        <v>462</v>
+      </c>
+      <c r="E13" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="D13" t="s">
-        <v>978</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>300</v>
-      </c>
       <c r="F13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="102" r="14" spans="1:6">
       <c r="A14" s="48" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B14" s="48" t="s">
+        <v>324</v>
+      </c>
+      <c r="C14" s="48" t="s">
         <v>325</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>326</v>
       </c>
       <c r="D14" s="48"/>
       <c r="E14" s="48" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="102" r="15" spans="1:6">
       <c r="A15" s="48" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B15" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="C15" s="48" t="s">
         <v>328</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>329</v>
       </c>
       <c r="D15" s="48"/>
       <c r="E15" s="48" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="102" r="16" spans="1:6">
       <c r="A16" s="48" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B16" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="C16" s="48" t="s">
         <v>331</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>332</v>
       </c>
       <c r="D16" s="48"/>
       <c r="E16" s="48" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="89.25" r="17" spans="1:6">
       <c r="A17" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="B17" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="C17" s="48" t="s">
         <v>302</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>303</v>
       </c>
       <c r="D17" s="48"/>
       <c r="E17" s="48" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="89.25" r="18" spans="1:6">
       <c r="A18" s="48" t="s">
+        <v>304</v>
+      </c>
+      <c r="B18" s="48" t="s">
         <v>305</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="C18" s="48" t="s">
         <v>306</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>307</v>
       </c>
       <c r="D18" s="48"/>
       <c r="E18" s="48" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="51" r="19" spans="1:6">
       <c r="A19" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="B19" s="48" t="s">
         <v>309</v>
       </c>
-      <c r="B19" s="48" t="s">
-        <v>310</v>
-      </c>
       <c r="C19" s="48" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D19" s="48"/>
       <c r="E19" s="48" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="51" r="20" spans="1:6">
       <c r="A20" s="48" t="s">
+        <v>311</v>
+      </c>
+      <c r="B20" s="48" t="s">
         <v>312</v>
       </c>
-      <c r="B20" s="48" t="s">
-        <v>313</v>
-      </c>
       <c r="C20" s="48" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D20" s="48"/>
       <c r="E20" s="48" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="51" r="21" spans="1:6">
       <c r="A21" s="48" t="s">
+        <v>314</v>
+      </c>
+      <c r="B21" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="B21" s="48" t="s">
-        <v>316</v>
-      </c>
       <c r="C21" s="48" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D21" s="48"/>
       <c r="E21" s="48" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="63.75" r="22" spans="1:6">
       <c r="A22" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="B22" s="48" t="s">
         <v>318</v>
       </c>
-      <c r="B22" s="48" t="s">
-        <v>319</v>
-      </c>
       <c r="C22" s="48" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D22" s="48"/>
       <c r="E22" s="48" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="51" r="23" spans="1:6">
       <c r="A23" s="48" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B23" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="C23" s="48" t="s">
         <v>334</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>335</v>
       </c>
       <c r="D23" s="48"/>
       <c r="E23" s="48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="51" r="24" spans="1:6">
       <c r="A24" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B24" s="48" t="s">
+        <v>336</v>
+      </c>
+      <c r="C24" s="48" t="s">
         <v>337</v>
-      </c>
-      <c r="C24" s="48" t="s">
-        <v>338</v>
       </c>
       <c r="D24" s="48"/>
       <c r="E24" s="48" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F24" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="63.75" r="25" spans="1:6">
       <c r="A25" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="B25" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="B25" s="48" t="s">
-        <v>323</v>
-      </c>
       <c r="C25" s="48" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D25" s="48"/>
       <c r="E25" s="48" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F25" s="48"/>
     </row>
     <row ht="51" r="26" spans="1:6">
       <c r="A26" s="48" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D26" s="48"/>
       <c r="E26" s="48" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="63.75" r="27" spans="1:6">
       <c r="A27" s="48" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B27" s="48" t="s">
+        <v>341</v>
+      </c>
+      <c r="C27" s="48" t="s">
         <v>342</v>
-      </c>
-      <c r="C27" s="48" t="s">
-        <v>343</v>
       </c>
       <c r="D27" s="48"/>
       <c r="E27" s="48" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="51" r="28" spans="1:6">
       <c r="A28" s="48" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D28" s="48"/>
       <c r="E28" s="48" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="51" r="29" spans="1:6">
       <c r="A29" s="48" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B29" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="C29" s="48" t="s">
         <v>347</v>
-      </c>
-      <c r="C29" s="48" t="s">
-        <v>348</v>
       </c>
       <c r="D29" s="48"/>
       <c r="E29" s="48" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F29" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="51" r="30" spans="1:6">
       <c r="A30" s="48" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D30" s="48"/>
       <c r="E30" s="48" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F30" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="63.75" r="31" spans="1:6">
       <c r="A31" s="48" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B31" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="C31" s="48" t="s">
         <v>352</v>
-      </c>
-      <c r="C31" s="48" t="s">
-        <v>353</v>
       </c>
       <c r="D31" s="48"/>
       <c r="E31" s="48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F31" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="76.5" r="32" spans="1:6">
       <c r="A32" s="48" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D32" s="48"/>
       <c r="E32" s="48" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F32" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="76.5" r="33" spans="1:6">
       <c r="A33" s="48" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B33" s="48" t="s">
+        <v>357</v>
+      </c>
+      <c r="C33" s="48" t="s">
         <v>358</v>
-      </c>
-      <c r="C33" s="48" t="s">
-        <v>359</v>
       </c>
       <c r="D33" s="48"/>
       <c r="E33" s="48" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F33" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="76.5" r="34" spans="1:6">
       <c r="A34" s="48" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D34" s="48"/>
       <c r="E34" s="48" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F34" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="76.5" r="35" spans="1:6">
       <c r="A35" s="48" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D35" s="48"/>
       <c r="E35" s="48" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F35" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="76.5" r="36" spans="1:6">
       <c r="A36" s="48" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D36" s="48"/>
       <c r="E36" s="48" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F36" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="76.5" r="37" spans="1:6">
       <c r="A37" s="48" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D37" s="48"/>
       <c r="E37" s="48" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F37" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="76.5" r="38" spans="1:6">
       <c r="A38" s="48" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D38" s="48"/>
       <c r="E38" s="48" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F38" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row ht="76.5" r="39" spans="1:6">
       <c r="A39" s="48" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B39" s="48" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C39" s="48" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D39" s="48"/>
       <c r="E39" s="48" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F39" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/NetAgent/src/main/resources/NA_STG.xlsx
+++ b/NetAgent/src/main/resources/NA_STG.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="485">
   <si>
     <t>PUId</t>
   </si>
@@ -1516,6 +1516,72 @@
   </si>
   <si>
     <t>10329128</t>
+  </si>
+  <si>
+    <t>06:19</t>
+  </si>
+  <si>
+    <t>10331698</t>
+  </si>
+  <si>
+    <t>07:26</t>
+  </si>
+  <si>
+    <t>10331706</t>
+  </si>
+  <si>
+    <t>07:37</t>
+  </si>
+  <si>
+    <t>10331738</t>
+  </si>
+  <si>
+    <t>07:44</t>
+  </si>
+  <si>
+    <t>10331759</t>
+  </si>
+  <si>
+    <t>04:56</t>
+  </si>
+  <si>
+    <t>10331781</t>
+  </si>
+  <si>
+    <t>08:05</t>
+  </si>
+  <si>
+    <t>10331807</t>
+  </si>
+  <si>
+    <t>08:17</t>
+  </si>
+  <si>
+    <t>10331829</t>
+  </si>
+  <si>
+    <t>08:23</t>
+  </si>
+  <si>
+    <t>10331847</t>
+  </si>
+  <si>
+    <t>05:36</t>
+  </si>
+  <si>
+    <t>10331883</t>
+  </si>
+  <si>
+    <t>10331891</t>
+  </si>
+  <si>
+    <t>10331898</t>
+  </si>
+  <si>
+    <t>10331942</t>
+  </si>
+  <si>
+    <t>10332023</t>
   </si>
 </sst>
 </file>
@@ -2502,7 +2568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AP4"/>
   <sheetViews>
     <sheetView topLeftCell="AM1" workbookViewId="0">
       <selection activeCell="AO3" sqref="AO3"/>
@@ -3023,7 +3089,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1:I2"/>
@@ -3101,7 +3167,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
@@ -3229,7 +3295,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
@@ -3345,7 +3411,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
@@ -3382,7 +3448,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -3425,7 +3491,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ26"/>
+  <dimension ref="A1:AP26"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C15" sqref="C15:C25"/>
@@ -3661,7 +3727,7 @@
         <v>154</v>
       </c>
       <c r="AB2" t="s">
-        <v>453</v>
+        <v>183</v>
       </c>
       <c r="AC2" s="26" t="s">
         <v>155</v>
@@ -3673,20 +3739,20 @@
         <v>157</v>
       </c>
       <c r="AF2" t="s">
-        <v>409</v>
+        <v>183</v>
       </c>
       <c r="AG2" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="AJ2" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="AK2" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -3773,7 +3839,7 @@
         <v>171</v>
       </c>
       <c r="AB3" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="AC3" s="26" t="s">
         <v>172</v>
@@ -3786,17 +3852,17 @@
         <v>183</v>
       </c>
       <c r="AG3" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="AJ3" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="AK3" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -3889,20 +3955,20 @@
       </c>
       <c r="AE4" s="26"/>
       <c r="AF4" t="s">
-        <v>409</v>
+        <v>183</v>
       </c>
       <c r="AG4" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="AJ4" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="AK4" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -3989,7 +4055,7 @@
         <v>171</v>
       </c>
       <c r="AB5" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="AC5" s="26" t="s">
         <v>172</v>
@@ -3999,20 +4065,20 @@
       </c>
       <c r="AE5" s="26"/>
       <c r="AF5" t="s">
-        <v>409</v>
+        <v>183</v>
       </c>
       <c r="AG5" t="s">
-        <v>445</v>
+        <v>470</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="AJ5" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="AK5" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -4099,7 +4165,7 @@
         <v>200</v>
       </c>
       <c r="AB6" t="s">
-        <v>430</v>
+        <v>200</v>
       </c>
       <c r="AC6" s="26" t="s">
         <v>201</v>
@@ -4110,19 +4176,19 @@
       <c r="AE6" s="26"/>
       <c r="AF6" s="32"/>
       <c r="AG6" t="s">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="AH6" s="30" t="s">
         <v>202</v>
       </c>
       <c r="AI6" t="s">
-        <v>429</v>
+        <v>471</v>
       </c>
       <c r="AJ6" t="s">
-        <v>429</v>
+        <v>471</v>
       </c>
       <c r="AK6" t="s">
-        <v>429</v>
+        <v>471</v>
       </c>
       <c r="AL6" s="31"/>
       <c r="AM6" s="40" t="s">
@@ -4200,37 +4266,37 @@
       <c r="Y7" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="Z7" s="45" t="s">
+      <c r="Z7" t="s">
         <v>170</v>
       </c>
       <c r="AA7" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="AB7" s="45" t="s">
-        <v>183</v>
+      <c r="AB7" t="s">
+        <v>200</v>
       </c>
       <c r="AC7" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="AD7" s="45" t="s">
+      <c r="AD7" t="s">
         <v>360</v>
       </c>
       <c r="AE7" s="26"/>
       <c r="AF7" s="32"/>
-      <c r="AG7" s="45" t="s">
-        <v>386</v>
+      <c r="AG7" t="s">
+        <v>474</v>
       </c>
       <c r="AH7" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="AI7" s="45" t="s">
-        <v>385</v>
-      </c>
-      <c r="AJ7" s="45" t="s">
-        <v>385</v>
-      </c>
-      <c r="AK7" s="45" t="s">
-        <v>385</v>
+      <c r="AI7" t="s">
+        <v>473</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>473</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>473</v>
       </c>
       <c r="AL7" s="31"/>
       <c r="AM7" s="40" t="s">
@@ -4327,20 +4393,20 @@
       </c>
       <c r="AE8" s="28"/>
       <c r="AF8" t="s">
-        <v>409</v>
+        <v>183</v>
       </c>
       <c r="AG8" t="s">
-        <v>433</v>
+        <v>476</v>
       </c>
       <c r="AH8" s="30"/>
       <c r="AI8" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AJ8" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AK8" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AL8" s="31"/>
       <c r="AM8" s="40" t="s">
@@ -4427,7 +4493,7 @@
         <v>171</v>
       </c>
       <c r="AB9" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="AC9" s="28" t="s">
         <v>172</v>
@@ -4438,17 +4504,17 @@
       <c r="AE9" s="28"/>
       <c r="AF9" s="32"/>
       <c r="AG9" t="s">
-        <v>447</v>
+        <v>478</v>
       </c>
       <c r="AH9" s="30"/>
       <c r="AI9" t="s">
-        <v>446</v>
+        <v>477</v>
       </c>
       <c r="AJ9" t="s">
-        <v>446</v>
+        <v>477</v>
       </c>
       <c r="AK9" t="s">
-        <v>446</v>
+        <v>477</v>
       </c>
       <c r="AL9" s="31"/>
       <c r="AM9" s="40" t="s">
@@ -4533,7 +4599,7 @@
         <v>168</v>
       </c>
       <c r="AB10" t="s">
-        <v>437</v>
+        <v>153</v>
       </c>
       <c r="AC10" s="26" t="s">
         <v>156</v>
@@ -4544,17 +4610,17 @@
       <c r="AE10" s="26"/>
       <c r="AF10" s="33"/>
       <c r="AG10" t="s">
-        <v>438</v>
+        <v>480</v>
       </c>
       <c r="AH10" s="33"/>
       <c r="AI10" t="s">
-        <v>436</v>
+        <v>479</v>
       </c>
       <c r="AJ10" t="s">
-        <v>436</v>
+        <v>479</v>
       </c>
       <c r="AK10" t="s">
-        <v>436</v>
+        <v>479</v>
       </c>
       <c r="AL10" s="34"/>
       <c r="AM10" s="40" t="s">
@@ -4621,10 +4687,10 @@
       </c>
       <c r="AE11" s="28"/>
       <c r="AF11" t="s">
-        <v>409</v>
+        <v>183</v>
       </c>
       <c r="AG11" t="s">
-        <v>439</v>
+        <v>481</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -4675,7 +4741,7 @@
       </c>
       <c r="Z12" s="31"/>
       <c r="AB12" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="AD12" t="s">
         <v>361</v>
@@ -4684,7 +4750,7 @@
         <v>183</v>
       </c>
       <c r="AG12" t="s">
-        <v>390</v>
+        <v>484</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -6098,7 +6164,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
@@ -6145,7 +6211,7 @@
         <v>250</v>
       </c>
       <c r="D2" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>254</v>
@@ -6343,7 +6409,7 @@
         <v>298</v>
       </c>
       <c r="D13" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>299</v>

--- a/NetAgent/src/main/resources/NA_STG.xlsx
+++ b/NetAgent/src/main/resources/NA_STG.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Local\NetAgentOrderProcessing\NAOrderProcessing\NetAgent\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="5" tabRatio="748" windowHeight="5895" windowWidth="10230" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10230" windowHeight="5895" tabRatio="748" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
-    <sheet name="TaskLog" r:id="rId2" sheetId="2"/>
-    <sheet name="OrderProcessing" r:id="rId3" sheetId="3"/>
-    <sheet name="OrderSearch" r:id="rId4" sheetId="4"/>
-    <sheet name="AgentConsole" r:id="rId5" sheetId="5"/>
-    <sheet name="RTE" r:id="rId6" sheetId="8"/>
-    <sheet name="OrderCreation" r:id="rId7" sheetId="6"/>
-    <sheet name="TC_OrderProcess" r:id="rId8" sheetId="7"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TaskLog" sheetId="2" r:id="rId2"/>
+    <sheet name="OrderProcessing" sheetId="3" r:id="rId3"/>
+    <sheet name="OrderSearch" sheetId="4" r:id="rId4"/>
+    <sheet name="AgentConsole" sheetId="5" r:id="rId5"/>
+    <sheet name="RTE" sheetId="8" r:id="rId6"/>
+    <sheet name="OrderCreation" sheetId="6" r:id="rId7"/>
+    <sheet name="TC_OrderProcess" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="714">
   <si>
     <t>PUId</t>
   </si>
@@ -749,12 +754,6 @@
   </si>
   <si>
     <t>CPU</t>
-  </si>
-  <si>
-    <t>1581</t>
-  </si>
-  <si>
-    <t>779</t>
   </si>
   <si>
     <t>selenium.automation</t>
@@ -1215,379 +1214,1072 @@
     <t>7</t>
   </si>
   <si>
+    <t>RT00002143</t>
+  </si>
+  <si>
+    <t>RouteWorkID</t>
+  </si>
+  <si>
+    <t>RW TrackingNO</t>
+  </si>
+  <si>
+    <t>RWID</t>
+  </si>
+  <si>
+    <t>RTrackingNo</t>
+  </si>
+  <si>
+    <t>PUID</t>
+  </si>
+  <si>
+    <t>BOLNo</t>
+  </si>
+  <si>
+    <t>1771620</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>111111111</t>
+  </si>
+  <si>
+    <t>98934</t>
+  </si>
+  <si>
+    <t>98936</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>14624888</t>
+  </si>
+  <si>
+    <t>04:25</t>
+  </si>
+  <si>
+    <t>30738</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>00:08</t>
+  </si>
+  <si>
+    <t>10304210</t>
+  </si>
+  <si>
+    <t>00:12</t>
+  </si>
+  <si>
+    <t>10304211</t>
+  </si>
+  <si>
+    <t>$0.00</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>785</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>00:38</t>
+  </si>
+  <si>
+    <t>1585</t>
+  </si>
+  <si>
+    <t>10343482</t>
+  </si>
+  <si>
+    <t>00:43</t>
+  </si>
+  <si>
+    <t>10358135</t>
+  </si>
+  <si>
+    <t>01:44</t>
+  </si>
+  <si>
+    <t>10358141</t>
+  </si>
+  <si>
+    <t>02:50</t>
+  </si>
+  <si>
+    <t>02:54</t>
+  </si>
+  <si>
+    <t>10358258</t>
+  </si>
+  <si>
+    <t>00:07</t>
+  </si>
+  <si>
+    <t>10358277</t>
+  </si>
+  <si>
+    <t>03:16</t>
+  </si>
+  <si>
+    <t>10358293</t>
+  </si>
+  <si>
+    <t>03:25</t>
+  </si>
+  <si>
+    <t>10358296</t>
+  </si>
+  <si>
+    <t>03:31</t>
+  </si>
+  <si>
+    <t>10358306</t>
+  </si>
+  <si>
+    <t>10358317</t>
+  </si>
+  <si>
+    <t>10358322</t>
+  </si>
+  <si>
+    <t>10358330</t>
+  </si>
+  <si>
+    <t>10358346</t>
+  </si>
+  <si>
+    <t>10358348</t>
+  </si>
+  <si>
+    <t>137813849</t>
+  </si>
+  <si>
+    <t>33539859</t>
+  </si>
+  <si>
+    <t>10357734</t>
+  </si>
+  <si>
+    <t>137813872</t>
+  </si>
+  <si>
+    <t>RT00005082</t>
+  </si>
+  <si>
+    <t>137816253</t>
+  </si>
+  <si>
+    <t>33540074</t>
+  </si>
+  <si>
+    <t>10357949</t>
+  </si>
+  <si>
+    <t>137816264</t>
+  </si>
+  <si>
+    <t>02:27</t>
+  </si>
+  <si>
+    <t>10368470</t>
+  </si>
+  <si>
+    <t>03:34</t>
+  </si>
+  <si>
+    <t>10368473</t>
+  </si>
+  <si>
+    <t>03:45</t>
+  </si>
+  <si>
+    <t>03:49</t>
+  </si>
+  <si>
+    <t>10368488</t>
+  </si>
+  <si>
+    <t>01:01</t>
+  </si>
+  <si>
+    <t>10368505</t>
+  </si>
+  <si>
+    <t>04:10</t>
+  </si>
+  <si>
+    <t>10368511</t>
+  </si>
+  <si>
+    <t>04:22</t>
+  </si>
+  <si>
+    <t>10368512</t>
+  </si>
+  <si>
+    <t>04:28</t>
+  </si>
+  <si>
+    <t>10368513</t>
+  </si>
+  <si>
+    <t>01:40</t>
+  </si>
+  <si>
+    <t>10368517</t>
+  </si>
+  <si>
+    <t>10368518</t>
+  </si>
+  <si>
+    <t>10368519</t>
+  </si>
+  <si>
+    <t>10368529</t>
+  </si>
+  <si>
+    <t>10368633</t>
+  </si>
+  <si>
+    <t>137927302</t>
+  </si>
+  <si>
+    <t>33550343</t>
+  </si>
+  <si>
+    <t>10368206</t>
+  </si>
+  <si>
+    <t>137927313</t>
+  </si>
+  <si>
+    <t>05:30</t>
+  </si>
+  <si>
+    <t>05:38</t>
+  </si>
+  <si>
+    <t>05:43</t>
+  </si>
+  <si>
+    <t>05:48</t>
+  </si>
+  <si>
+    <t>05:52</t>
+  </si>
+  <si>
+    <t>05:58</t>
+  </si>
+  <si>
+    <t>06:04</t>
+  </si>
+  <si>
+    <t>10368722</t>
+  </si>
+  <si>
+    <t>06:22</t>
+  </si>
+  <si>
+    <t>06:26</t>
+  </si>
+  <si>
+    <t>06:29</t>
+  </si>
+  <si>
+    <t>06:34</t>
+  </si>
+  <si>
+    <t>06:37</t>
+  </si>
+  <si>
+    <t>07:12</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>08:58</t>
+  </si>
+  <si>
+    <t>10369345</t>
+  </si>
+  <si>
+    <t>01:32</t>
+  </si>
+  <si>
+    <t>10374332</t>
+  </si>
+  <si>
+    <t>02:39</t>
+  </si>
+  <si>
+    <t>10374348</t>
+  </si>
+  <si>
+    <t>02:49</t>
+  </si>
+  <si>
+    <t>10374361</t>
+  </si>
+  <si>
+    <t>02:56</t>
+  </si>
+  <si>
+    <t>10374374</t>
+  </si>
+  <si>
+    <t>03:13</t>
+  </si>
+  <si>
+    <t>10374384</t>
+  </si>
+  <si>
+    <t>03:18</t>
+  </si>
+  <si>
+    <t>10374389</t>
+  </si>
+  <si>
+    <t>00:29</t>
+  </si>
+  <si>
+    <t>10374399</t>
+  </si>
+  <si>
+    <t>10374403</t>
+  </si>
+  <si>
+    <t>10374454</t>
+  </si>
+  <si>
+    <t>10374459</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>10374464</t>
+  </si>
+  <si>
+    <t>10374528</t>
+  </si>
+  <si>
+    <t>137989689</t>
+  </si>
+  <si>
+    <t>33556193</t>
+  </si>
+  <si>
+    <t>10374050</t>
+  </si>
+  <si>
+    <t>137989690</t>
+  </si>
+  <si>
+    <t>10379415</t>
+  </si>
+  <si>
+    <t>00:36</t>
+  </si>
+  <si>
+    <t>10379422</t>
+  </si>
+  <si>
+    <t>00:48</t>
+  </si>
+  <si>
+    <t>00:52</t>
+  </si>
+  <si>
+    <t>10379440</t>
+  </si>
+  <si>
+    <t>22:04</t>
+  </si>
+  <si>
+    <t>10379473</t>
+  </si>
+  <si>
+    <t>01:12</t>
+  </si>
+  <si>
+    <t>10379530</t>
+  </si>
+  <si>
+    <t>01:25</t>
+  </si>
+  <si>
+    <t>10379535</t>
+  </si>
+  <si>
+    <t>01:30</t>
+  </si>
+  <si>
+    <t>10379540</t>
+  </si>
+  <si>
+    <t>22:42</t>
+  </si>
+  <si>
+    <t>10379571</t>
+  </si>
+  <si>
+    <t>10379588</t>
+  </si>
+  <si>
+    <t>10379592</t>
+  </si>
+  <si>
+    <t>138048242</t>
+  </si>
+  <si>
+    <t>33561546</t>
+  </si>
+  <si>
+    <t>10379397</t>
+  </si>
+  <si>
+    <t>138048253</t>
+  </si>
+  <si>
+    <t>10379634</t>
+  </si>
+  <si>
+    <t>00:01</t>
+  </si>
+  <si>
+    <t>10379656</t>
+  </si>
+  <si>
+    <t>10379658</t>
+  </si>
+  <si>
+    <t>03:40</t>
+  </si>
+  <si>
+    <t>10384460</t>
+  </si>
+  <si>
+    <t>04:46</t>
+  </si>
+  <si>
+    <t>10384461</t>
+  </si>
+  <si>
+    <t>04:59</t>
+  </si>
+  <si>
+    <t>10384533</t>
+  </si>
+  <si>
+    <t>05:07</t>
+  </si>
+  <si>
+    <t>10384537</t>
+  </si>
+  <si>
+    <t>02:19</t>
+  </si>
+  <si>
+    <t>10384580</t>
+  </si>
+  <si>
+    <t>05:29</t>
+  </si>
+  <si>
+    <t>10384585</t>
+  </si>
+  <si>
+    <t>05:41</t>
+  </si>
+  <si>
+    <t>10384592</t>
+  </si>
+  <si>
+    <t>05:47</t>
+  </si>
+  <si>
+    <t>10384595</t>
+  </si>
+  <si>
+    <t>03:00</t>
+  </si>
+  <si>
+    <t>10384608</t>
+  </si>
+  <si>
+    <t>03:11</t>
+  </si>
+  <si>
+    <t>10384619</t>
+  </si>
+  <si>
+    <t>10384624</t>
+  </si>
+  <si>
+    <t>10384631</t>
+  </si>
+  <si>
+    <t>10384640</t>
+  </si>
+  <si>
+    <t>10384652</t>
+  </si>
+  <si>
+    <t>138101242</t>
+  </si>
+  <si>
+    <t>33566353</t>
+  </si>
+  <si>
+    <t>10384198</t>
+  </si>
+  <si>
+    <t>138101253</t>
+  </si>
+  <si>
+    <t>10386920</t>
+  </si>
+  <si>
+    <t>01:43</t>
+  </si>
+  <si>
+    <t>10386931</t>
+  </si>
+  <si>
+    <t>01:55</t>
+  </si>
+  <si>
+    <t>10386945</t>
+  </si>
+  <si>
+    <t>02:02</t>
+  </si>
+  <si>
+    <t>10386960</t>
+  </si>
+  <si>
+    <t>23:14</t>
+  </si>
+  <si>
+    <t>10386975</t>
+  </si>
+  <si>
+    <t>02:22</t>
+  </si>
+  <si>
+    <t>10386985</t>
+  </si>
+  <si>
+    <t>02:32</t>
+  </si>
+  <si>
+    <t>10386992</t>
+  </si>
+  <si>
+    <t>02:38</t>
+  </si>
+  <si>
+    <t>10387006</t>
+  </si>
+  <si>
+    <t>23:53</t>
+  </si>
+  <si>
+    <t>10387014</t>
+  </si>
+  <si>
+    <t>10387034</t>
+  </si>
+  <si>
+    <t>10387046</t>
+  </si>
+  <si>
+    <t>10387050</t>
+  </si>
+  <si>
+    <t>10387058</t>
+  </si>
+  <si>
+    <t>10387078</t>
+  </si>
+  <si>
+    <t>138128818</t>
+  </si>
+  <si>
+    <t>33568916</t>
+  </si>
+  <si>
+    <t>10386755</t>
+  </si>
+  <si>
+    <t>138128829</t>
+  </si>
+  <si>
+    <t>10389596</t>
+  </si>
+  <si>
+    <t>02:45</t>
+  </si>
+  <si>
+    <t>10389615</t>
+  </si>
+  <si>
+    <t>02:58</t>
+  </si>
+  <si>
+    <t>03:03</t>
+  </si>
+  <si>
+    <t>10389644</t>
+  </si>
+  <si>
+    <t>04:16</t>
+  </si>
+  <si>
+    <t>10389721</t>
+  </si>
+  <si>
+    <t>04:24</t>
+  </si>
+  <si>
+    <t>10389724</t>
+  </si>
+  <si>
+    <t>01:36</t>
+  </si>
+  <si>
+    <t>10389737</t>
+  </si>
+  <si>
+    <t>04:45</t>
+  </si>
+  <si>
+    <t>10389749</t>
+  </si>
+  <si>
+    <t>04:55</t>
+  </si>
+  <si>
+    <t>10389814</t>
+  </si>
+  <si>
+    <t>05:01</t>
+  </si>
+  <si>
+    <t>10389821</t>
+  </si>
+  <si>
+    <t>02:14</t>
+  </si>
+  <si>
+    <t>10389831</t>
+  </si>
+  <si>
+    <t>10389873</t>
+  </si>
+  <si>
+    <t>10389881</t>
+  </si>
+  <si>
+    <t>10389885</t>
+  </si>
+  <si>
+    <t>10389894</t>
+  </si>
+  <si>
+    <t>138157157</t>
+  </si>
+  <si>
+    <t>33571535</t>
+  </si>
+  <si>
+    <t>10389374</t>
+  </si>
+  <si>
+    <t>138157168</t>
+  </si>
+  <si>
+    <t>10391873</t>
+  </si>
+  <si>
+    <t>10391886</t>
+  </si>
+  <si>
+    <t>00:19</t>
+  </si>
+  <si>
+    <t>00:23</t>
+  </si>
+  <si>
+    <t>10391903</t>
+  </si>
+  <si>
+    <t>21:34</t>
+  </si>
+  <si>
+    <t>10391912</t>
+  </si>
+  <si>
+    <t>00:42</t>
+  </si>
+  <si>
+    <t>10391926</t>
+  </si>
+  <si>
+    <t>00:55</t>
+  </si>
+  <si>
+    <t>10391934</t>
+  </si>
+  <si>
+    <t>01:00</t>
+  </si>
+  <si>
+    <t>10391963</t>
+  </si>
+  <si>
+    <t>22:12</t>
+  </si>
+  <si>
+    <t>10392022</t>
+  </si>
+  <si>
+    <t>10392024</t>
+  </si>
+  <si>
+    <t>10392025</t>
+  </si>
+  <si>
+    <t>10392035</t>
+  </si>
+  <si>
+    <t>10392055</t>
+  </si>
+  <si>
+    <t>138184698</t>
+  </si>
+  <si>
+    <t>33574030</t>
+  </si>
+  <si>
+    <t>10391869</t>
+  </si>
+  <si>
+    <t>138184702</t>
+  </si>
+  <si>
+    <t>10392097</t>
+  </si>
+  <si>
+    <t>01:26</t>
+  </si>
+  <si>
+    <t>10394474</t>
+  </si>
+  <si>
+    <t>10394480</t>
+  </si>
+  <si>
+    <t>10394494</t>
+  </si>
+  <si>
+    <t>02:52</t>
+  </si>
+  <si>
+    <t>10394497</t>
+  </si>
+  <si>
+    <t>00:05</t>
+  </si>
+  <si>
+    <t>10394531</t>
+  </si>
+  <si>
+    <t>03:14</t>
+  </si>
+  <si>
+    <t>10394537</t>
+  </si>
+  <si>
+    <t>03:26</t>
+  </si>
+  <si>
+    <t>10394540</t>
+  </si>
+  <si>
+    <t>03:32</t>
+  </si>
+  <si>
+    <t>10394548</t>
+  </si>
+  <si>
+    <t>00:44</t>
+  </si>
+  <si>
+    <t>10394558</t>
+  </si>
+  <si>
+    <t>10394565</t>
+  </si>
+  <si>
+    <t>10394572</t>
+  </si>
+  <si>
+    <t>10394578</t>
+  </si>
+  <si>
+    <t>10394579</t>
+  </si>
+  <si>
+    <t>138211730</t>
+  </si>
+  <si>
+    <t>33576482</t>
+  </si>
+  <si>
+    <t>10394321</t>
+  </si>
+  <si>
+    <t>138211741</t>
+  </si>
+  <si>
+    <t>23:13</t>
+  </si>
+  <si>
+    <t>10398969</t>
+  </si>
+  <si>
+    <t>10398975</t>
+  </si>
+  <si>
+    <t>00:30</t>
+  </si>
+  <si>
+    <t>10398983</t>
+  </si>
+  <si>
+    <t>00:37</t>
+  </si>
+  <si>
+    <t>10398988</t>
+  </si>
+  <si>
+    <t>21:49</t>
+  </si>
+  <si>
+    <t>10398992</t>
+  </si>
+  <si>
+    <t>00:57</t>
+  </si>
+  <si>
+    <t>10399028</t>
+  </si>
+  <si>
+    <t>01:10</t>
+  </si>
+  <si>
+    <t>10399031</t>
+  </si>
+  <si>
+    <t>01:15</t>
+  </si>
+  <si>
+    <t>22:19</t>
+  </si>
+  <si>
+    <t>10399088</t>
+  </si>
+  <si>
+    <t>10399093</t>
+  </si>
+  <si>
+    <t>10399096</t>
+  </si>
+  <si>
+    <t>10399097</t>
+  </si>
+  <si>
+    <t>138261562</t>
+  </si>
+  <si>
+    <t>33581114</t>
+  </si>
+  <si>
+    <t>10398953</t>
+  </si>
+  <si>
+    <t>138261573</t>
+  </si>
+  <si>
+    <t>01:23</t>
+  </si>
+  <si>
+    <t>10401955</t>
+  </si>
+  <si>
+    <t>02:29</t>
+  </si>
+  <si>
+    <t>10401966</t>
+  </si>
+  <si>
     <t>02:40</t>
   </si>
   <si>
-    <t>10091686</t>
-  </si>
-  <si>
-    <t>RT00002143</t>
-  </si>
-  <si>
-    <t>RouteWorkID</t>
-  </si>
-  <si>
-    <t>RW TrackingNO</t>
-  </si>
-  <si>
-    <t>RWID</t>
-  </si>
-  <si>
-    <t>RTrackingNo</t>
-  </si>
-  <si>
-    <t>PUID</t>
-  </si>
-  <si>
-    <t>BOLNo</t>
-  </si>
-  <si>
-    <t>03:50</t>
-  </si>
-  <si>
-    <t>10101158</t>
-  </si>
-  <si>
-    <t>05:07</t>
-  </si>
-  <si>
-    <t>10101223</t>
-  </si>
-  <si>
-    <t>05:31</t>
-  </si>
-  <si>
-    <t>10101311</t>
-  </si>
-  <si>
-    <t>05:54</t>
-  </si>
-  <si>
-    <t>10101322</t>
-  </si>
-  <si>
-    <t>06:12</t>
-  </si>
-  <si>
-    <t>10101361</t>
+    <t>10401980</t>
+  </si>
+  <si>
+    <t>02:47</t>
+  </si>
+  <si>
+    <t>10401996</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>10402028</t>
+  </si>
+  <si>
+    <t>03:08</t>
+  </si>
+  <si>
+    <t>10402047</t>
+  </si>
+  <si>
+    <t>03:20</t>
+  </si>
+  <si>
+    <t>10402056</t>
+  </si>
+  <si>
+    <t>10402061</t>
+  </si>
+  <si>
+    <t>10402073</t>
+  </si>
+  <si>
+    <t>10402084</t>
+  </si>
+  <si>
+    <t>1029</t>
+  </si>
+  <si>
+    <t>10402091</t>
+  </si>
+  <si>
+    <t>10402103</t>
+  </si>
+  <si>
+    <t>10402111</t>
+  </si>
+  <si>
+    <t>138291392</t>
+  </si>
+  <si>
+    <t>33583880</t>
+  </si>
+  <si>
+    <t>10401719</t>
+  </si>
+  <si>
+    <t>138291406</t>
+  </si>
+  <si>
+    <t>03:19</t>
+  </si>
+  <si>
+    <t>10405196</t>
   </si>
   <si>
     <t>03:28</t>
   </si>
   <si>
-    <t>10101370</t>
-  </si>
-  <si>
-    <t>10101415</t>
-  </si>
-  <si>
-    <t>07:14</t>
-  </si>
-  <si>
-    <t>07:17</t>
-  </si>
-  <si>
-    <t>10101459</t>
-  </si>
-  <si>
-    <t>10101506</t>
-  </si>
-  <si>
-    <t>10101583</t>
-  </si>
-  <si>
-    <t>10101639</t>
-  </si>
-  <si>
-    <t>10255911</t>
-  </si>
-  <si>
-    <t>1771620</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>111111111</t>
-  </si>
-  <si>
-    <t>98934</t>
-  </si>
-  <si>
-    <t>98936</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>14624888</t>
-  </si>
-  <si>
-    <t>04:25</t>
-  </si>
-  <si>
-    <t>30738</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>00:08</t>
-  </si>
-  <si>
-    <t>10304210</t>
-  </si>
-  <si>
-    <t>00:12</t>
-  </si>
-  <si>
-    <t>10304211</t>
-  </si>
-  <si>
-    <t>04:19</t>
-  </si>
-  <si>
-    <t>10326451</t>
-  </si>
-  <si>
-    <t>$0.00</t>
-  </si>
-  <si>
-    <t>05:25</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>785</t>
-  </si>
-  <si>
-    <t>10326462</t>
-  </si>
-  <si>
-    <t>05:33</t>
-  </si>
-  <si>
-    <t>10326471</t>
-  </si>
-  <si>
-    <t>02:44</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>10326486</t>
-  </si>
-  <si>
-    <t>05:53</t>
-  </si>
-  <si>
-    <t>10326499</t>
-  </si>
-  <si>
-    <t>05:58</t>
-  </si>
-  <si>
-    <t>10326505</t>
-  </si>
-  <si>
-    <t>06:30</t>
-  </si>
-  <si>
-    <t>10326548</t>
-  </si>
-  <si>
-    <t>06:41</t>
-  </si>
-  <si>
-    <t>10326565</t>
-  </si>
-  <si>
-    <t>06:49</t>
-  </si>
-  <si>
-    <t>10326578</t>
-  </si>
-  <si>
-    <t>04:00</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>10326629</t>
-  </si>
-  <si>
-    <t>07:10</t>
-  </si>
-  <si>
-    <t>10326641</t>
-  </si>
-  <si>
-    <t>07:15</t>
-  </si>
-  <si>
-    <t>10326648</t>
-  </si>
-  <si>
-    <t>04:27</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>10326662</t>
-  </si>
-  <si>
-    <t>10326673</t>
-  </si>
-  <si>
-    <t>07:49</t>
-  </si>
-  <si>
-    <t>10326709</t>
-  </si>
-  <si>
-    <t>08:01</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>08:04</t>
-  </si>
-  <si>
-    <t>10326760</t>
-  </si>
-  <si>
-    <t>08:16</t>
-  </si>
-  <si>
-    <t>10326800</t>
-  </si>
-  <si>
-    <t>08:50</t>
-  </si>
-  <si>
-    <t>10327092</t>
-  </si>
-  <si>
-    <t>10327091</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>10:35</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>10327526</t>
-  </si>
-  <si>
-    <t>11:41</t>
-  </si>
-  <si>
-    <t>10327538</t>
-  </si>
-  <si>
-    <t>11:55</t>
-  </si>
-  <si>
-    <t>10327565</t>
-  </si>
-  <si>
-    <t>12:14</t>
-  </si>
-  <si>
-    <t>10327611</t>
-  </si>
-  <si>
-    <t>05:16</t>
-  </si>
-  <si>
-    <t>10329128</t>
-  </si>
-  <si>
-    <t>06:19</t>
-  </si>
-  <si>
-    <t>10331698</t>
-  </si>
-  <si>
-    <t>07:26</t>
-  </si>
-  <si>
-    <t>10331706</t>
-  </si>
-  <si>
-    <t>07:37</t>
-  </si>
-  <si>
-    <t>10331738</t>
-  </si>
-  <si>
-    <t>07:44</t>
-  </si>
-  <si>
-    <t>10331759</t>
-  </si>
-  <si>
-    <t>04:56</t>
-  </si>
-  <si>
-    <t>10331781</t>
-  </si>
-  <si>
-    <t>08:05</t>
-  </si>
-  <si>
-    <t>10331807</t>
-  </si>
-  <si>
-    <t>08:17</t>
-  </si>
-  <si>
-    <t>10331829</t>
-  </si>
-  <si>
-    <t>08:23</t>
-  </si>
-  <si>
-    <t>10331847</t>
-  </si>
-  <si>
-    <t>05:36</t>
-  </si>
-  <si>
-    <t>10331883</t>
-  </si>
-  <si>
-    <t>10331891</t>
-  </si>
-  <si>
-    <t>10331898</t>
-  </si>
-  <si>
-    <t>10331942</t>
-  </si>
-  <si>
-    <t>10332023</t>
+    <t>10405200</t>
+  </si>
+  <si>
+    <t>00:39</t>
+  </si>
+  <si>
+    <t>10405215</t>
+  </si>
+  <si>
+    <t>03:47</t>
+  </si>
+  <si>
+    <t>10405232</t>
+  </si>
+  <si>
+    <t>03:59</t>
+  </si>
+  <si>
+    <t>10405238</t>
+  </si>
+  <si>
+    <t>04:05</t>
+  </si>
+  <si>
+    <t>10405246</t>
+  </si>
+  <si>
+    <t>01:18</t>
+  </si>
+  <si>
+    <t>10405256</t>
+  </si>
+  <si>
+    <t>10405261</t>
+  </si>
+  <si>
+    <t>10405264</t>
+  </si>
+  <si>
+    <t>1586</t>
+  </si>
+  <si>
+    <t>10405272</t>
+  </si>
+  <si>
+    <t>10405285</t>
+  </si>
+  <si>
+    <t>138325086</t>
+  </si>
+  <si>
+    <t>33586996</t>
+  </si>
+  <si>
+    <t>10404835</t>
+  </si>
+  <si>
+    <t>138325097</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -1873,174 +2565,174 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="62">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="11" numFmtId="1" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="1" xfId="0">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="13" numFmtId="1" xfId="0">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="1" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="44" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="7" numFmtId="49" quotePrefix="1" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="4" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="4" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="3" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="4" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="7" fillId="4" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="14" quotePrefix="1" xfId="0">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="8" fillId="0" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="9" fillId="0" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="9" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="9" fillId="3" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="10" fillId="3" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="4" name="Currency" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
     <dxf>
@@ -2184,7 +2876,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2201,10 +2893,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2362,7 +3054,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -2371,13 +3063,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2387,7 +3079,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2396,7 +3088,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2405,7 +3097,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2415,12 +3107,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -2451,7 +3143,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -2470,7 +3162,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -2488,27 +3180,27 @@
           <a:gdLst/>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect b="0" l="0" r="0" t="0"/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" a14:legacySpreadsheetColorIndex="9" mc:Ignorable="a14" val="090000"/>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
         </a:solidFill>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" a14:legacySpreadsheetColorIndex="64" mc:Ignorable="a14" val="400000"/>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="med" type="none" w="med"/>
-          <a:tailEnd len="med" type="none" w="med"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
             <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
-                <a:outerShdw algn="ctr" dir="2700000" dist="35921" rotWithShape="0">
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
                 </a:outerShdw>
               </a:effectLst>
@@ -2516,7 +3208,7 @@
           </a:ext>
         </a:extLst>
       </a:spPr>
-      <a:bodyPr bIns="0" lIns="18288" rIns="0" tIns="0" upright="1" vertOverflow="clip" wrap="square"/>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
       <a:lstStyle/>
     </a:spDef>
     <a:lnDef>
@@ -2530,27 +3222,27 @@
           <a:gdLst/>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect b="0" l="0" r="0" t="0"/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" a14:legacySpreadsheetColorIndex="9" mc:Ignorable="a14" val="090000"/>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
         </a:solidFill>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" a14:legacySpreadsheetColorIndex="64" mc:Ignorable="a14" val="400000"/>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="med" type="none" w="med"/>
-          <a:tailEnd len="med" type="none" w="med"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
             <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
-                <a:outerShdw algn="ctr" dir="2700000" dist="35921" rotWithShape="0">
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
                 </a:outerShdw>
               </a:effectLst>
@@ -2558,7 +3250,7 @@
           </a:ext>
         </a:extLst>
       </a:spPr>
-      <a:bodyPr bIns="0" lIns="18288" rIns="0" tIns="0" upright="1" vertOverflow="clip" wrap="square"/>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
       <a:lstStyle/>
     </a:lnDef>
   </a:objectDefaults>
@@ -2567,7 +3259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP4"/>
   <sheetViews>
     <sheetView topLeftCell="AM1" workbookViewId="0">
@@ -2608,7 +3300,7 @@
     <col min="245" max="16384" style="2" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:42">
+    <row r="1" spans="1:42" s="1" customFormat="1">
       <c r="A1" s="49">
         <v>0</v>
       </c>
@@ -2736,7 +3428,7 @@
         <v>41</v>
       </c>
     </row>
-    <row ht="38.25" r="2" spans="1:42">
+    <row r="2" spans="1:42" ht="38.25">
       <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
@@ -2856,13 +3548,13 @@
         <v>31</v>
       </c>
       <c r="AO2" s="10" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AP2" s="51" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row ht="38.25" r="3" spans="1:42">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="38.25">
       <c r="A3" s="51" t="s">
         <v>97</v>
       </c>
@@ -2970,17 +3662,17 @@
         <v>50</v>
       </c>
       <c r="AM3" s="51" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AN3" s="51" t="s">
         <v>99</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AP3" s="51"/>
     </row>
-    <row ht="38.25" r="4" spans="1:42">
+    <row r="4" spans="1:42" ht="38.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="51" t="s">
@@ -3078,8 +3770,8 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins bottom="1.0527777777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3088,7 +3780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -3128,7 +3820,7 @@
         <v>70</v>
       </c>
     </row>
-    <row ht="14.25" r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="8">
         <v>3368926</v>
       </c>
@@ -3156,8 +3848,8 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins bottom="1.0527777777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3166,7 +3858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3188,7 +3880,7 @@
       </c>
       <c r="C1" s="13"/>
     </row>
-    <row ht="15" r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="14" t="s">
         <v>74</v>
       </c>
@@ -3197,7 +3889,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row ht="15" r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="14" t="s">
         <v>75</v>
       </c>
@@ -3206,7 +3898,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row ht="15" r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" s="14" t="s">
         <v>75</v>
       </c>
@@ -3215,7 +3907,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row ht="15" r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="15">
       <c r="A5" s="14" t="s">
         <v>76</v>
       </c>
@@ -3225,7 +3917,7 @@
       <c r="C5" s="4"/>
       <c r="F5" s="23"/>
     </row>
-    <row ht="15" r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="15">
       <c r="A6" s="14" t="s">
         <v>78</v>
       </c>
@@ -3234,7 +3926,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row ht="15" r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="15" t="s">
         <v>77</v>
       </c>
@@ -3243,7 +3935,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row ht="15" r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="15" t="s">
         <v>77</v>
       </c>
@@ -3252,7 +3944,7 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row ht="15" r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="14" t="s">
         <v>90</v>
       </c>
@@ -3261,7 +3953,7 @@
       </c>
       <c r="C9" s="14"/>
     </row>
-    <row ht="15" r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="15">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -3270,7 +3962,7 @@
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row ht="15" r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="15">
       <c r="A11" s="21" t="s">
         <v>94</v>
       </c>
@@ -3284,8 +3976,8 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins bottom="1.0527777777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3294,7 +3986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -3363,7 +4055,7 @@
         <v>53</v>
       </c>
     </row>
-    <row ht="14.25" r="2" spans="1:14">
+    <row r="2" spans="1:14" ht="14.25">
       <c r="A2" s="16">
         <v>3375023</v>
       </c>
@@ -3400,17 +4092,17 @@
       </c>
       <c r="M2" s="4"/>
       <c r="N2" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3442,16 +4134,16 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3465,35 +4157,49 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="56" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C1" s="56" t="s">
         <v>58</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="12"/>
+      <c r="A2" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="B2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C2" t="s">
+        <v>711</v>
+      </c>
+      <c r="D2" t="s">
+        <v>712</v>
+      </c>
+      <c r="E2" t="s">
+        <v>713</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C15" sqref="C15:C25"/>
     </sheetView>
   </sheetViews>
@@ -3534,7 +4240,7 @@
     <col min="40" max="16384" style="45" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="25.5" r="1" s="25" spans="1:41">
+    <row r="1" spans="1:41" s="25" customFormat="1" ht="25.5">
       <c r="A1" s="37" t="s">
         <v>100</v>
       </c>
@@ -3652,7 +4358,7 @@
       </c>
       <c r="AN1" s="35"/>
     </row>
-    <row customFormat="1" ht="63.75" r="2" s="25" spans="1:41">
+    <row r="2" spans="1:41" s="25" customFormat="1" ht="63.75">
       <c r="A2" s="39" t="s">
         <v>136</v>
       </c>
@@ -3721,13 +4427,13 @@
         <v>153</v>
       </c>
       <c r="Z2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AA2" s="26" t="s">
         <v>154</v>
       </c>
       <c r="AB2" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="AC2" s="26" t="s">
         <v>155</v>
@@ -3739,20 +4445,20 @@
         <v>157</v>
       </c>
       <c r="AF2" t="s">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="AG2" t="s">
-        <v>464</v>
+        <v>667</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>463</v>
+        <v>666</v>
       </c>
       <c r="AJ2" t="s">
-        <v>463</v>
+        <v>666</v>
       </c>
       <c r="AK2" t="s">
-        <v>463</v>
+        <v>666</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -3760,7 +4466,7 @@
       </c>
       <c r="AN2" s="35"/>
     </row>
-    <row customFormat="1" ht="76.5" r="3" s="25" spans="1:41">
+    <row r="3" spans="1:41" s="25" customFormat="1" ht="76.5">
       <c r="A3" s="39" t="s">
         <v>136</v>
       </c>
@@ -3849,20 +4555,20 @@
       </c>
       <c r="AE3" s="26"/>
       <c r="AF3" t="s">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="AG3" t="s">
-        <v>466</v>
+        <v>669</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>465</v>
+        <v>668</v>
       </c>
       <c r="AJ3" t="s">
-        <v>465</v>
+        <v>668</v>
       </c>
       <c r="AK3" t="s">
-        <v>465</v>
+        <v>668</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -3870,7 +4576,7 @@
       </c>
       <c r="AN3" s="35"/>
     </row>
-    <row customFormat="1" ht="63.75" r="4" s="25" spans="1:41">
+    <row r="4" spans="1:41" s="25" customFormat="1" ht="63.75">
       <c r="A4" s="39" t="s">
         <v>136</v>
       </c>
@@ -3945,30 +4651,30 @@
         <v>181</v>
       </c>
       <c r="AB4" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="AC4" s="26" t="s">
         <v>182</v>
       </c>
       <c r="AD4" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
       <c r="AE4" s="26"/>
       <c r="AF4" t="s">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="AG4" t="s">
-        <v>468</v>
+        <v>692</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>467</v>
+        <v>691</v>
       </c>
       <c r="AJ4" t="s">
-        <v>467</v>
+        <v>691</v>
       </c>
       <c r="AK4" t="s">
-        <v>467</v>
+        <v>691</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -3976,7 +4682,7 @@
       </c>
       <c r="AN4" s="35"/>
     </row>
-    <row customFormat="1" ht="76.5" r="5" s="25" spans="1:41">
+    <row r="5" spans="1:41" s="25" customFormat="1" ht="76.5">
       <c r="A5" s="39" t="s">
         <v>136</v>
       </c>
@@ -4055,7 +4761,7 @@
         <v>171</v>
       </c>
       <c r="AB5" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="AC5" s="26" t="s">
         <v>172</v>
@@ -4065,20 +4771,20 @@
       </c>
       <c r="AE5" s="26"/>
       <c r="AF5" t="s">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="AG5" t="s">
-        <v>470</v>
+        <v>694</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>469</v>
+        <v>693</v>
       </c>
       <c r="AJ5" t="s">
-        <v>469</v>
+        <v>693</v>
       </c>
       <c r="AK5" t="s">
-        <v>469</v>
+        <v>693</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -4086,7 +4792,7 @@
       </c>
       <c r="AN5" s="35"/>
     </row>
-    <row customFormat="1" ht="63.75" r="6" s="25" spans="1:41">
+    <row r="6" spans="1:41" s="25" customFormat="1" ht="63.75">
       <c r="A6" s="39" t="s">
         <v>136</v>
       </c>
@@ -4171,24 +4877,24 @@
         <v>201</v>
       </c>
       <c r="AD6" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="AE6" s="26"/>
       <c r="AF6" s="32"/>
       <c r="AG6" t="s">
-        <v>472</v>
+        <v>696</v>
       </c>
       <c r="AH6" s="30" t="s">
         <v>202</v>
       </c>
       <c r="AI6" t="s">
-        <v>471</v>
+        <v>695</v>
       </c>
       <c r="AJ6" t="s">
-        <v>471</v>
+        <v>695</v>
       </c>
       <c r="AK6" t="s">
-        <v>471</v>
+        <v>695</v>
       </c>
       <c r="AL6" s="31"/>
       <c r="AM6" s="40" t="s">
@@ -4196,7 +4902,7 @@
       </c>
       <c r="AN6" s="35"/>
     </row>
-    <row customFormat="1" ht="63.75" r="7" s="25" spans="1:41">
+    <row r="7" spans="1:41" s="25" customFormat="1" ht="63.75">
       <c r="A7" s="39" t="s">
         <v>136</v>
       </c>
@@ -4279,24 +4985,24 @@
         <v>208</v>
       </c>
       <c r="AD7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AE7" s="26"/>
       <c r="AF7" s="32"/>
       <c r="AG7" t="s">
-        <v>474</v>
+        <v>698</v>
       </c>
       <c r="AH7" s="30" t="s">
         <v>209</v>
       </c>
       <c r="AI7" t="s">
-        <v>473</v>
+        <v>697</v>
       </c>
       <c r="AJ7" t="s">
-        <v>473</v>
+        <v>697</v>
       </c>
       <c r="AK7" t="s">
-        <v>473</v>
+        <v>697</v>
       </c>
       <c r="AL7" s="31"/>
       <c r="AM7" s="40" t="s">
@@ -4304,7 +5010,7 @@
       </c>
       <c r="AN7" s="35"/>
     </row>
-    <row customFormat="1" ht="63.75" r="8" s="25" spans="1:41">
+    <row r="8" spans="1:41" s="25" customFormat="1" ht="63.75">
       <c r="A8" s="39" t="s">
         <v>136</v>
       </c>
@@ -4393,20 +5099,20 @@
       </c>
       <c r="AE8" s="28"/>
       <c r="AF8" t="s">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="AG8" t="s">
-        <v>476</v>
+        <v>700</v>
       </c>
       <c r="AH8" s="30"/>
       <c r="AI8" t="s">
-        <v>475</v>
+        <v>699</v>
       </c>
       <c r="AJ8" t="s">
-        <v>475</v>
+        <v>699</v>
       </c>
       <c r="AK8" t="s">
-        <v>475</v>
+        <v>699</v>
       </c>
       <c r="AL8" s="31"/>
       <c r="AM8" s="40" t="s">
@@ -4414,7 +5120,7 @@
       </c>
       <c r="AN8" s="35"/>
     </row>
-    <row customFormat="1" ht="76.5" r="9" s="25" spans="1:41">
+    <row r="9" spans="1:41" s="25" customFormat="1" ht="76.5">
       <c r="A9" s="39" t="s">
         <v>136</v>
       </c>
@@ -4504,17 +5210,17 @@
       <c r="AE9" s="28"/>
       <c r="AF9" s="32"/>
       <c r="AG9" t="s">
-        <v>478</v>
+        <v>702</v>
       </c>
       <c r="AH9" s="30"/>
       <c r="AI9" t="s">
-        <v>477</v>
+        <v>701</v>
       </c>
       <c r="AJ9" t="s">
-        <v>477</v>
+        <v>701</v>
       </c>
       <c r="AK9" t="s">
-        <v>477</v>
+        <v>701</v>
       </c>
       <c r="AL9" s="31"/>
       <c r="AM9" s="40" t="s">
@@ -4522,7 +5228,7 @@
       </c>
       <c r="AN9" s="35"/>
     </row>
-    <row customFormat="1" ht="76.5" r="10" s="29" spans="1:41">
+    <row r="10" spans="1:41" s="29" customFormat="1" ht="76.5">
       <c r="A10" s="39" t="s">
         <v>136</v>
       </c>
@@ -4593,7 +5299,7 @@
         <v>170</v>
       </c>
       <c r="Z10" t="s">
-        <v>437</v>
+        <v>388</v>
       </c>
       <c r="AA10" s="26" t="s">
         <v>168</v>
@@ -4610,17 +5316,17 @@
       <c r="AE10" s="26"/>
       <c r="AF10" s="33"/>
       <c r="AG10" t="s">
-        <v>480</v>
+        <v>704</v>
       </c>
       <c r="AH10" s="33"/>
       <c r="AI10" t="s">
-        <v>479</v>
+        <v>703</v>
       </c>
       <c r="AJ10" t="s">
-        <v>479</v>
+        <v>703</v>
       </c>
       <c r="AK10" t="s">
-        <v>479</v>
+        <v>703</v>
       </c>
       <c r="AL10" s="34"/>
       <c r="AM10" s="40" t="s">
@@ -4628,7 +5334,7 @@
       </c>
       <c r="AN10" s="36"/>
     </row>
-    <row customFormat="1" r="11" s="25" spans="1:41">
+    <row r="11" spans="1:41" s="25" customFormat="1">
       <c r="A11" s="41" t="s">
         <v>136</v>
       </c>
@@ -4679,7 +5385,7 @@
       <c r="Z11" s="30"/>
       <c r="AA11" s="28"/>
       <c r="AB11" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AC11" s="28"/>
       <c r="AD11" t="s">
@@ -4687,10 +5393,10 @@
       </c>
       <c r="AE11" s="28"/>
       <c r="AF11" t="s">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="AG11" t="s">
-        <v>481</v>
+        <v>705</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -4704,7 +5410,7 @@
       </c>
       <c r="AN11" s="35"/>
     </row>
-    <row customFormat="1" r="12" s="25" spans="1:41">
+    <row r="12" spans="1:41" s="25" customFormat="1">
       <c r="A12" s="41" t="s">
         <v>136</v>
       </c>
@@ -4744,13 +5450,13 @@
         <v>197</v>
       </c>
       <c r="AD12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AF12" t="s">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="AG12" t="s">
-        <v>484</v>
+        <v>706</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -4764,7 +5470,7 @@
       </c>
       <c r="AN12" s="35"/>
     </row>
-    <row customFormat="1" r="13" s="25" spans="1:41">
+    <row r="13" spans="1:41" s="25" customFormat="1">
       <c r="A13" s="41" t="s">
         <v>136</v>
       </c>
@@ -4798,17 +5504,17 @@
         <v>152</v>
       </c>
       <c r="Z13" s="31"/>
-      <c r="AB13" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD13" s="45" t="s">
-        <v>242</v>
-      </c>
-      <c r="AF13" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="AG13" s="45" t="s">
-        <v>389</v>
+      <c r="AB13" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>707</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>383</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>708</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -4822,7 +5528,7 @@
       </c>
       <c r="AN13" s="35"/>
     </row>
-    <row customFormat="1" r="14" s="25" spans="1:41">
+    <row r="14" spans="1:41" s="25" customFormat="1">
       <c r="A14" s="57" t="s">
         <v>136</v>
       </c>
@@ -4870,19 +5576,19 @@
       <c r="Y14" s="59"/>
       <c r="Z14" s="60"/>
       <c r="AA14" s="59"/>
-      <c r="AB14" s="45" t="s">
-        <v>183</v>
+      <c r="AB14" t="s">
+        <v>197</v>
       </c>
       <c r="AC14" s="59"/>
-      <c r="AD14" s="45" t="s">
+      <c r="AD14" t="s">
         <v>168</v>
       </c>
       <c r="AE14" s="59"/>
-      <c r="AF14" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="AG14" s="45" t="s">
-        <v>387</v>
+      <c r="AF14" t="s">
+        <v>383</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>709</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -4896,28 +5602,28 @@
       </c>
       <c r="AN14" s="35"/>
     </row>
-    <row customFormat="1" ht="63.75" r="15" s="25" spans="1:41">
+    <row r="15" spans="1:41" s="25" customFormat="1" ht="63.75">
       <c r="A15" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>138</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="I15" s="26" t="s">
         <v>143</v>
@@ -4927,17 +5633,17 @@
       </c>
       <c r="K15" s="27"/>
       <c r="L15" s="26" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="M15" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="N15" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="O15" s="26"/>
       <c r="P15" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="Q15" s="26" t="s">
         <v>149</v>
@@ -4963,64 +5669,64 @@
       </c>
       <c r="Y15" s="26"/>
       <c r="Z15" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="AA15" s="26"/>
       <c r="AB15" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AC15" s="26"/>
       <c r="AD15" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="AE15" s="26"/>
       <c r="AF15" t="s">
         <v>183</v>
       </c>
       <c r="AG15" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="AH15" s="30"/>
       <c r="AI15" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="AJ15" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="AK15" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="AL15" s="31"/>
       <c r="AM15" s="40" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="AN15" s="35"/>
       <c r="AO15" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="63.75" r="16" s="25" spans="1:41">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" s="25" customFormat="1" ht="63.75">
       <c r="A16" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>138</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="G16" s="26"/>
       <c r="H16" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="I16" s="26" t="s">
         <v>143</v>
@@ -5030,17 +5736,17 @@
       </c>
       <c r="K16" s="27"/>
       <c r="L16" s="26" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="M16" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="N16" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="O16" s="26"/>
       <c r="P16" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="Q16" s="26" t="s">
         <v>149</v>
@@ -5066,64 +5772,64 @@
       </c>
       <c r="Y16" s="26"/>
       <c r="Z16" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="AA16" s="26"/>
       <c r="AB16" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AC16" s="26"/>
       <c r="AD16" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="AE16" s="26"/>
       <c r="AF16" t="s">
         <v>183</v>
       </c>
       <c r="AG16" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="AH16" s="30"/>
       <c r="AI16" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="AJ16" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="AK16" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="AL16" s="31"/>
       <c r="AM16" s="40" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="AN16" s="35"/>
       <c r="AO16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="63.75" r="17" s="25" spans="1:42">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" s="25" customFormat="1" ht="63.75">
       <c r="A17" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>138</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="I17" s="26" t="s">
         <v>143</v>
@@ -5133,17 +5839,17 @@
       </c>
       <c r="K17" s="27"/>
       <c r="L17" s="26" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="M17" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="O17" s="26"/>
       <c r="P17" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="Q17" s="26" t="s">
         <v>149</v>
@@ -5169,64 +5875,64 @@
       </c>
       <c r="Y17" s="26"/>
       <c r="Z17" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="AA17" s="26"/>
       <c r="AB17" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AC17" s="26"/>
       <c r="AD17" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="AE17" s="26"/>
       <c r="AF17" t="s">
         <v>183</v>
       </c>
       <c r="AG17" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="AH17" s="30"/>
       <c r="AI17" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="AJ17" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="AK17" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="AL17" s="31"/>
       <c r="AM17" s="40" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="AN17" s="35"/>
       <c r="AO17" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="63.75" r="18" s="25" spans="1:42">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" s="25" customFormat="1" ht="63.75">
       <c r="A18" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>138</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="I18" s="26" t="s">
         <v>143</v>
@@ -5236,17 +5942,17 @@
       </c>
       <c r="K18" s="27"/>
       <c r="L18" s="26" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="M18" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="N18" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="O18" s="26"/>
       <c r="P18" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="Q18" s="26" t="s">
         <v>149</v>
@@ -5272,64 +5978,64 @@
       </c>
       <c r="Y18" s="26"/>
       <c r="Z18" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="AA18" s="26"/>
       <c r="AB18" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AC18" s="26"/>
       <c r="AD18" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="AE18" s="26"/>
       <c r="AF18" t="s">
         <v>183</v>
       </c>
       <c r="AG18" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="AH18" s="30"/>
       <c r="AI18" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="AJ18" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="AK18" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="AL18" s="31"/>
       <c r="AM18" s="40" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="AN18" s="35"/>
       <c r="AO18" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="63.75" r="19" s="25" spans="1:42">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" s="25" customFormat="1" ht="63.75">
       <c r="A19" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>138</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="G19" s="26"/>
       <c r="H19" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="I19" s="26" t="s">
         <v>143</v>
@@ -5339,17 +6045,17 @@
       </c>
       <c r="K19" s="27"/>
       <c r="L19" s="26" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="M19" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="N19" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="O19" s="26"/>
       <c r="P19" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="Q19" s="26" t="s">
         <v>149</v>
@@ -5375,64 +6081,64 @@
       </c>
       <c r="Y19" s="26"/>
       <c r="Z19" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="AA19" s="26"/>
       <c r="AB19" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AC19" s="26"/>
       <c r="AD19" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="AE19" s="26"/>
       <c r="AF19" t="s">
         <v>183</v>
       </c>
       <c r="AG19" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="AH19" s="30"/>
       <c r="AI19" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="AJ19" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="AK19" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="AL19" s="31"/>
       <c r="AM19" s="40" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="AN19" s="35"/>
       <c r="AO19" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="63.75" r="20" s="25" spans="1:42">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" s="25" customFormat="1" ht="63.75">
       <c r="A20" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>138</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="G20" s="26"/>
       <c r="H20" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="I20" s="26" t="s">
         <v>143</v>
@@ -5442,17 +6148,17 @@
       </c>
       <c r="K20" s="27"/>
       <c r="L20" s="26" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="M20" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="N20" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="O20" s="26"/>
       <c r="P20" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="Q20" s="26" t="s">
         <v>149</v>
@@ -5478,64 +6184,64 @@
       </c>
       <c r="Y20" s="26"/>
       <c r="Z20" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="AA20" s="26"/>
       <c r="AB20" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AC20" s="26"/>
       <c r="AD20" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="AE20" s="26"/>
       <c r="AF20" t="s">
         <v>183</v>
       </c>
       <c r="AG20" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="AH20" s="30"/>
       <c r="AI20" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="AJ20" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="AK20" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="AL20" s="31"/>
       <c r="AM20" s="40" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="AN20" s="35"/>
       <c r="AO20" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="63.75" r="21" s="25" spans="1:42">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" s="25" customFormat="1" ht="63.75">
       <c r="A21" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>138</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="G21" s="26"/>
       <c r="H21" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="I21" s="26" t="s">
         <v>143</v>
@@ -5545,17 +6251,17 @@
       </c>
       <c r="K21" s="27"/>
       <c r="L21" s="26" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="M21" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="N21" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="O21" s="26"/>
       <c r="P21" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="Q21" s="26" t="s">
         <v>149</v>
@@ -5581,64 +6287,64 @@
       </c>
       <c r="Y21" s="26"/>
       <c r="Z21" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="AA21" s="26"/>
       <c r="AB21" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AC21" s="26"/>
       <c r="AD21" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="AE21" s="26"/>
       <c r="AF21" t="s">
         <v>183</v>
       </c>
       <c r="AG21" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="AH21" s="30"/>
       <c r="AI21" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="AJ21" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="AK21" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="AL21" s="31"/>
       <c r="AM21" s="40" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="AN21" s="35"/>
       <c r="AO21" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="63.75" r="22" s="25" spans="1:42">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" s="25" customFormat="1" ht="63.75">
       <c r="A22" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>138</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="G22" s="26"/>
       <c r="H22" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="I22" s="26" t="s">
         <v>143</v>
@@ -5648,17 +6354,17 @@
       </c>
       <c r="K22" s="27"/>
       <c r="L22" s="26" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="M22" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="N22" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="O22" s="26"/>
       <c r="P22" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="Q22" s="26" t="s">
         <v>149</v>
@@ -5684,64 +6390,64 @@
       </c>
       <c r="Y22" s="26"/>
       <c r="Z22" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="AA22" s="26"/>
       <c r="AB22" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AC22" s="26"/>
       <c r="AD22" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="AE22" s="26"/>
       <c r="AF22" t="s">
         <v>183</v>
       </c>
       <c r="AG22" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="AH22" s="30"/>
       <c r="AI22" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="AJ22" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="AK22" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="AL22" s="31"/>
       <c r="AM22" s="40" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="AN22" s="35"/>
       <c r="AO22" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="63.75" r="23" s="25" spans="1:42">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" s="25" customFormat="1" ht="63.75">
       <c r="A23" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>138</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="I23" s="26" t="s">
         <v>143</v>
@@ -5751,17 +6457,17 @@
       </c>
       <c r="K23" s="27"/>
       <c r="L23" s="26" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="M23" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="N23" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="O23" s="26"/>
       <c r="P23" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="Q23" s="26" t="s">
         <v>149</v>
@@ -5787,64 +6493,64 @@
       </c>
       <c r="Y23" s="26"/>
       <c r="Z23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="AA23" s="26"/>
       <c r="AB23" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AC23" s="26"/>
       <c r="AD23" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="AE23" s="26"/>
       <c r="AF23" t="s">
         <v>183</v>
       </c>
       <c r="AG23" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="AH23" s="30"/>
       <c r="AI23" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="AJ23" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="AK23" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="AL23" s="31"/>
       <c r="AM23" s="40" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="AN23" s="35"/>
       <c r="AO23" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="63.75" r="24" s="25" spans="1:42">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" s="25" customFormat="1" ht="63.75">
       <c r="A24" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>138</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="I24" s="26" t="s">
         <v>143</v>
@@ -5854,17 +6560,17 @@
       </c>
       <c r="K24" s="27"/>
       <c r="L24" s="26" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="M24" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="N24" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="O24" s="26"/>
       <c r="P24" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="Q24" s="26" t="s">
         <v>149</v>
@@ -5890,7 +6596,7 @@
       </c>
       <c r="Y24" s="26"/>
       <c r="Z24" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="AA24" s="26"/>
       <c r="AB24" t="s">
@@ -5898,56 +6604,56 @@
       </c>
       <c r="AC24" s="26"/>
       <c r="AD24" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="AE24" s="26"/>
       <c r="AF24" t="s">
         <v>183</v>
       </c>
       <c r="AG24" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="AH24" s="30"/>
       <c r="AI24" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="AJ24" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="AK24" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="AL24" s="31"/>
       <c r="AM24" s="40" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="AN24" s="35"/>
       <c r="AO24" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="63.75" r="25" s="25" spans="1:42">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" s="25" customFormat="1" ht="63.75">
       <c r="A25" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>138</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="I25" s="26" t="s">
         <v>143</v>
@@ -5957,17 +6663,17 @@
       </c>
       <c r="K25" s="27"/>
       <c r="L25" s="26" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="M25" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="N25" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="O25" s="26"/>
       <c r="P25" s="26" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="Q25" s="26" t="s">
         <v>149</v>
@@ -5993,7 +6699,7 @@
       </c>
       <c r="Y25" s="26"/>
       <c r="Z25" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="AA25" s="26"/>
       <c r="AB25" t="s">
@@ -6001,32 +6707,32 @@
       </c>
       <c r="AC25" s="26"/>
       <c r="AD25" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="AE25" s="26"/>
       <c r="AF25" t="s">
         <v>183</v>
       </c>
       <c r="AG25" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="AH25" s="30"/>
       <c r="AI25" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="AJ25" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="AK25" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="AL25" s="31"/>
       <c r="AM25" s="40" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="AN25" s="35"/>
       <c r="AO25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:42">
@@ -6158,12 +6864,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -6182,790 +6888,790 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="47" t="s">
         <v>246</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>247</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>248</v>
       </c>
       <c r="D1" s="47" t="s">
         <v>131</v>
       </c>
       <c r="E1" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="51">
+      <c r="A2" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" t="s">
+        <v>667</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="F2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="89.25">
+      <c r="A3" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="F1" s="47" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row ht="51" r="2" spans="1:6">
-      <c r="A2" s="48" t="s">
-        <v>295</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="D2" t="s">
-        <v>464</v>
-      </c>
-      <c r="E2" s="48" t="s">
+      <c r="C3" s="48" t="s">
         <v>254</v>
-      </c>
-      <c r="F2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="89.25" r="3" spans="1:6">
-      <c r="A3" s="48" t="s">
-        <v>283</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>256</v>
       </c>
       <c r="D3" s="48"/>
       <c r="E3" s="48" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="89.25" r="4" spans="1:6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="89.25">
       <c r="A4" s="48" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D4" s="48"/>
       <c r="E4" s="48" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="51" r="5" spans="1:6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51">
       <c r="A5" s="48" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D5" s="48"/>
       <c r="E5" s="48" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="51" r="6" spans="1:6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="51">
       <c r="A6" s="48" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D6" s="48"/>
       <c r="E6" s="48" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="51" r="7" spans="1:6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51">
       <c r="A7" s="48" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D7" s="48"/>
       <c r="E7" s="48" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="63.75" r="8" spans="1:6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="63.75">
       <c r="A8" s="48" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D8" s="48"/>
       <c r="E8" s="48" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="51" r="9" spans="1:6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51">
       <c r="A9" s="48" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D9" s="48"/>
       <c r="E9" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="F9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="51">
+      <c r="A10" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="B10" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="F9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="51" r="10" spans="1:6">
-      <c r="A10" s="48" t="s">
-        <v>290</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>275</v>
-      </c>
       <c r="C10" s="48" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D10" s="48"/>
       <c r="E10" s="48" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="63.75" r="11" spans="1:6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="63.75">
       <c r="A11" s="48" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D11" s="48"/>
       <c r="E11" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="F11" s="48"/>
+    </row>
+    <row r="12" spans="1:6" ht="51">
+      <c r="A12" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="C12" s="48" t="s">
         <v>279</v>
-      </c>
-      <c r="F11" s="48"/>
-    </row>
-    <row ht="51" r="12" spans="1:6">
-      <c r="A12" s="48" t="s">
-        <v>292</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>280</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>281</v>
       </c>
       <c r="D12" s="48"/>
       <c r="E12" s="48" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="51">
+      <c r="A13" s="48" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row ht="51" r="13" spans="1:6">
-      <c r="A13" s="48" t="s">
+      <c r="B13" s="48" t="s">
+        <v>295</v>
+      </c>
+      <c r="C13" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="D13" t="s">
+        <v>669</v>
+      </c>
+      <c r="E13" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="F13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="102">
+      <c r="A14" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="D13" t="s">
-        <v>466</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>299</v>
-      </c>
-      <c r="F13" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="102" r="14" spans="1:6">
-      <c r="A14" s="48" t="s">
-        <v>300</v>
-      </c>
       <c r="B14" s="48" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D14" s="48"/>
       <c r="E14" s="48" t="s">
+        <v>324</v>
+      </c>
+      <c r="F14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="102">
+      <c r="A15" s="48" t="s">
+        <v>298</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>325</v>
+      </c>
+      <c r="C15" s="48" t="s">
         <v>326</v>
-      </c>
-      <c r="F14" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="102" r="15" spans="1:6">
-      <c r="A15" s="48" t="s">
-        <v>300</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>327</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>328</v>
       </c>
       <c r="D15" s="48"/>
       <c r="E15" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="F15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="102">
+      <c r="A16" s="48" t="s">
+        <v>298</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>328</v>
+      </c>
+      <c r="C16" s="48" t="s">
         <v>329</v>
-      </c>
-      <c r="F15" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="102" r="16" spans="1:6">
-      <c r="A16" s="48" t="s">
-        <v>300</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>330</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>331</v>
       </c>
       <c r="D16" s="48"/>
       <c r="E16" s="48" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="89.25" r="17" spans="1:6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="89.25">
       <c r="A17" s="48" t="s">
+        <v>298</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="C17" s="48" t="s">
         <v>300</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>301</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>302</v>
       </c>
       <c r="D17" s="48"/>
       <c r="E17" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="F17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="89.25">
+      <c r="A18" s="48" t="s">
+        <v>302</v>
+      </c>
+      <c r="B18" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="F17" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="89.25" r="18" spans="1:6">
-      <c r="A18" s="48" t="s">
+      <c r="C18" s="48" t="s">
         <v>304</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>305</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>306</v>
       </c>
       <c r="D18" s="48"/>
       <c r="E18" s="48" t="s">
+        <v>305</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="51">
+      <c r="A19" s="48" t="s">
+        <v>306</v>
+      </c>
+      <c r="B19" s="48" t="s">
         <v>307</v>
       </c>
-      <c r="F18" s="46" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="51" r="19" spans="1:6">
-      <c r="A19" s="48" t="s">
-        <v>308</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>309</v>
-      </c>
       <c r="C19" s="48" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D19" s="48"/>
       <c r="E19" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="51">
+      <c r="A20" s="48" t="s">
+        <v>309</v>
+      </c>
+      <c r="B20" s="48" t="s">
         <v>310</v>
       </c>
-      <c r="F19" s="46" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="51" r="20" spans="1:6">
-      <c r="A20" s="48" t="s">
-        <v>311</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>312</v>
-      </c>
       <c r="C20" s="48" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D20" s="48"/>
       <c r="E20" s="48" t="s">
+        <v>311</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="51">
+      <c r="A21" s="48" t="s">
+        <v>312</v>
+      </c>
+      <c r="B21" s="48" t="s">
         <v>313</v>
       </c>
-      <c r="F20" s="46" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="51" r="21" spans="1:6">
-      <c r="A21" s="48" t="s">
-        <v>314</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>315</v>
-      </c>
       <c r="C21" s="48" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D21" s="48"/>
       <c r="E21" s="48" t="s">
+        <v>314</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="63.75">
+      <c r="A22" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="B22" s="48" t="s">
         <v>316</v>
       </c>
-      <c r="F21" s="46" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="63.75" r="22" spans="1:6">
-      <c r="A22" s="48" t="s">
-        <v>317</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>318</v>
-      </c>
       <c r="C22" s="48" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D22" s="48"/>
       <c r="E22" s="48" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="51" r="23" spans="1:6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="51">
       <c r="A23" s="48" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D23" s="48"/>
       <c r="E23" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="51">
+      <c r="A24" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="C24" s="48" t="s">
         <v>335</v>
-      </c>
-      <c r="F23" s="46" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="51" r="24" spans="1:6">
-      <c r="A24" s="48" t="s">
-        <v>320</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>336</v>
-      </c>
-      <c r="C24" s="48" t="s">
-        <v>337</v>
       </c>
       <c r="D24" s="48"/>
       <c r="E24" s="48" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F24" s="46" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="63.75" r="25" spans="1:6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="63.75">
       <c r="A25" s="48" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D25" s="48"/>
       <c r="E25" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="F25" s="48"/>
+    </row>
+    <row r="26" spans="1:6" ht="51">
+      <c r="A26" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="C26" s="48" t="s">
         <v>279</v>
-      </c>
-      <c r="F25" s="48"/>
-    </row>
-    <row ht="51" r="26" spans="1:6">
-      <c r="A26" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="B26" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>281</v>
       </c>
       <c r="D26" s="48"/>
       <c r="E26" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="63.75">
+      <c r="A27" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>339</v>
+      </c>
+      <c r="C27" s="48" t="s">
         <v>340</v>
-      </c>
-      <c r="F26" s="46" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="63.75" r="27" spans="1:6">
-      <c r="A27" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="B27" s="48" t="s">
-        <v>341</v>
-      </c>
-      <c r="C27" s="48" t="s">
-        <v>342</v>
       </c>
       <c r="D27" s="48"/>
       <c r="E27" s="48" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="51" r="28" spans="1:6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="51">
       <c r="A28" s="48" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D28" s="48"/>
       <c r="E28" s="48" t="s">
+        <v>343</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="51">
+      <c r="A29" s="48" t="s">
+        <v>309</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>344</v>
+      </c>
+      <c r="C29" s="48" t="s">
         <v>345</v>
-      </c>
-      <c r="F28" s="46" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="51" r="29" spans="1:6">
-      <c r="A29" s="48" t="s">
-        <v>311</v>
-      </c>
-      <c r="B29" s="48" t="s">
-        <v>346</v>
-      </c>
-      <c r="C29" s="48" t="s">
-        <v>347</v>
       </c>
       <c r="D29" s="48"/>
       <c r="E29" s="48" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F29" s="46" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="51" r="30" spans="1:6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="51">
       <c r="A30" s="48" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D30" s="48"/>
       <c r="E30" s="48" t="s">
+        <v>348</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="63.75">
+      <c r="A31" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>349</v>
+      </c>
+      <c r="C31" s="48" t="s">
         <v>350</v>
-      </c>
-      <c r="F30" s="46" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="63.75" r="31" spans="1:6">
-      <c r="A31" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="B31" s="48" t="s">
-        <v>351</v>
-      </c>
-      <c r="C31" s="48" t="s">
-        <v>352</v>
       </c>
       <c r="D31" s="48"/>
       <c r="E31" s="48" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F31" s="46" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="76.5" r="32" spans="1:6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="76.5">
       <c r="A32" s="48" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B32" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="C32" s="48" t="s">
         <v>354</v>
-      </c>
-      <c r="C32" s="48" t="s">
-        <v>356</v>
       </c>
       <c r="D32" s="48"/>
       <c r="E32" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="76.5">
+      <c r="A33" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="B33" s="48" t="s">
         <v>355</v>
       </c>
-      <c r="F32" s="46" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="76.5" r="33" spans="1:6">
-      <c r="A33" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="B33" s="48" t="s">
-        <v>357</v>
-      </c>
       <c r="C33" s="48" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D33" s="48"/>
       <c r="E33" s="48" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F33" s="46" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="76.5" r="34" spans="1:6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="76.5">
       <c r="A34" s="48" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B34" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="C34" s="48" t="s">
         <v>354</v>
-      </c>
-      <c r="C34" s="48" t="s">
-        <v>356</v>
       </c>
       <c r="D34" s="48"/>
       <c r="E34" s="48" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F34" s="46" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="76.5" r="35" spans="1:6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="76.5">
       <c r="A35" s="48" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B35" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="C35" s="48" t="s">
         <v>354</v>
-      </c>
-      <c r="C35" s="48" t="s">
-        <v>356</v>
       </c>
       <c r="D35" s="48"/>
       <c r="E35" s="48" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F35" s="46" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="76.5" r="36" spans="1:6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="76.5">
       <c r="A36" s="48" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B36" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="C36" s="48" t="s">
         <v>354</v>
-      </c>
-      <c r="C36" s="48" t="s">
-        <v>356</v>
       </c>
       <c r="D36" s="48"/>
       <c r="E36" s="48" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F36" s="46" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="76.5" r="37" spans="1:6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="76.5">
       <c r="A37" s="48" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B37" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="C37" s="48" t="s">
         <v>354</v>
-      </c>
-      <c r="C37" s="48" t="s">
-        <v>356</v>
       </c>
       <c r="D37" s="48"/>
       <c r="E37" s="48" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F37" s="46" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="76.5" r="38" spans="1:6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="76.5">
       <c r="A38" s="48" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B38" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="C38" s="48" t="s">
         <v>354</v>
-      </c>
-      <c r="C38" s="48" t="s">
-        <v>356</v>
       </c>
       <c r="D38" s="48"/>
       <c r="E38" s="48" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F38" s="46" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row ht="76.5" r="39" spans="1:6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="76.5">
       <c r="A39" s="48" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B39" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="C39" s="48" t="s">
         <v>354</v>
-      </c>
-      <c r="C39" s="48" t="s">
-        <v>356</v>
       </c>
       <c r="D39" s="48"/>
       <c r="E39" s="48" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F39" s="46" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F12 F40:F65536">
-    <cfRule dxfId="19" operator="equal" priority="19" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="19" priority="19" stopIfTrue="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="18" operator="equal" priority="20" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="18" priority="20" stopIfTrue="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17:F26">
-    <cfRule dxfId="17" operator="equal" priority="17" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="17" priority="17" stopIfTrue="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="16" operator="equal" priority="18" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="16" priority="18" stopIfTrue="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F16">
-    <cfRule dxfId="15" operator="equal" priority="15" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="14" operator="equal" priority="16" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule dxfId="13" operator="equal" priority="13" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="12" operator="equal" priority="14" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule dxfId="11" operator="equal" priority="11" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="10" operator="equal" priority="12" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="10" priority="12" stopIfTrue="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule dxfId="9" operator="equal" priority="9" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="8" operator="equal" priority="10" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule dxfId="7" operator="equal" priority="7" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="6" operator="equal" priority="8" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule dxfId="5" operator="equal" priority="5" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="4" operator="equal" priority="6" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule dxfId="3" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="2" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33:F39">
-    <cfRule dxfId="1" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NetAgent/src/main/resources/NA_STG.xlsx
+++ b/NetAgent/src/main/resources/NA_STG.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2436" uniqueCount="717">
   <si>
     <t>PUId</t>
   </si>
@@ -2274,6 +2274,15 @@
   </si>
   <si>
     <t>138325097</t>
+  </si>
+  <si>
+    <t>10430990</t>
+  </si>
+  <si>
+    <t>10433636</t>
+  </si>
+  <si>
+    <t>10433637</t>
   </si>
 </sst>
 </file>
@@ -5396,7 +5405,7 @@
         <v>383</v>
       </c>
       <c r="AG11" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>

--- a/NetAgent/src/main/resources/NA_STG.xlsx
+++ b/NetAgent/src/main/resources/NA_STG.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2436" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="736">
   <si>
     <t>PUId</t>
   </si>
@@ -2283,6 +2283,63 @@
   </si>
   <si>
     <t>10433637</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>04:43</t>
+  </si>
+  <si>
+    <t>04:48</t>
+  </si>
+  <si>
+    <t>10446100</t>
+  </si>
+  <si>
+    <t>10446171</t>
+  </si>
+  <si>
+    <t>10446173</t>
+  </si>
+  <si>
+    <t>10446218</t>
+  </si>
+  <si>
+    <t>10446228</t>
+  </si>
+  <si>
+    <t>138770583</t>
+  </si>
+  <si>
+    <t>33627854</t>
+  </si>
+  <si>
+    <t>10445681</t>
+  </si>
+  <si>
+    <t>138770594</t>
+  </si>
+  <si>
+    <t>05:12</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>10446274</t>
+  </si>
+  <si>
+    <t>06:18</t>
+  </si>
+  <si>
+    <t>10446282</t>
+  </si>
+  <si>
+    <t>06:33</t>
+  </si>
+  <si>
+    <t>10446298</t>
   </si>
 </sst>
 </file>
@@ -4186,16 +4243,16 @@
         <v>416</v>
       </c>
       <c r="B2" t="s">
-        <v>710</v>
+        <v>725</v>
       </c>
       <c r="C2" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
       <c r="D2" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
       <c r="E2" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
     </row>
   </sheetData>
@@ -4442,7 +4499,7 @@
         <v>154</v>
       </c>
       <c r="AB2" t="s">
-        <v>154</v>
+        <v>730</v>
       </c>
       <c r="AC2" s="26" t="s">
         <v>155</v>
@@ -4457,17 +4514,17 @@
         <v>383</v>
       </c>
       <c r="AG2" t="s">
-        <v>667</v>
+        <v>731</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>666</v>
+        <v>729</v>
       </c>
       <c r="AJ2" t="s">
-        <v>666</v>
+        <v>729</v>
       </c>
       <c r="AK2" t="s">
-        <v>666</v>
+        <v>729</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -4567,17 +4624,17 @@
         <v>383</v>
       </c>
       <c r="AG3" t="s">
-        <v>669</v>
+        <v>733</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>668</v>
+        <v>732</v>
       </c>
       <c r="AJ3" t="s">
-        <v>668</v>
+        <v>732</v>
       </c>
       <c r="AK3" t="s">
-        <v>668</v>
+        <v>732</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -4660,7 +4717,7 @@
         <v>181</v>
       </c>
       <c r="AB4" t="s">
-        <v>460</v>
+        <v>384</v>
       </c>
       <c r="AC4" s="26" t="s">
         <v>182</v>
@@ -4677,13 +4734,13 @@
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>691</v>
+        <v>456</v>
       </c>
       <c r="AJ4" t="s">
-        <v>691</v>
+        <v>456</v>
       </c>
       <c r="AK4" t="s">
-        <v>691</v>
+        <v>456</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -4770,7 +4827,7 @@
         <v>171</v>
       </c>
       <c r="AB5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="AC5" s="26" t="s">
         <v>172</v>
@@ -4783,17 +4840,17 @@
         <v>383</v>
       </c>
       <c r="AG5" t="s">
-        <v>694</v>
+        <v>735</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>693</v>
+        <v>734</v>
       </c>
       <c r="AJ5" t="s">
-        <v>693</v>
+        <v>734</v>
       </c>
       <c r="AK5" t="s">
-        <v>693</v>
+        <v>734</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -5394,7 +5451,7 @@
       <c r="Z11" s="30"/>
       <c r="AA11" s="28"/>
       <c r="AB11" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AC11" s="28"/>
       <c r="AD11" t="s">
@@ -5405,7 +5462,7 @@
         <v>383</v>
       </c>
       <c r="AG11" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -5465,7 +5522,7 @@
         <v>383</v>
       </c>
       <c r="AG12" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -5523,7 +5580,7 @@
         <v>383</v>
       </c>
       <c r="AG13" t="s">
-        <v>708</v>
+        <v>723</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -5597,7 +5654,7 @@
         <v>383</v>
       </c>
       <c r="AG14" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -6926,7 +6983,7 @@
         <v>248</v>
       </c>
       <c r="D2" t="s">
-        <v>667</v>
+        <v>731</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>252</v>
@@ -7110,7 +7167,7 @@
         <v>280</v>
       </c>
       <c r="F12" t="s">
-        <v>292</v>
+        <v>717</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="51">
@@ -7124,7 +7181,7 @@
         <v>296</v>
       </c>
       <c r="D13" t="s">
-        <v>669</v>
+        <v>733</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>297</v>

--- a/NetAgent/src/main/resources/NA_STG.xlsx
+++ b/NetAgent/src/main/resources/NA_STG.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2630" uniqueCount="753">
   <si>
     <t>PUId</t>
   </si>
@@ -2340,6 +2340,57 @@
   </si>
   <si>
     <t>10446298</t>
+  </si>
+  <si>
+    <t>139013300</t>
+  </si>
+  <si>
+    <t>33649991</t>
+  </si>
+  <si>
+    <t>10467812</t>
+  </si>
+  <si>
+    <t>139013311</t>
+  </si>
+  <si>
+    <t>10476721</t>
+  </si>
+  <si>
+    <t>10476737</t>
+  </si>
+  <si>
+    <t>10476760</t>
+  </si>
+  <si>
+    <t>03:05</t>
+  </si>
+  <si>
+    <t>10476771</t>
+  </si>
+  <si>
+    <t>10476776</t>
+  </si>
+  <si>
+    <t>10476779</t>
+  </si>
+  <si>
+    <t>10476788</t>
+  </si>
+  <si>
+    <t>10476794</t>
+  </si>
+  <si>
+    <t>139109142</t>
+  </si>
+  <si>
+    <t>33658608</t>
+  </si>
+  <si>
+    <t>10476429</t>
+  </si>
+  <si>
+    <t>139109153</t>
   </si>
 </sst>
 </file>
@@ -4243,16 +4294,16 @@
         <v>416</v>
       </c>
       <c r="B2" t="s">
-        <v>725</v>
+        <v>749</v>
       </c>
       <c r="C2" t="s">
-        <v>726</v>
+        <v>750</v>
       </c>
       <c r="D2" t="s">
-        <v>727</v>
+        <v>751</v>
       </c>
       <c r="E2" t="s">
-        <v>728</v>
+        <v>752</v>
       </c>
     </row>
   </sheetData>
@@ -4499,7 +4550,7 @@
         <v>154</v>
       </c>
       <c r="AB2" t="s">
-        <v>730</v>
+        <v>183</v>
       </c>
       <c r="AC2" s="26" t="s">
         <v>155</v>
@@ -4514,17 +4565,17 @@
         <v>383</v>
       </c>
       <c r="AG2" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>729</v>
+        <v>436</v>
       </c>
       <c r="AJ2" t="s">
-        <v>729</v>
+        <v>436</v>
       </c>
       <c r="AK2" t="s">
-        <v>729</v>
+        <v>436</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -4611,7 +4662,7 @@
         <v>171</v>
       </c>
       <c r="AB3" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="AC3" s="26" t="s">
         <v>172</v>
@@ -4624,17 +4675,17 @@
         <v>383</v>
       </c>
       <c r="AG3" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>732</v>
+        <v>672</v>
       </c>
       <c r="AJ3" t="s">
-        <v>732</v>
+        <v>672</v>
       </c>
       <c r="AK3" t="s">
-        <v>732</v>
+        <v>672</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -4730,17 +4781,17 @@
         <v>383</v>
       </c>
       <c r="AG4" t="s">
-        <v>692</v>
+        <v>742</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>456</v>
+        <v>570</v>
       </c>
       <c r="AJ4" t="s">
-        <v>456</v>
+        <v>570</v>
       </c>
       <c r="AK4" t="s">
-        <v>456</v>
+        <v>570</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -4827,7 +4878,7 @@
         <v>171</v>
       </c>
       <c r="AB5" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="AC5" s="26" t="s">
         <v>172</v>
@@ -4840,17 +4891,17 @@
         <v>383</v>
       </c>
       <c r="AG5" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="AJ5" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="AK5" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -5462,7 +5513,7 @@
         <v>383</v>
       </c>
       <c r="AG11" t="s">
-        <v>721</v>
+        <v>745</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -5522,7 +5573,7 @@
         <v>383</v>
       </c>
       <c r="AG12" t="s">
-        <v>722</v>
+        <v>746</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -5580,7 +5631,7 @@
         <v>383</v>
       </c>
       <c r="AG13" t="s">
-        <v>723</v>
+        <v>747</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -5654,7 +5705,7 @@
         <v>383</v>
       </c>
       <c r="AG14" t="s">
-        <v>724</v>
+        <v>748</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -6983,7 +7034,7 @@
         <v>248</v>
       </c>
       <c r="D2" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>252</v>
@@ -7181,7 +7232,7 @@
         <v>296</v>
       </c>
       <c r="D13" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>297</v>

--- a/NetAgent/src/main/resources/NA_STG.xlsx
+++ b/NetAgent/src/main/resources/NA_STG.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2630" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2749" uniqueCount="776">
   <si>
     <t>PUId</t>
   </si>
@@ -2391,6 +2391,75 @@
   </si>
   <si>
     <t>139109153</t>
+  </si>
+  <si>
+    <t>00:18</t>
+  </si>
+  <si>
+    <t>10559234</t>
+  </si>
+  <si>
+    <t>10559239</t>
+  </si>
+  <si>
+    <t>01:38</t>
+  </si>
+  <si>
+    <t>01:42</t>
+  </si>
+  <si>
+    <t>10559271</t>
+  </si>
+  <si>
+    <t>10559373</t>
+  </si>
+  <si>
+    <t>03:51</t>
+  </si>
+  <si>
+    <t>03:56</t>
+  </si>
+  <si>
+    <t>10559501</t>
+  </si>
+  <si>
+    <t>05:21</t>
+  </si>
+  <si>
+    <t>05:25</t>
+  </si>
+  <si>
+    <t>10559601</t>
+  </si>
+  <si>
+    <t>10559620</t>
+  </si>
+  <si>
+    <t>10559627</t>
+  </si>
+  <si>
+    <t>10559637</t>
+  </si>
+  <si>
+    <t>10559671</t>
+  </si>
+  <si>
+    <t>140124192</t>
+  </si>
+  <si>
+    <t>33741232</t>
+  </si>
+  <si>
+    <t>10559013</t>
+  </si>
+  <si>
+    <t>140124206</t>
+  </si>
+  <si>
+    <t>06:47</t>
+  </si>
+  <si>
+    <t>10559725</t>
   </si>
 </sst>
 </file>
@@ -4294,16 +4363,16 @@
         <v>416</v>
       </c>
       <c r="B2" t="s">
-        <v>749</v>
+        <v>770</v>
       </c>
       <c r="C2" t="s">
-        <v>750</v>
+        <v>771</v>
       </c>
       <c r="D2" t="s">
-        <v>751</v>
+        <v>772</v>
       </c>
       <c r="E2" t="s">
-        <v>752</v>
+        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -4550,7 +4619,7 @@
         <v>154</v>
       </c>
       <c r="AB2" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="AC2" s="26" t="s">
         <v>155</v>
@@ -4565,17 +4634,17 @@
         <v>383</v>
       </c>
       <c r="AG2" t="s">
-        <v>740</v>
+        <v>754</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>436</v>
+        <v>753</v>
       </c>
       <c r="AJ2" t="s">
-        <v>436</v>
+        <v>753</v>
       </c>
       <c r="AK2" t="s">
-        <v>436</v>
+        <v>753</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -4662,7 +4731,7 @@
         <v>171</v>
       </c>
       <c r="AB3" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="AC3" s="26" t="s">
         <v>172</v>
@@ -4675,17 +4744,17 @@
         <v>383</v>
       </c>
       <c r="AG3" t="s">
-        <v>741</v>
+        <v>755</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>672</v>
+        <v>497</v>
       </c>
       <c r="AJ3" t="s">
-        <v>672</v>
+        <v>497</v>
       </c>
       <c r="AK3" t="s">
-        <v>672</v>
+        <v>497</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -4778,20 +4847,20 @@
       </c>
       <c r="AE4" s="26"/>
       <c r="AF4" t="s">
-        <v>383</v>
+        <v>183</v>
       </c>
       <c r="AG4" t="s">
-        <v>742</v>
+        <v>775</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>570</v>
+        <v>774</v>
       </c>
       <c r="AJ4" t="s">
-        <v>570</v>
+        <v>774</v>
       </c>
       <c r="AK4" t="s">
-        <v>570</v>
+        <v>774</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -4878,7 +4947,7 @@
         <v>171</v>
       </c>
       <c r="AB5" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="AC5" s="26" t="s">
         <v>172</v>
@@ -4891,17 +4960,17 @@
         <v>383</v>
       </c>
       <c r="AG5" t="s">
-        <v>744</v>
+        <v>765</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>743</v>
+        <v>764</v>
       </c>
       <c r="AJ5" t="s">
-        <v>743</v>
+        <v>764</v>
       </c>
       <c r="AK5" t="s">
-        <v>743</v>
+        <v>764</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -5502,7 +5571,7 @@
       <c r="Z11" s="30"/>
       <c r="AA11" s="28"/>
       <c r="AB11" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AC11" s="28"/>
       <c r="AD11" t="s">
@@ -5513,7 +5582,7 @@
         <v>383</v>
       </c>
       <c r="AG11" t="s">
-        <v>745</v>
+        <v>769</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -5573,7 +5642,7 @@
         <v>383</v>
       </c>
       <c r="AG12" t="s">
-        <v>746</v>
+        <v>766</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -5631,7 +5700,7 @@
         <v>383</v>
       </c>
       <c r="AG13" t="s">
-        <v>747</v>
+        <v>767</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -5705,7 +5774,7 @@
         <v>383</v>
       </c>
       <c r="AG14" t="s">
-        <v>748</v>
+        <v>768</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -7034,7 +7103,7 @@
         <v>248</v>
       </c>
       <c r="D2" t="s">
-        <v>740</v>
+        <v>754</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>252</v>
@@ -7232,7 +7301,7 @@
         <v>296</v>
       </c>
       <c r="D13" t="s">
-        <v>741</v>
+        <v>755</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>297</v>

--- a/NetAgent/src/main/resources/NA_STG.xlsx
+++ b/NetAgent/src/main/resources/NA_STG.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2749" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2872" uniqueCount="799">
   <si>
     <t>PUId</t>
   </si>
@@ -2460,6 +2460,75 @@
   </si>
   <si>
     <t>10559725</t>
+  </si>
+  <si>
+    <t>10598274</t>
+  </si>
+  <si>
+    <t>10598298</t>
+  </si>
+  <si>
+    <t>01:56</t>
+  </si>
+  <si>
+    <t>10598323</t>
+  </si>
+  <si>
+    <t>02:11</t>
+  </si>
+  <si>
+    <t>778</t>
+  </si>
+  <si>
+    <t>02:16</t>
+  </si>
+  <si>
+    <t>10598358</t>
+  </si>
+  <si>
+    <t>02:57</t>
+  </si>
+  <si>
+    <t>03:01</t>
+  </si>
+  <si>
+    <t>10598409</t>
+  </si>
+  <si>
+    <t>10598456</t>
+  </si>
+  <si>
+    <t>1581</t>
+  </si>
+  <si>
+    <t>10598468</t>
+  </si>
+  <si>
+    <t>10598480</t>
+  </si>
+  <si>
+    <t>10598486</t>
+  </si>
+  <si>
+    <t>140540486</t>
+  </si>
+  <si>
+    <t>33780288</t>
+  </si>
+  <si>
+    <t>10598063</t>
+  </si>
+  <si>
+    <t>140540497</t>
+  </si>
+  <si>
+    <t>05:49</t>
+  </si>
+  <si>
+    <t>06:55</t>
+  </si>
+  <si>
+    <t>10598893</t>
   </si>
 </sst>
 </file>
@@ -4363,16 +4432,16 @@
         <v>416</v>
       </c>
       <c r="B2" t="s">
-        <v>770</v>
+        <v>792</v>
       </c>
       <c r="C2" t="s">
-        <v>771</v>
+        <v>793</v>
       </c>
       <c r="D2" t="s">
-        <v>772</v>
+        <v>794</v>
       </c>
       <c r="E2" t="s">
-        <v>773</v>
+        <v>795</v>
       </c>
     </row>
   </sheetData>
@@ -4634,17 +4703,17 @@
         <v>383</v>
       </c>
       <c r="AG2" t="s">
-        <v>754</v>
+        <v>777</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>753</v>
+        <v>490</v>
       </c>
       <c r="AJ2" t="s">
-        <v>753</v>
+        <v>490</v>
       </c>
       <c r="AK2" t="s">
-        <v>753</v>
+        <v>490</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -4725,13 +4794,13 @@
         <v>170</v>
       </c>
       <c r="Z3" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="AA3" s="26" t="s">
         <v>171</v>
       </c>
       <c r="AB3" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="AC3" s="26" t="s">
         <v>172</v>
@@ -4744,17 +4813,17 @@
         <v>383</v>
       </c>
       <c r="AG3" t="s">
-        <v>755</v>
+        <v>779</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>497</v>
+        <v>778</v>
       </c>
       <c r="AJ3" t="s">
-        <v>497</v>
+        <v>778</v>
       </c>
       <c r="AK3" t="s">
-        <v>497</v>
+        <v>778</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -4843,24 +4912,24 @@
         <v>182</v>
       </c>
       <c r="AD4" t="s">
-        <v>385</v>
+        <v>781</v>
       </c>
       <c r="AE4" s="26"/>
       <c r="AF4" t="s">
         <v>183</v>
       </c>
       <c r="AG4" t="s">
-        <v>775</v>
+        <v>798</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>774</v>
+        <v>797</v>
       </c>
       <c r="AJ4" t="s">
-        <v>774</v>
+        <v>797</v>
       </c>
       <c r="AK4" t="s">
-        <v>774</v>
+        <v>797</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -4941,13 +5010,13 @@
         <v>170</v>
       </c>
       <c r="Z5" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="AA5" s="26" t="s">
         <v>171</v>
       </c>
       <c r="AB5" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="AC5" s="26" t="s">
         <v>172</v>
@@ -4960,17 +5029,17 @@
         <v>383</v>
       </c>
       <c r="AG5" t="s">
-        <v>765</v>
+        <v>786</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>764</v>
+        <v>785</v>
       </c>
       <c r="AJ5" t="s">
-        <v>764</v>
+        <v>785</v>
       </c>
       <c r="AK5" t="s">
-        <v>764</v>
+        <v>785</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -5571,7 +5640,7 @@
       <c r="Z11" s="30"/>
       <c r="AA11" s="28"/>
       <c r="AB11" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="AC11" s="28"/>
       <c r="AD11" t="s">
@@ -5582,7 +5651,7 @@
         <v>383</v>
       </c>
       <c r="AG11" t="s">
-        <v>769</v>
+        <v>791</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -5642,7 +5711,7 @@
         <v>383</v>
       </c>
       <c r="AG12" t="s">
-        <v>766</v>
+        <v>787</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -5691,16 +5760,16 @@
       </c>
       <c r="Z13" s="31"/>
       <c r="AB13" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="AD13" t="s">
-        <v>707</v>
+        <v>788</v>
       </c>
       <c r="AF13" t="s">
         <v>383</v>
       </c>
       <c r="AG13" t="s">
-        <v>767</v>
+        <v>789</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -5774,7 +5843,7 @@
         <v>383</v>
       </c>
       <c r="AG14" t="s">
-        <v>768</v>
+        <v>790</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -7103,7 +7172,7 @@
         <v>248</v>
       </c>
       <c r="D2" t="s">
-        <v>754</v>
+        <v>777</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>252</v>
@@ -7301,7 +7370,7 @@
         <v>296</v>
       </c>
       <c r="D13" t="s">
-        <v>755</v>
+        <v>779</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>297</v>

--- a/NetAgent/src/main/resources/NA_STG.xlsx
+++ b/NetAgent/src/main/resources/NA_STG.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2872" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3264" uniqueCount="861">
   <si>
     <t>PUId</t>
   </si>
@@ -2529,6 +2529,192 @@
   </si>
   <si>
     <t>10598893</t>
+  </si>
+  <si>
+    <t>05:11</t>
+  </si>
+  <si>
+    <t>10681032</t>
+  </si>
+  <si>
+    <t>10681057</t>
+  </si>
+  <si>
+    <t>1583</t>
+  </si>
+  <si>
+    <t>10681065</t>
+  </si>
+  <si>
+    <t>10681068</t>
+  </si>
+  <si>
+    <t>141424936</t>
+  </si>
+  <si>
+    <t>33862949</t>
+  </si>
+  <si>
+    <t>10680706</t>
+  </si>
+  <si>
+    <t>141424947</t>
+  </si>
+  <si>
+    <t>04:14</t>
+  </si>
+  <si>
+    <t>10733975</t>
+  </si>
+  <si>
+    <t>05:20</t>
+  </si>
+  <si>
+    <t>10734018</t>
+  </si>
+  <si>
+    <t>05:42</t>
+  </si>
+  <si>
+    <t>10734029</t>
+  </si>
+  <si>
+    <t>10734031</t>
+  </si>
+  <si>
+    <t>06:58</t>
+  </si>
+  <si>
+    <t>07:02</t>
+  </si>
+  <si>
+    <t>10734068</t>
+  </si>
+  <si>
+    <t>10734079</t>
+  </si>
+  <si>
+    <t>10734091</t>
+  </si>
+  <si>
+    <t>10734108</t>
+  </si>
+  <si>
+    <t>10734118</t>
+  </si>
+  <si>
+    <t>142007952</t>
+  </si>
+  <si>
+    <t>33915913</t>
+  </si>
+  <si>
+    <t>10733646</t>
+  </si>
+  <si>
+    <t>142007963</t>
+  </si>
+  <si>
+    <t>10735642</t>
+  </si>
+  <si>
+    <t>01:34</t>
+  </si>
+  <si>
+    <t>10735653</t>
+  </si>
+  <si>
+    <t>10735670</t>
+  </si>
+  <si>
+    <t>03:15</t>
+  </si>
+  <si>
+    <t>10735697</t>
+  </si>
+  <si>
+    <t>10735794</t>
+  </si>
+  <si>
+    <t>10735939</t>
+  </si>
+  <si>
+    <t>05:09</t>
+  </si>
+  <si>
+    <t>10735958</t>
+  </si>
+  <si>
+    <t>05:27</t>
+  </si>
+  <si>
+    <t>10735977</t>
+  </si>
+  <si>
+    <t>07:50</t>
+  </si>
+  <si>
+    <t>10736196</t>
+  </si>
+  <si>
+    <t>08:48</t>
+  </si>
+  <si>
+    <t>10736328</t>
+  </si>
+  <si>
+    <t>09:18</t>
+  </si>
+  <si>
+    <t>10736386</t>
+  </si>
+  <si>
+    <t>10737428</t>
+  </si>
+  <si>
+    <t>10737510</t>
+  </si>
+  <si>
+    <t>01:45</t>
+  </si>
+  <si>
+    <t>10737514</t>
+  </si>
+  <si>
+    <t>01:57</t>
+  </si>
+  <si>
+    <t>10737523</t>
+  </si>
+  <si>
+    <t>02:05</t>
+  </si>
+  <si>
+    <t>10737551</t>
+  </si>
+  <si>
+    <t>10737568</t>
+  </si>
+  <si>
+    <t>10737579</t>
+  </si>
+  <si>
+    <t>10737592</t>
+  </si>
+  <si>
+    <t>10737605</t>
+  </si>
+  <si>
+    <t>142049019</t>
+  </si>
+  <si>
+    <t>33919642</t>
+  </si>
+  <si>
+    <t>10737363</t>
+  </si>
+  <si>
+    <t>142049020</t>
   </si>
 </sst>
 </file>
@@ -4432,16 +4618,16 @@
         <v>416</v>
       </c>
       <c r="B2" t="s">
-        <v>792</v>
+        <v>857</v>
       </c>
       <c r="C2" t="s">
-        <v>793</v>
+        <v>858</v>
       </c>
       <c r="D2" t="s">
-        <v>794</v>
+        <v>859</v>
       </c>
       <c r="E2" t="s">
-        <v>795</v>
+        <v>860</v>
       </c>
     </row>
   </sheetData>
@@ -4688,7 +4874,7 @@
         <v>154</v>
       </c>
       <c r="AB2" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="AC2" s="26" t="s">
         <v>155</v>
@@ -4700,20 +4886,20 @@
         <v>157</v>
       </c>
       <c r="AF2" t="s">
-        <v>383</v>
+        <v>183</v>
       </c>
       <c r="AG2" t="s">
-        <v>777</v>
+        <v>846</v>
       </c>
       <c r="AH2" s="30"/>
       <c r="AI2" t="s">
-        <v>490</v>
+        <v>389</v>
       </c>
       <c r="AJ2" t="s">
-        <v>490</v>
+        <v>389</v>
       </c>
       <c r="AK2" t="s">
-        <v>490</v>
+        <v>389</v>
       </c>
       <c r="AL2" s="31"/>
       <c r="AM2" s="40" t="s">
@@ -4800,7 +4986,7 @@
         <v>171</v>
       </c>
       <c r="AB3" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="AC3" s="26" t="s">
         <v>172</v>
@@ -4810,20 +4996,20 @@
       </c>
       <c r="AE3" s="26"/>
       <c r="AF3" t="s">
-        <v>383</v>
+        <v>183</v>
       </c>
       <c r="AG3" t="s">
-        <v>779</v>
+        <v>848</v>
       </c>
       <c r="AH3" s="30"/>
       <c r="AI3" t="s">
-        <v>778</v>
+        <v>847</v>
       </c>
       <c r="AJ3" t="s">
-        <v>778</v>
+        <v>847</v>
       </c>
       <c r="AK3" t="s">
-        <v>778</v>
+        <v>847</v>
       </c>
       <c r="AL3" s="31"/>
       <c r="AM3" s="40" t="s">
@@ -4919,17 +5105,17 @@
         <v>183</v>
       </c>
       <c r="AG4" t="s">
-        <v>798</v>
+        <v>850</v>
       </c>
       <c r="AH4" s="30"/>
       <c r="AI4" t="s">
-        <v>797</v>
+        <v>849</v>
       </c>
       <c r="AJ4" t="s">
-        <v>797</v>
+        <v>849</v>
       </c>
       <c r="AK4" t="s">
-        <v>797</v>
+        <v>849</v>
       </c>
       <c r="AL4" s="31"/>
       <c r="AM4" s="40" t="s">
@@ -5016,7 +5202,7 @@
         <v>171</v>
       </c>
       <c r="AB5" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="AC5" s="26" t="s">
         <v>172</v>
@@ -5026,20 +5212,20 @@
       </c>
       <c r="AE5" s="26"/>
       <c r="AF5" t="s">
-        <v>383</v>
+        <v>183</v>
       </c>
       <c r="AG5" t="s">
-        <v>786</v>
+        <v>852</v>
       </c>
       <c r="AH5" s="30"/>
       <c r="AI5" t="s">
-        <v>785</v>
+        <v>851</v>
       </c>
       <c r="AJ5" t="s">
-        <v>785</v>
+        <v>851</v>
       </c>
       <c r="AK5" t="s">
-        <v>785</v>
+        <v>851</v>
       </c>
       <c r="AL5" s="31"/>
       <c r="AM5" s="40" t="s">
@@ -5648,10 +5834,10 @@
       </c>
       <c r="AE11" s="28"/>
       <c r="AF11" t="s">
-        <v>383</v>
+        <v>183</v>
       </c>
       <c r="AG11" t="s">
-        <v>791</v>
+        <v>856</v>
       </c>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
@@ -5705,13 +5891,13 @@
         <v>197</v>
       </c>
       <c r="AD12" t="s">
-        <v>359</v>
+        <v>683</v>
       </c>
       <c r="AF12" t="s">
-        <v>383</v>
+        <v>183</v>
       </c>
       <c r="AG12" t="s">
-        <v>787</v>
+        <v>853</v>
       </c>
       <c r="AH12" s="31"/>
       <c r="AI12" s="31"/>
@@ -5760,16 +5946,16 @@
       </c>
       <c r="Z13" s="31"/>
       <c r="AB13" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>802</v>
+      </c>
+      <c r="AF13" t="s">
         <v>183</v>
       </c>
-      <c r="AD13" t="s">
-        <v>788</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>383</v>
-      </c>
       <c r="AG13" t="s">
-        <v>789</v>
+        <v>854</v>
       </c>
       <c r="AH13" s="31"/>
       <c r="AI13" s="31"/>
@@ -5832,7 +6018,7 @@
       <c r="Z14" s="60"/>
       <c r="AA14" s="59"/>
       <c r="AB14" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AC14" s="59"/>
       <c r="AD14" t="s">
@@ -5840,10 +6026,10 @@
       </c>
       <c r="AE14" s="59"/>
       <c r="AF14" t="s">
-        <v>383</v>
+        <v>183</v>
       </c>
       <c r="AG14" t="s">
-        <v>790</v>
+        <v>855</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -7172,7 +7358,7 @@
         <v>248</v>
       </c>
       <c r="D2" t="s">
-        <v>777</v>
+        <v>846</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>252</v>
@@ -7370,7 +7556,7 @@
         <v>296</v>
       </c>
       <c r="D13" t="s">
-        <v>779</v>
+        <v>848</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>297</v>

--- a/NetAgent/src/main/resources/NA_STG.xlsx
+++ b/NetAgent/src/main/resources/NA_STG.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3264" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3284" uniqueCount="865">
   <si>
     <t>PUId</t>
   </si>
@@ -2715,6 +2715,18 @@
   </si>
   <si>
     <t>142049020</t>
+  </si>
+  <si>
+    <t>142284461</t>
+  </si>
+  <si>
+    <t>33940935</t>
+  </si>
+  <si>
+    <t>10758649</t>
+  </si>
+  <si>
+    <t>142284472</t>
   </si>
 </sst>
 </file>
@@ -4618,16 +4630,16 @@
         <v>416</v>
       </c>
       <c r="B2" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="C2" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="D2" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="E2" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
     </row>
   </sheetData>
